--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -1746,14 +1746,20 @@
         <v>9400</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9400</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1781,14 +1787,20 @@
         <v>9400</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9400</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1827,7 +1839,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1863,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
@@ -1904,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
@@ -1939,12 +1951,14 @@
         <v>9451.666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9460</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -1978,12 +1992,14 @@
         <v>9463.333333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9460</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -3460,14 +3476,12 @@
         <v>9443.333333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9420</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3579,14 +3593,12 @@
         <v>9458.333333333334</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>9455</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3776,14 +3788,12 @@
         <v>9415</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3817,14 +3827,12 @@
         <v>9411.666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3858,14 +3866,12 @@
         <v>9416.666666666666</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>9445</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3899,14 +3905,12 @@
         <v>9413.333333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3940,14 +3944,12 @@
         <v>9438.333333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>9460</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3981,14 +3983,12 @@
         <v>9423.333333333334</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>9415</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4022,14 +4022,12 @@
         <v>9420</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>9395</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4063,14 +4061,12 @@
         <v>9391.666666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4104,14 +4100,12 @@
         <v>9411.666666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>9475</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4145,14 +4139,12 @@
         <v>9443.333333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>9475</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4186,14 +4178,12 @@
         <v>9438.333333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>9415</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4344,14 +4334,12 @@
         <v>9410</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>9435</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4385,14 +4373,12 @@
         <v>9406.666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>9435</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4426,14 +4412,12 @@
         <v>9433.333333333334</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>9410</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4467,14 +4451,12 @@
         <v>9433.333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4508,14 +4490,12 @@
         <v>9430</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4549,14 +4529,12 @@
         <v>9431.666666666666</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4590,14 +4568,12 @@
         <v>9441.666666666666</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>9465</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4631,14 +4607,12 @@
         <v>9455</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>9465</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4672,14 +4646,12 @@
         <v>9465</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>9465</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4713,14 +4685,12 @@
         <v>9465</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>9465</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4871,14 +4841,12 @@
         <v>9398.333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4912,14 +4880,12 @@
         <v>9413.333333333334</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9435</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4953,14 +4919,12 @@
         <v>9413.333333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4994,14 +4958,12 @@
         <v>9405</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -5035,14 +4997,12 @@
         <v>9388.333333333334</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>9395</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -5076,14 +5036,12 @@
         <v>9386.666666666666</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>9385</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -5117,14 +5075,12 @@
         <v>9400</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -5158,14 +5114,12 @@
         <v>9418.333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>9435</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -5199,14 +5153,12 @@
         <v>9455</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>9455</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5240,14 +5192,12 @@
         <v>9476.666666666666</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>9495</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5281,14 +5231,12 @@
         <v>9493.333333333334</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>9495</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5634,14 +5582,12 @@
         <v>9430</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5675,14 +5621,12 @@
         <v>9451.666666666666</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>9485</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5716,14 +5660,12 @@
         <v>9473.333333333334</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>9495</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -6072,18 +6014,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6111,15 +6051,11 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6150,15 +6086,11 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6189,15 +6121,11 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6228,15 +6156,11 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +6195,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6310,11 +6230,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>9650</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>0.1441450777202073</v>
       </c>
       <c r="G2" t="n">
-        <v>9640</v>
+        <v>9440.583333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9625</v>
+        <v>9650</v>
       </c>
       <c r="C3" t="n">
-        <v>9580</v>
+        <v>9650</v>
       </c>
       <c r="D3" t="n">
-        <v>9625</v>
+        <v>9650</v>
       </c>
       <c r="E3" t="n">
-        <v>9580</v>
+        <v>9650</v>
       </c>
       <c r="F3" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>9626.666666666666</v>
+        <v>9447.416666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9605</v>
+        <v>9625</v>
       </c>
       <c r="C4" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="D4" t="n">
-        <v>9605</v>
+        <v>9625</v>
       </c>
       <c r="E4" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="F4" t="n">
-        <v>48.1268</v>
+        <v>105</v>
       </c>
       <c r="G4" t="n">
-        <v>9610</v>
+        <v>9453.083333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9600</v>
+        <v>9605</v>
       </c>
       <c r="C5" t="n">
         <v>9600</v>
       </c>
       <c r="D5" t="n">
-        <v>9600</v>
+        <v>9605</v>
       </c>
       <c r="E5" t="n">
         <v>9600</v>
       </c>
       <c r="F5" t="n">
-        <v>34.1866</v>
+        <v>48.1268</v>
       </c>
       <c r="G5" t="n">
-        <v>9593.333333333334</v>
+        <v>9459.083333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>9600</v>
       </c>
       <c r="F6" t="n">
-        <v>2.6866</v>
+        <v>34.1866</v>
       </c>
       <c r="G6" t="n">
-        <v>9600</v>
+        <v>9465.083333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9645</v>
+        <v>9600</v>
       </c>
       <c r="C7" t="n">
-        <v>9645</v>
+        <v>9600</v>
       </c>
       <c r="D7" t="n">
-        <v>9645</v>
+        <v>9600</v>
       </c>
       <c r="E7" t="n">
-        <v>9645</v>
+        <v>9600</v>
       </c>
       <c r="F7" t="n">
-        <v>22.8886</v>
+        <v>2.6866</v>
       </c>
       <c r="G7" t="n">
-        <v>9615</v>
+        <v>9471.166666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9615</v>
+        <v>9645</v>
       </c>
       <c r="C8" t="n">
         <v>9645</v>
@@ -652,13 +652,13 @@
         <v>9645</v>
       </c>
       <c r="E8" t="n">
-        <v>9615</v>
+        <v>9645</v>
       </c>
       <c r="F8" t="n">
-        <v>10.9326</v>
+        <v>22.8886</v>
       </c>
       <c r="G8" t="n">
-        <v>9630</v>
+        <v>9478</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9640</v>
+        <v>9615</v>
       </c>
       <c r="C9" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D9" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="E9" t="n">
-        <v>9640</v>
+        <v>9615</v>
       </c>
       <c r="F9" t="n">
-        <v>6.9285</v>
+        <v>10.9326</v>
       </c>
       <c r="G9" t="n">
-        <v>9643.333333333334</v>
+        <v>9483.083333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="C10" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="D10" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="E10" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>6.9285</v>
       </c>
       <c r="G10" t="n">
-        <v>9638.333333333334</v>
+        <v>9487.916666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9615</v>
+        <v>9630</v>
       </c>
       <c r="C11" t="n">
-        <v>9605</v>
+        <v>9630</v>
       </c>
       <c r="D11" t="n">
-        <v>9615</v>
+        <v>9630</v>
       </c>
       <c r="E11" t="n">
-        <v>9605</v>
+        <v>9630</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>9625</v>
+        <v>9492.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9610</v>
+        <v>9615</v>
       </c>
       <c r="C12" t="n">
-        <v>9625</v>
+        <v>9605</v>
       </c>
       <c r="D12" t="n">
-        <v>9625</v>
+        <v>9615</v>
       </c>
       <c r="E12" t="n">
-        <v>9610</v>
+        <v>9605</v>
       </c>
       <c r="F12" t="n">
-        <v>22.4112</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>9620</v>
+        <v>9497.25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>9610</v>
+      </c>
+      <c r="C13" t="n">
         <v>9625</v>
       </c>
-      <c r="C13" t="n">
-        <v>9660</v>
-      </c>
       <c r="D13" t="n">
-        <v>9660</v>
+        <v>9625</v>
       </c>
       <c r="E13" t="n">
-        <v>9625</v>
+        <v>9610</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>22.4112</v>
       </c>
       <c r="G13" t="n">
-        <v>9630</v>
+        <v>9502.166666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9655</v>
+        <v>9625</v>
       </c>
       <c r="C14" t="n">
-        <v>9670</v>
+        <v>9660</v>
       </c>
       <c r="D14" t="n">
-        <v>9670</v>
+        <v>9660</v>
       </c>
       <c r="E14" t="n">
-        <v>9655</v>
+        <v>9625</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>9651.666666666666</v>
+        <v>9508.333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="C15" t="n">
-        <v>9635</v>
+        <v>9670</v>
       </c>
       <c r="D15" t="n">
-        <v>9635</v>
+        <v>9670</v>
       </c>
       <c r="E15" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="F15" t="n">
-        <v>9.522</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>9655</v>
+        <v>9514.666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9630</v>
+        <v>9635</v>
       </c>
       <c r="C16" t="n">
-        <v>9620</v>
+        <v>9635</v>
       </c>
       <c r="D16" t="n">
-        <v>9630</v>
+        <v>9635</v>
       </c>
       <c r="E16" t="n">
-        <v>9620</v>
+        <v>9635</v>
       </c>
       <c r="F16" t="n">
-        <v>78.0951</v>
+        <v>9.522</v>
       </c>
       <c r="G16" t="n">
-        <v>9641.666666666666</v>
+        <v>9520.416666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9615</v>
+        <v>9630</v>
       </c>
       <c r="C17" t="n">
-        <v>9605</v>
+        <v>9620</v>
       </c>
       <c r="D17" t="n">
-        <v>9615</v>
+        <v>9630</v>
       </c>
       <c r="E17" t="n">
-        <v>9605</v>
+        <v>9620</v>
       </c>
       <c r="F17" t="n">
-        <v>74.1555</v>
+        <v>78.0951</v>
       </c>
       <c r="G17" t="n">
-        <v>9620</v>
+        <v>9525.916666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C18" t="n">
         <v>9605</v>
       </c>
-      <c r="C18" t="n">
-        <v>9600</v>
-      </c>
       <c r="D18" t="n">
+        <v>9615</v>
+      </c>
+      <c r="E18" t="n">
         <v>9605</v>
       </c>
-      <c r="E18" t="n">
-        <v>9600</v>
-      </c>
       <c r="F18" t="n">
-        <v>36.1472</v>
+        <v>74.1555</v>
       </c>
       <c r="G18" t="n">
-        <v>9608.333333333334</v>
+        <v>9531.333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9590</v>
+        <v>9605</v>
       </c>
       <c r="C19" t="n">
-        <v>9515</v>
+        <v>9600</v>
       </c>
       <c r="D19" t="n">
-        <v>9610</v>
+        <v>9605</v>
       </c>
       <c r="E19" t="n">
-        <v>9515</v>
+        <v>9600</v>
       </c>
       <c r="F19" t="n">
-        <v>33.6589</v>
+        <v>36.1472</v>
       </c>
       <c r="G19" t="n">
-        <v>9573.333333333334</v>
+        <v>9535.416666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9600</v>
+        <v>9590</v>
       </c>
       <c r="C20" t="n">
-        <v>9600</v>
+        <v>9515</v>
       </c>
       <c r="D20" t="n">
-        <v>9600</v>
+        <v>9610</v>
       </c>
       <c r="E20" t="n">
-        <v>9600</v>
+        <v>9515</v>
       </c>
       <c r="F20" t="n">
-        <v>14.1041</v>
+        <v>33.6589</v>
       </c>
       <c r="G20" t="n">
-        <v>9571.666666666666</v>
+        <v>9537.916666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9590</v>
+        <v>9600</v>
       </c>
       <c r="C21" t="n">
-        <v>9510</v>
+        <v>9600</v>
       </c>
       <c r="D21" t="n">
-        <v>9590</v>
+        <v>9600</v>
       </c>
       <c r="E21" t="n">
-        <v>9510</v>
+        <v>9600</v>
       </c>
       <c r="F21" t="n">
-        <v>16.4229</v>
+        <v>14.1041</v>
       </c>
       <c r="G21" t="n">
-        <v>9541.666666666666</v>
+        <v>9541.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>9590</v>
       </c>
       <c r="C22" t="n">
-        <v>9590</v>
+        <v>9510</v>
       </c>
       <c r="D22" t="n">
         <v>9590</v>
       </c>
       <c r="E22" t="n">
-        <v>9590</v>
+        <v>9510</v>
       </c>
       <c r="F22" t="n">
-        <v>7.0595</v>
+        <v>16.4229</v>
       </c>
       <c r="G22" t="n">
-        <v>9566.666666666666</v>
+        <v>9543.583333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="C23" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="D23" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="E23" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="F23" t="n">
-        <v>28.0906</v>
+        <v>7.0595</v>
       </c>
       <c r="G23" t="n">
-        <v>9538.333333333334</v>
+        <v>9546.666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>9515</v>
       </c>
       <c r="F24" t="n">
-        <v>19.714</v>
+        <v>28.0906</v>
       </c>
       <c r="G24" t="n">
-        <v>9540</v>
+        <v>9548.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>9515</v>
       </c>
       <c r="F25" t="n">
-        <v>91.5192</v>
+        <v>19.714</v>
       </c>
       <c r="G25" t="n">
-        <v>9515</v>
+        <v>9550.333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9480</v>
+        <v>9515</v>
       </c>
       <c r="C26" t="n">
-        <v>9480</v>
+        <v>9515</v>
       </c>
       <c r="D26" t="n">
-        <v>9480</v>
+        <v>9515</v>
       </c>
       <c r="E26" t="n">
-        <v>9475</v>
+        <v>9515</v>
       </c>
       <c r="F26" t="n">
-        <v>266.0756</v>
+        <v>91.5192</v>
       </c>
       <c r="G26" t="n">
-        <v>9503.333333333334</v>
+        <v>9552.166666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>9480</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9480</v>
+      </c>
+      <c r="E27" t="n">
         <v>9475</v>
       </c>
-      <c r="C27" t="n">
-        <v>9425</v>
-      </c>
-      <c r="D27" t="n">
-        <v>9475</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9425</v>
-      </c>
       <c r="F27" t="n">
-        <v>291.8799</v>
+        <v>266.0756</v>
       </c>
       <c r="G27" t="n">
-        <v>9473.333333333334</v>
+        <v>9553.333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9445</v>
+        <v>9475</v>
       </c>
       <c r="C28" t="n">
-        <v>9495</v>
+        <v>9425</v>
       </c>
       <c r="D28" t="n">
-        <v>9495</v>
+        <v>9475</v>
       </c>
       <c r="E28" t="n">
-        <v>9430</v>
+        <v>9425</v>
       </c>
       <c r="F28" t="n">
-        <v>37.0776</v>
+        <v>291.8799</v>
       </c>
       <c r="G28" t="n">
-        <v>9466.666666666666</v>
+        <v>9553.583333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,31 +1378,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C29" t="n">
         <v>9495</v>
       </c>
-      <c r="C29" t="n">
-        <v>9505</v>
-      </c>
       <c r="D29" t="n">
-        <v>9505</v>
+        <v>9495</v>
       </c>
       <c r="E29" t="n">
-        <v>9495</v>
+        <v>9430</v>
       </c>
       <c r="F29" t="n">
-        <v>145.8052</v>
+        <v>37.0776</v>
       </c>
       <c r="G29" t="n">
-        <v>9475</v>
+        <v>9555</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>9425</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9425</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1413,32 +1417,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9505</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9495</v>
+      </c>
+      <c r="F30" t="n">
+        <v>145.8052</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9555.916666666666</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
         <v>9425</v>
       </c>
-      <c r="C30" t="n">
-        <v>9425</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9425</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9425</v>
-      </c>
-      <c r="F30" t="n">
-        <v>62.8417</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9475</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1458,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="C31" t="n">
-        <v>9440</v>
+        <v>9425</v>
       </c>
       <c r="D31" t="n">
-        <v>9440</v>
+        <v>9425</v>
       </c>
       <c r="E31" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="F31" t="n">
-        <v>61.7789</v>
+        <v>62.8417</v>
       </c>
       <c r="G31" t="n">
-        <v>9456.666666666666</v>
+        <v>9555.333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9440</v>
+        <v>9420</v>
       </c>
       <c r="C32" t="n">
         <v>9440</v>
@@ -1492,13 +1508,13 @@
         <v>9440</v>
       </c>
       <c r="E32" t="n">
-        <v>9440</v>
+        <v>9420</v>
       </c>
       <c r="F32" t="n">
-        <v>2.3124</v>
+        <v>61.7789</v>
       </c>
       <c r="G32" t="n">
-        <v>9435</v>
+        <v>9554.916666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9425</v>
+        <v>9440</v>
       </c>
       <c r="C33" t="n">
-        <v>9420</v>
+        <v>9440</v>
       </c>
       <c r="D33" t="n">
-        <v>9425</v>
+        <v>9440</v>
       </c>
       <c r="E33" t="n">
-        <v>9420</v>
+        <v>9440</v>
       </c>
       <c r="F33" t="n">
-        <v>7.3468</v>
+        <v>2.3124</v>
       </c>
       <c r="G33" t="n">
-        <v>9433.333333333334</v>
+        <v>9554.583333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1581,10 @@
         <v>9420</v>
       </c>
       <c r="F34" t="n">
-        <v>59.514</v>
+        <v>7.3468</v>
       </c>
       <c r="G34" t="n">
-        <v>9426.666666666666</v>
+        <v>9553.916666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9410</v>
+        <v>9425</v>
       </c>
       <c r="C35" t="n">
-        <v>9410</v>
+        <v>9420</v>
       </c>
       <c r="D35" t="n">
-        <v>9410</v>
+        <v>9425</v>
       </c>
       <c r="E35" t="n">
-        <v>9410</v>
+        <v>9420</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8461</v>
+        <v>59.514</v>
       </c>
       <c r="G35" t="n">
-        <v>9416.666666666666</v>
+        <v>9552.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,31 +1639,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9370</v>
+        <v>9410</v>
       </c>
       <c r="C36" t="n">
-        <v>9370</v>
+        <v>9410</v>
       </c>
       <c r="D36" t="n">
-        <v>9370</v>
+        <v>9410</v>
       </c>
       <c r="E36" t="n">
-        <v>9370</v>
+        <v>9410</v>
       </c>
       <c r="F36" t="n">
-        <v>6.6318</v>
+        <v>0.8461</v>
       </c>
       <c r="G36" t="n">
-        <v>9400</v>
+        <v>9550.833333333334</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9420</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9420</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1658,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9400</v>
+        <v>9370</v>
       </c>
       <c r="C37" t="n">
-        <v>9400</v>
+        <v>9370</v>
       </c>
       <c r="D37" t="n">
-        <v>9400</v>
+        <v>9370</v>
       </c>
       <c r="E37" t="n">
-        <v>9400</v>
+        <v>9370</v>
       </c>
       <c r="F37" t="n">
-        <v>17.5462</v>
+        <v>6.6318</v>
       </c>
       <c r="G37" t="n">
-        <v>9393.333333333334</v>
+        <v>9548.666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1705,20 +1731,28 @@
         <v>9400</v>
       </c>
       <c r="F38" t="n">
-        <v>32.4538</v>
+        <v>17.5462</v>
       </c>
       <c r="G38" t="n">
-        <v>9390</v>
+        <v>9546.666666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9370</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1762,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9405</v>
+        <v>9400</v>
       </c>
       <c r="C39" t="n">
         <v>9400</v>
       </c>
       <c r="D39" t="n">
-        <v>9405</v>
+        <v>9400</v>
       </c>
       <c r="E39" t="n">
         <v>9400</v>
       </c>
       <c r="F39" t="n">
-        <v>55.0324</v>
+        <v>32.4538</v>
       </c>
       <c r="G39" t="n">
-        <v>9400</v>
+        <v>9542.916666666666</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1754,12 +1788,10 @@
       <c r="J39" t="n">
         <v>9400</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1769,36 +1801,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9400</v>
+        <v>9405</v>
       </c>
       <c r="C40" t="n">
         <v>9400</v>
       </c>
       <c r="D40" t="n">
-        <v>9400</v>
+        <v>9405</v>
       </c>
       <c r="E40" t="n">
         <v>9400</v>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>55.0324</v>
       </c>
       <c r="G40" t="n">
-        <v>9400</v>
+        <v>9540.916666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9400</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1813,30 +1845,30 @@
         <v>9400</v>
       </c>
       <c r="C41" t="n">
-        <v>9430</v>
+        <v>9400</v>
       </c>
       <c r="D41" t="n">
-        <v>9430</v>
+        <v>9400</v>
       </c>
       <c r="E41" t="n">
         <v>9400</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>9410</v>
+        <v>9538.833333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>9400</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1851,22 +1883,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9435</v>
+        <v>9400</v>
       </c>
       <c r="C42" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="D42" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="E42" t="n">
-        <v>9435</v>
+        <v>9400</v>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>9421.666666666666</v>
+        <v>9537.166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1875,9 +1907,11 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9430</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>9400</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9400</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1892,33 +1926,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="C43" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="D43" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="E43" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="F43" t="n">
         <v>20</v>
       </c>
       <c r="G43" t="n">
-        <v>9441.666666666666</v>
+        <v>9535.416666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>9435</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>9400</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1945,10 +1979,10 @@
         <v>9460</v>
       </c>
       <c r="F44" t="n">
-        <v>11.7485</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>9451.666666666666</v>
+        <v>9534.083333333334</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1957,9 +1991,11 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>9435</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9400</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1974,22 +2010,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="C45" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="D45" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="E45" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="F45" t="n">
-        <v>18.9484</v>
+        <v>11.7485</v>
       </c>
       <c r="G45" t="n">
-        <v>9463.333333333334</v>
+        <v>9532.833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2000,7 +2036,9 @@
       <c r="J45" t="n">
         <v>9460</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>9400</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,22 +2053,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="C46" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="D46" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="E46" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="F46" t="n">
-        <v>9.8353</v>
+        <v>18.9484</v>
       </c>
       <c r="G46" t="n">
-        <v>9468.333333333334</v>
+        <v>9532.833333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2039,7 +2077,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>9400</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,22 +2094,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9470</v>
+        <v>9475</v>
       </c>
       <c r="C47" t="n">
-        <v>9470</v>
+        <v>9475</v>
       </c>
       <c r="D47" t="n">
-        <v>9470</v>
+        <v>9475</v>
       </c>
       <c r="E47" t="n">
-        <v>9470</v>
+        <v>9475</v>
       </c>
       <c r="F47" t="n">
-        <v>5.1064</v>
+        <v>9.8353</v>
       </c>
       <c r="G47" t="n">
-        <v>9471.666666666666</v>
+        <v>9532.75</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2078,7 +2118,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9400</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,22 +2135,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="C48" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="D48" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="E48" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3124</v>
+        <v>5.1064</v>
       </c>
       <c r="G48" t="n">
-        <v>9483.333333333334</v>
+        <v>9532.916666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2117,7 +2159,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>9400</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,22 +2176,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="C49" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="D49" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="E49" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="F49" t="n">
-        <v>14.3753</v>
+        <v>0.3124</v>
       </c>
       <c r="G49" t="n">
-        <v>9491.666666666666</v>
+        <v>9533.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2156,7 +2200,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>9400</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2174,19 +2220,19 @@
         <v>9500</v>
       </c>
       <c r="C50" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="D50" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="E50" t="n">
         <v>9500</v>
       </c>
       <c r="F50" t="n">
-        <v>80.7428</v>
+        <v>14.3753</v>
       </c>
       <c r="G50" t="n">
-        <v>9508.333333333334</v>
+        <v>9533.25</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2195,7 +2241,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>9400</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,22 +2258,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C51" t="n">
         <v>9520</v>
       </c>
-      <c r="C51" t="n">
-        <v>9510</v>
-      </c>
       <c r="D51" t="n">
-        <v>9570</v>
+        <v>9520</v>
       </c>
       <c r="E51" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="F51" t="n">
-        <v>272.989</v>
+        <v>80.7428</v>
       </c>
       <c r="G51" t="n">
-        <v>9510</v>
+        <v>9533.083333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2234,7 +2282,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>9400</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2249,22 +2299,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C52" t="n">
         <v>9510</v>
       </c>
-      <c r="C52" t="n">
-        <v>9535</v>
-      </c>
       <c r="D52" t="n">
-        <v>9535</v>
+        <v>9570</v>
       </c>
       <c r="E52" t="n">
         <v>9510</v>
       </c>
       <c r="F52" t="n">
-        <v>82.97799999999999</v>
+        <v>272.989</v>
       </c>
       <c r="G52" t="n">
-        <v>9521.666666666666</v>
+        <v>9533.583333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2273,7 +2323,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9400</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,10 +2340,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9530</v>
+        <v>9510</v>
       </c>
       <c r="C53" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="D53" t="n">
         <v>9535</v>
@@ -2300,10 +2352,10 @@
         <v>9510</v>
       </c>
       <c r="F53" t="n">
-        <v>462.9327</v>
+        <v>82.97799999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>9518.333333333334</v>
+        <v>9533.666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2312,7 +2364,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9400</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,22 +2381,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C54" t="n">
         <v>9510</v>
       </c>
       <c r="D54" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="E54" t="n">
         <v>9510</v>
       </c>
       <c r="F54" t="n">
-        <v>70</v>
+        <v>462.9327</v>
       </c>
       <c r="G54" t="n">
-        <v>9518.333333333334</v>
+        <v>9532.666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2351,7 +2405,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9400</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2369,19 +2425,19 @@
         <v>9510</v>
       </c>
       <c r="C55" t="n">
-        <v>9440</v>
+        <v>9510</v>
       </c>
       <c r="D55" t="n">
         <v>9510</v>
       </c>
       <c r="E55" t="n">
-        <v>9440</v>
+        <v>9510</v>
       </c>
       <c r="F55" t="n">
-        <v>64.0646</v>
+        <v>70</v>
       </c>
       <c r="G55" t="n">
-        <v>9486.666666666666</v>
+        <v>9531.333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2390,7 +2446,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9400</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,22 +2463,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="C56" t="n">
-        <v>9490</v>
+        <v>9440</v>
       </c>
       <c r="D56" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="E56" t="n">
-        <v>9490</v>
+        <v>9440</v>
       </c>
       <c r="F56" t="n">
-        <v>3.9383</v>
+        <v>64.0646</v>
       </c>
       <c r="G56" t="n">
-        <v>9480</v>
+        <v>9528.833333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2429,7 +2487,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9400</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,10 +2516,10 @@
         <v>9490</v>
       </c>
       <c r="F57" t="n">
-        <v>11.159</v>
+        <v>3.9383</v>
       </c>
       <c r="G57" t="n">
-        <v>9473.333333333334</v>
+        <v>9526.916666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2468,7 +2528,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>9400</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,22 +2545,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="C58" t="n">
         <v>9490</v>
       </c>
       <c r="D58" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="E58" t="n">
         <v>9490</v>
       </c>
       <c r="F58" t="n">
-        <v>49.2068</v>
+        <v>11.159</v>
       </c>
       <c r="G58" t="n">
-        <v>9490</v>
+        <v>9524.916666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2507,7 +2569,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>9400</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,22 +2586,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9465</v>
+        <v>9500</v>
       </c>
       <c r="C59" t="n">
-        <v>9460</v>
+        <v>9490</v>
       </c>
       <c r="D59" t="n">
-        <v>9465</v>
+        <v>9500</v>
       </c>
       <c r="E59" t="n">
-        <v>9460</v>
+        <v>9490</v>
       </c>
       <c r="F59" t="n">
-        <v>15.4439</v>
+        <v>49.2068</v>
       </c>
       <c r="G59" t="n">
-        <v>9480</v>
+        <v>9523</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2546,7 +2610,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>9400</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,22 +2627,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9455</v>
+        <v>9465</v>
       </c>
       <c r="C60" t="n">
-        <v>9455</v>
+        <v>9460</v>
       </c>
       <c r="D60" t="n">
-        <v>9455</v>
+        <v>9465</v>
       </c>
       <c r="E60" t="n">
-        <v>9455</v>
+        <v>9460</v>
       </c>
       <c r="F60" t="n">
-        <v>22.2778</v>
+        <v>15.4439</v>
       </c>
       <c r="G60" t="n">
-        <v>9468.333333333334</v>
+        <v>9520.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2585,7 +2651,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>9400</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,10 +2680,10 @@
         <v>9455</v>
       </c>
       <c r="F61" t="n">
-        <v>2.4893</v>
+        <v>22.2778</v>
       </c>
       <c r="G61" t="n">
-        <v>9456.666666666666</v>
+        <v>9517.75</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2624,7 +2692,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9400</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,19 +2712,19 @@
         <v>9455</v>
       </c>
       <c r="C62" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="D62" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="E62" t="n">
         <v>9455</v>
       </c>
       <c r="F62" t="n">
-        <v>31.3473</v>
+        <v>2.4893</v>
       </c>
       <c r="G62" t="n">
-        <v>9456.666666666666</v>
+        <v>9514.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2663,7 +2733,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9400</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,7 +2750,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="C63" t="n">
         <v>9460</v>
@@ -2687,13 +2759,13 @@
         <v>9460</v>
       </c>
       <c r="E63" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="F63" t="n">
-        <v>198.3543</v>
+        <v>31.3473</v>
       </c>
       <c r="G63" t="n">
-        <v>9458.333333333334</v>
+        <v>9511.333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2702,7 +2774,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>9400</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2729,10 +2803,10 @@
         <v>9460</v>
       </c>
       <c r="F64" t="n">
-        <v>38.3682</v>
+        <v>198.3543</v>
       </c>
       <c r="G64" t="n">
-        <v>9460</v>
+        <v>9509.333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2741,7 +2815,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>9400</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,10 +2844,10 @@
         <v>9460</v>
       </c>
       <c r="F65" t="n">
-        <v>8.9984</v>
+        <v>38.3682</v>
       </c>
       <c r="G65" t="n">
-        <v>9460</v>
+        <v>9507</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2780,7 +2856,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>9400</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,22 +2873,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="C66" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="D66" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="E66" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="F66" t="n">
-        <v>3.018</v>
+        <v>8.9984</v>
       </c>
       <c r="G66" t="n">
-        <v>9456.666666666666</v>
+        <v>9504.666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2819,7 +2897,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>9400</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2846,10 +2926,10 @@
         <v>9450</v>
       </c>
       <c r="F67" t="n">
-        <v>16.982</v>
+        <v>3.018</v>
       </c>
       <c r="G67" t="n">
-        <v>9453.333333333334</v>
+        <v>9502.166666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2858,7 +2938,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>9400</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2885,10 +2967,10 @@
         <v>9450</v>
       </c>
       <c r="F68" t="n">
-        <v>3.47</v>
+        <v>16.982</v>
       </c>
       <c r="G68" t="n">
-        <v>9450</v>
+        <v>9498.916666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2897,7 +2979,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9400</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,19 +2999,19 @@
         <v>9450</v>
       </c>
       <c r="C69" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="D69" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="E69" t="n">
         <v>9450</v>
       </c>
       <c r="F69" t="n">
-        <v>18.7288</v>
+        <v>3.47</v>
       </c>
       <c r="G69" t="n">
-        <v>9453.333333333334</v>
+        <v>9495.666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2936,7 +3020,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>9400</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2951,7 +3037,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="C70" t="n">
         <v>9460</v>
@@ -2960,13 +3046,13 @@
         <v>9460</v>
       </c>
       <c r="E70" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2104651162790698</v>
+        <v>18.7288</v>
       </c>
       <c r="G70" t="n">
-        <v>9456.666666666666</v>
+        <v>9492.666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2975,7 +3061,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9400</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3002,10 +3090,10 @@
         <v>9460</v>
       </c>
       <c r="F71" t="n">
-        <v>2.54823488372093</v>
+        <v>0.2104651162790698</v>
       </c>
       <c r="G71" t="n">
-        <v>9460</v>
+        <v>9489.833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3014,7 +3102,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>9400</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3029,22 +3119,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="C72" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="D72" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="E72" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2.54823488372093</v>
       </c>
       <c r="G72" t="n">
-        <v>9455</v>
+        <v>9487.416666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3053,7 +3143,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>9400</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3068,22 +3160,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="C73" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="D73" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="E73" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>9478.333333333334</v>
+        <v>9484.416666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3092,7 +3184,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>9400</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3107,22 +3201,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9445</v>
+        <v>9530</v>
       </c>
       <c r="C74" t="n">
-        <v>9445</v>
+        <v>9530</v>
       </c>
       <c r="D74" t="n">
-        <v>9445</v>
+        <v>9530</v>
       </c>
       <c r="E74" t="n">
-        <v>9445</v>
+        <v>9530</v>
       </c>
       <c r="F74" t="n">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>9473.333333333334</v>
+        <v>9482.25</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3131,7 +3225,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9400</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,13 +3251,13 @@
         <v>9445</v>
       </c>
       <c r="E75" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="F75" t="n">
-        <v>23.5539</v>
+        <v>16</v>
       </c>
       <c r="G75" t="n">
-        <v>9473.333333333334</v>
+        <v>9478.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3170,7 +3266,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9400</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,13 +3292,13 @@
         <v>9445</v>
       </c>
       <c r="E76" t="n">
-        <v>9445</v>
+        <v>9440</v>
       </c>
       <c r="F76" t="n">
-        <v>5.0951</v>
+        <v>23.5539</v>
       </c>
       <c r="G76" t="n">
-        <v>9445</v>
+        <v>9475.333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3209,7 +3307,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9400</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,22 +3324,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="C77" t="n">
-        <v>9420</v>
+        <v>9445</v>
       </c>
       <c r="D77" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="E77" t="n">
-        <v>9420</v>
+        <v>9445</v>
       </c>
       <c r="F77" t="n">
-        <v>15.3445</v>
+        <v>5.0951</v>
       </c>
       <c r="G77" t="n">
-        <v>9436.666666666666</v>
+        <v>9472.416666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3248,7 +3348,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9400</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,22 +3365,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9425</v>
+        <v>9440</v>
       </c>
       <c r="C78" t="n">
         <v>9420</v>
       </c>
       <c r="D78" t="n">
-        <v>9425</v>
+        <v>9440</v>
       </c>
       <c r="E78" t="n">
         <v>9420</v>
       </c>
       <c r="F78" t="n">
-        <v>124.1393</v>
+        <v>15.3445</v>
       </c>
       <c r="G78" t="n">
-        <v>9428.333333333334</v>
+        <v>9469.333333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3287,7 +3389,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9400</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,22 +3406,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9485</v>
+        <v>9425</v>
       </c>
       <c r="C79" t="n">
-        <v>9485</v>
+        <v>9420</v>
       </c>
       <c r="D79" t="n">
-        <v>9485</v>
+        <v>9425</v>
       </c>
       <c r="E79" t="n">
-        <v>9485</v>
+        <v>9420</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3524</v>
+        <v>124.1393</v>
       </c>
       <c r="G79" t="n">
-        <v>9441.666666666666</v>
+        <v>9466.333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3326,7 +3430,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9400</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,22 +3447,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9420</v>
+        <v>9485</v>
       </c>
       <c r="C80" t="n">
-        <v>9420</v>
+        <v>9485</v>
       </c>
       <c r="D80" t="n">
-        <v>9420</v>
+        <v>9485</v>
       </c>
       <c r="E80" t="n">
-        <v>9420</v>
+        <v>9485</v>
       </c>
       <c r="F80" t="n">
-        <v>6.1229</v>
+        <v>0.3524</v>
       </c>
       <c r="G80" t="n">
-        <v>9441.666666666666</v>
+        <v>9465.833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3365,7 +3471,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9400</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,10 +3500,10 @@
         <v>9420</v>
       </c>
       <c r="F81" t="n">
-        <v>23.5437</v>
+        <v>6.1229</v>
       </c>
       <c r="G81" t="n">
-        <v>9441.666666666666</v>
+        <v>9462.833333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3404,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9400</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,22 +3529,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9490</v>
+        <v>9420</v>
       </c>
       <c r="C82" t="n">
-        <v>9490</v>
+        <v>9420</v>
       </c>
       <c r="D82" t="n">
-        <v>9490</v>
+        <v>9420</v>
       </c>
       <c r="E82" t="n">
-        <v>9490</v>
+        <v>9420</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3124</v>
+        <v>23.5437</v>
       </c>
       <c r="G82" t="n">
-        <v>9443.333333333334</v>
+        <v>9461.333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3443,7 +3553,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9400</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,22 +3570,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9420</v>
+        <v>9490</v>
       </c>
       <c r="C83" t="n">
-        <v>9420</v>
+        <v>9490</v>
       </c>
       <c r="D83" t="n">
-        <v>9420</v>
+        <v>9490</v>
       </c>
       <c r="E83" t="n">
-        <v>9420</v>
+        <v>9490</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>0.3124</v>
       </c>
       <c r="G83" t="n">
-        <v>9443.333333333334</v>
+        <v>9459.666666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3482,7 +3594,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9400</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,22 +3611,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="C84" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="D84" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="E84" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="F84" t="n">
-        <v>1.48</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>9446.666666666666</v>
+        <v>9458.083333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3521,7 +3635,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>9400</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,22 +3652,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="C85" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="D85" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="E85" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2</v>
+        <v>1.48</v>
       </c>
       <c r="G85" t="n">
-        <v>9446.666666666666</v>
+        <v>9456.666666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3560,7 +3676,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9400</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,22 +3693,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="C86" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="D86" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="E86" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="F86" t="n">
-        <v>11.5252</v>
+        <v>0.2</v>
       </c>
       <c r="G86" t="n">
-        <v>9458.333333333334</v>
+        <v>9456.25</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3599,7 +3717,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>9400</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,22 +3734,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9450</v>
+        <v>9455</v>
       </c>
       <c r="C87" t="n">
-        <v>9450</v>
+        <v>9455</v>
       </c>
       <c r="D87" t="n">
-        <v>9450</v>
+        <v>9455</v>
       </c>
       <c r="E87" t="n">
-        <v>9450</v>
+        <v>9455</v>
       </c>
       <c r="F87" t="n">
-        <v>41.1624</v>
+        <v>11.5252</v>
       </c>
       <c r="G87" t="n">
-        <v>9465</v>
+        <v>9455.833333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3638,7 +3758,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>9400</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,19 +3778,19 @@
         <v>9450</v>
       </c>
       <c r="C88" t="n">
-        <v>9440</v>
+        <v>9450</v>
       </c>
       <c r="D88" t="n">
         <v>9450</v>
       </c>
       <c r="E88" t="n">
-        <v>9440</v>
+        <v>9450</v>
       </c>
       <c r="F88" t="n">
-        <v>39.4402</v>
+        <v>41.1624</v>
       </c>
       <c r="G88" t="n">
-        <v>9448.333333333334</v>
+        <v>9456.25</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3677,7 +3799,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>9400</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,22 +3816,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="C89" t="n">
-        <v>9400</v>
+        <v>9440</v>
       </c>
       <c r="D89" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="E89" t="n">
-        <v>9400</v>
+        <v>9440</v>
       </c>
       <c r="F89" t="n">
-        <v>103.0295</v>
+        <v>39.4402</v>
       </c>
       <c r="G89" t="n">
-        <v>9430</v>
+        <v>9455.333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3716,7 +3840,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9400</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,22 +3857,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9445</v>
+        <v>9415</v>
       </c>
       <c r="C90" t="n">
-        <v>9445</v>
+        <v>9400</v>
       </c>
       <c r="D90" t="n">
-        <v>9445</v>
+        <v>9415</v>
       </c>
       <c r="E90" t="n">
-        <v>9445</v>
+        <v>9400</v>
       </c>
       <c r="F90" t="n">
-        <v>15</v>
+        <v>103.0295</v>
       </c>
       <c r="G90" t="n">
-        <v>9428.333333333334</v>
+        <v>9453.583333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3755,7 +3881,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9400</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,22 +3898,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9400</v>
+        <v>9445</v>
       </c>
       <c r="C91" t="n">
-        <v>9400</v>
+        <v>9445</v>
       </c>
       <c r="D91" t="n">
-        <v>9400</v>
+        <v>9445</v>
       </c>
       <c r="E91" t="n">
-        <v>9400</v>
+        <v>9445</v>
       </c>
       <c r="F91" t="n">
-        <v>28.1042</v>
+        <v>15</v>
       </c>
       <c r="G91" t="n">
-        <v>9415</v>
+        <v>9453.916666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3794,7 +3922,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9400</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,22 +3939,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="C92" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="D92" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="E92" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="F92" t="n">
-        <v>11.3064</v>
+        <v>28.1042</v>
       </c>
       <c r="G92" t="n">
-        <v>9411.666666666666</v>
+        <v>9453.25</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3833,7 +3963,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>9400</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,22 +3980,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="C93" t="n">
-        <v>9460</v>
+        <v>9390</v>
       </c>
       <c r="D93" t="n">
-        <v>9460</v>
+        <v>9390</v>
       </c>
       <c r="E93" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="F93" t="n">
-        <v>19.97768726215645</v>
+        <v>11.3064</v>
       </c>
       <c r="G93" t="n">
-        <v>9416.666666666666</v>
+        <v>9452.416666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3872,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>9400</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,22 +4021,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9390</v>
+        <v>9445</v>
       </c>
       <c r="C94" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="D94" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="E94" t="n">
-        <v>9390</v>
+        <v>9445</v>
       </c>
       <c r="F94" t="n">
-        <v>275.4038</v>
+        <v>19.97768726215645</v>
       </c>
       <c r="G94" t="n">
-        <v>9413.333333333334</v>
+        <v>9453.083333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3911,7 +4045,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9400</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,22 +4062,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9460</v>
+        <v>9390</v>
       </c>
       <c r="C95" t="n">
-        <v>9465</v>
+        <v>9390</v>
       </c>
       <c r="D95" t="n">
-        <v>9465</v>
+        <v>9390</v>
       </c>
       <c r="E95" t="n">
-        <v>9460</v>
+        <v>9390</v>
       </c>
       <c r="F95" t="n">
-        <v>17.5426</v>
+        <v>275.4038</v>
       </c>
       <c r="G95" t="n">
-        <v>9438.333333333334</v>
+        <v>9452.583333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3950,7 +4086,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9400</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,22 +4103,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9415</v>
+        <v>9460</v>
       </c>
       <c r="C96" t="n">
-        <v>9415</v>
+        <v>9465</v>
       </c>
       <c r="D96" t="n">
-        <v>9415</v>
+        <v>9465</v>
       </c>
       <c r="E96" t="n">
-        <v>9415</v>
+        <v>9460</v>
       </c>
       <c r="F96" t="n">
-        <v>30</v>
+        <v>17.5426</v>
       </c>
       <c r="G96" t="n">
-        <v>9423.333333333334</v>
+        <v>9453.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3989,7 +4127,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>9400</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,22 +4144,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9395</v>
+        <v>9415</v>
       </c>
       <c r="C97" t="n">
-        <v>9380</v>
+        <v>9415</v>
       </c>
       <c r="D97" t="n">
-        <v>9395</v>
+        <v>9415</v>
       </c>
       <c r="E97" t="n">
-        <v>9380</v>
+        <v>9415</v>
       </c>
       <c r="F97" t="n">
-        <v>124.1393</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n">
-        <v>9420</v>
+        <v>9454.25</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4028,7 +4168,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9400</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,22 +4185,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="C98" t="n">
         <v>9380</v>
       </c>
       <c r="D98" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="E98" t="n">
         <v>9380</v>
       </c>
       <c r="F98" t="n">
-        <v>38.4188</v>
+        <v>124.1393</v>
       </c>
       <c r="G98" t="n">
-        <v>9391.666666666666</v>
+        <v>9453.916666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4067,7 +4209,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>9400</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,22 +4226,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9475</v>
+        <v>9400</v>
       </c>
       <c r="C99" t="n">
-        <v>9475</v>
+        <v>9380</v>
       </c>
       <c r="D99" t="n">
-        <v>9475</v>
+        <v>9400</v>
       </c>
       <c r="E99" t="n">
-        <v>9475</v>
+        <v>9380</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2312</v>
+        <v>38.4188</v>
       </c>
       <c r="G99" t="n">
-        <v>9411.666666666666</v>
+        <v>9453.583333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4106,7 +4250,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>9400</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4133,10 +4279,10 @@
         <v>9475</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1054</v>
+        <v>0.2312</v>
       </c>
       <c r="G100" t="n">
-        <v>9443.333333333334</v>
+        <v>9454.833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4145,7 +4291,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>9400</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,22 +4308,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9415</v>
+        <v>9475</v>
       </c>
       <c r="C101" t="n">
-        <v>9365</v>
+        <v>9475</v>
       </c>
       <c r="D101" t="n">
-        <v>9415</v>
+        <v>9475</v>
       </c>
       <c r="E101" t="n">
-        <v>9365</v>
+        <v>9475</v>
       </c>
       <c r="F101" t="n">
-        <v>494.982</v>
+        <v>0.1054</v>
       </c>
       <c r="G101" t="n">
-        <v>9438.333333333334</v>
+        <v>9456.083333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4184,7 +4332,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>9400</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,22 +4349,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9470</v>
+        <v>9415</v>
       </c>
       <c r="C102" t="n">
-        <v>9470</v>
+        <v>9365</v>
       </c>
       <c r="D102" t="n">
-        <v>9470</v>
+        <v>9415</v>
       </c>
       <c r="E102" t="n">
-        <v>9470</v>
+        <v>9365</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1</v>
+        <v>494.982</v>
       </c>
       <c r="G102" t="n">
-        <v>9436.666666666666</v>
+        <v>9455</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4223,7 +4373,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>9400</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,22 +4390,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9370</v>
+        <v>9470</v>
       </c>
       <c r="C103" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="D103" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="E103" t="n">
-        <v>9360</v>
+        <v>9470</v>
       </c>
       <c r="F103" t="n">
-        <v>48.9665</v>
+        <v>0.1</v>
       </c>
       <c r="G103" t="n">
-        <v>9426.666666666666</v>
+        <v>9455.583333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4262,7 +4414,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>9400</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,19 +4434,19 @@
         <v>9370</v>
       </c>
       <c r="C104" t="n">
-        <v>9350</v>
+        <v>9445</v>
       </c>
       <c r="D104" t="n">
-        <v>9370</v>
+        <v>9445</v>
       </c>
       <c r="E104" t="n">
-        <v>9350</v>
+        <v>9360</v>
       </c>
       <c r="F104" t="n">
-        <v>60</v>
+        <v>48.9665</v>
       </c>
       <c r="G104" t="n">
-        <v>9421.666666666666</v>
+        <v>9455.333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4301,7 +4455,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>9400</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,22 +4472,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9435</v>
+        <v>9370</v>
       </c>
       <c r="C105" t="n">
-        <v>9435</v>
+        <v>9350</v>
       </c>
       <c r="D105" t="n">
-        <v>9435</v>
+        <v>9370</v>
       </c>
       <c r="E105" t="n">
-        <v>9435</v>
+        <v>9350</v>
       </c>
       <c r="F105" t="n">
-        <v>8.887</v>
+        <v>60</v>
       </c>
       <c r="G105" t="n">
-        <v>9410</v>
+        <v>9453.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4340,7 +4496,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9400</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,10 +4525,10 @@
         <v>9435</v>
       </c>
       <c r="F106" t="n">
-        <v>4.717</v>
+        <v>8.887</v>
       </c>
       <c r="G106" t="n">
-        <v>9406.666666666666</v>
+        <v>9452.916666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4379,7 +4537,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>9400</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,22 +4554,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9410</v>
+        <v>9435</v>
       </c>
       <c r="C107" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="D107" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="E107" t="n">
-        <v>9410</v>
+        <v>9435</v>
       </c>
       <c r="F107" t="n">
-        <v>69.1491</v>
+        <v>4.717</v>
       </c>
       <c r="G107" t="n">
-        <v>9433.333333333334</v>
+        <v>9452.25</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4418,7 +4578,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9400</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,22 +4595,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C108" t="n">
         <v>9430</v>
       </c>
-      <c r="C108" t="n">
-        <v>9435</v>
-      </c>
       <c r="D108" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="E108" t="n">
-        <v>9370</v>
+        <v>9410</v>
       </c>
       <c r="F108" t="n">
-        <v>73.2889</v>
+        <v>69.1491</v>
       </c>
       <c r="G108" t="n">
-        <v>9433.333333333334</v>
+        <v>9451.583333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4457,7 +4619,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9400</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,22 +4636,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="C109" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="D109" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="E109" t="n">
-        <v>9425</v>
+        <v>9370</v>
       </c>
       <c r="F109" t="n">
-        <v>53.2197</v>
+        <v>73.2889</v>
       </c>
       <c r="G109" t="n">
-        <v>9430</v>
+        <v>9450.416666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4496,7 +4660,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9400</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,22 +4677,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9430</v>
+        <v>9425</v>
       </c>
       <c r="C110" t="n">
-        <v>9435</v>
+        <v>9425</v>
       </c>
       <c r="D110" t="n">
-        <v>9435</v>
+        <v>9425</v>
       </c>
       <c r="E110" t="n">
-        <v>9430</v>
+        <v>9425</v>
       </c>
       <c r="F110" t="n">
-        <v>197.3513</v>
+        <v>53.2197</v>
       </c>
       <c r="G110" t="n">
-        <v>9431.666666666666</v>
+        <v>9449.166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4535,7 +4701,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9400</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,22 +4718,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="C111" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="D111" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="E111" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="F111" t="n">
-        <v>2.3124</v>
+        <v>197.3513</v>
       </c>
       <c r="G111" t="n">
-        <v>9441.666666666666</v>
+        <v>9447.75</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4574,7 +4742,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9400</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,10 +4771,10 @@
         <v>9465</v>
       </c>
       <c r="F112" t="n">
-        <v>198.5186</v>
+        <v>2.3124</v>
       </c>
       <c r="G112" t="n">
-        <v>9455</v>
+        <v>9447</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4613,7 +4783,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9400</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,10 +4812,10 @@
         <v>9465</v>
       </c>
       <c r="F113" t="n">
-        <v>50</v>
+        <v>198.5186</v>
       </c>
       <c r="G113" t="n">
-        <v>9465</v>
+        <v>9445.833333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4652,7 +4824,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9400</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,7 +4856,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>9465</v>
+        <v>9445.083333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4691,7 +4865,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9400</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,22 +4882,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9455</v>
+        <v>9465</v>
       </c>
       <c r="C115" t="n">
-        <v>9455</v>
+        <v>9465</v>
       </c>
       <c r="D115" t="n">
-        <v>9455</v>
+        <v>9465</v>
       </c>
       <c r="E115" t="n">
-        <v>9455</v>
+        <v>9465</v>
       </c>
       <c r="F115" t="n">
-        <v>12.4955</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>9461.666666666666</v>
+        <v>9444.333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4730,7 +4906,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9400</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,22 +4923,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9390</v>
+        <v>9455</v>
       </c>
       <c r="C116" t="n">
-        <v>9390</v>
+        <v>9455</v>
       </c>
       <c r="D116" t="n">
-        <v>9390</v>
+        <v>9455</v>
       </c>
       <c r="E116" t="n">
-        <v>9390</v>
+        <v>9455</v>
       </c>
       <c r="F116" t="n">
-        <v>1.1</v>
+        <v>12.4955</v>
       </c>
       <c r="G116" t="n">
-        <v>9436.666666666666</v>
+        <v>9444.583333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4769,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9400</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,22 +4964,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9395</v>
+        <v>9390</v>
       </c>
       <c r="C117" t="n">
         <v>9390</v>
       </c>
       <c r="D117" t="n">
-        <v>9395</v>
+        <v>9390</v>
       </c>
       <c r="E117" t="n">
         <v>9390</v>
       </c>
       <c r="F117" t="n">
-        <v>103.0295</v>
+        <v>1.1</v>
       </c>
       <c r="G117" t="n">
-        <v>9411.666666666666</v>
+        <v>9442.916666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4808,7 +4988,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9400</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,22 +5005,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C118" t="n">
         <v>9390</v>
       </c>
-      <c r="C118" t="n">
-        <v>9415</v>
-      </c>
       <c r="D118" t="n">
-        <v>9415</v>
+        <v>9395</v>
       </c>
       <c r="E118" t="n">
         <v>9390</v>
       </c>
       <c r="F118" t="n">
-        <v>4.7569</v>
+        <v>103.0295</v>
       </c>
       <c r="G118" t="n">
-        <v>9398.333333333334</v>
+        <v>9441.25</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4847,7 +5029,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9400</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,22 +5046,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9435</v>
+        <v>9390</v>
       </c>
       <c r="C119" t="n">
-        <v>9435</v>
+        <v>9415</v>
       </c>
       <c r="D119" t="n">
-        <v>9435</v>
+        <v>9415</v>
       </c>
       <c r="E119" t="n">
-        <v>9435</v>
+        <v>9390</v>
       </c>
       <c r="F119" t="n">
-        <v>4.182</v>
+        <v>4.7569</v>
       </c>
       <c r="G119" t="n">
-        <v>9413.333333333334</v>
+        <v>9440</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4886,7 +5070,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9400</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,22 +5087,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="C120" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="D120" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="E120" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="F120" t="n">
-        <v>81.60129999999999</v>
+        <v>4.182</v>
       </c>
       <c r="G120" t="n">
-        <v>9413.333333333334</v>
+        <v>9439.583333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4925,7 +5111,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9400</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,10 +5140,10 @@
         <v>9390</v>
       </c>
       <c r="F121" t="n">
-        <v>187.9928</v>
+        <v>81.60129999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>9405</v>
+        <v>9438.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4964,7 +5152,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9400</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,22 +5169,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9395</v>
+        <v>9390</v>
       </c>
       <c r="C122" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="D122" t="n">
-        <v>9395</v>
+        <v>9390</v>
       </c>
       <c r="E122" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="F122" t="n">
-        <v>104.8939</v>
+        <v>187.9928</v>
       </c>
       <c r="G122" t="n">
-        <v>9388.333333333334</v>
+        <v>9437.416666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5003,7 +5193,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9400</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,22 +5210,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9385</v>
+        <v>9395</v>
       </c>
       <c r="C123" t="n">
         <v>9385</v>
       </c>
       <c r="D123" t="n">
-        <v>9385</v>
+        <v>9395</v>
       </c>
       <c r="E123" t="n">
         <v>9385</v>
       </c>
       <c r="F123" t="n">
-        <v>17.8375</v>
+        <v>104.8939</v>
       </c>
       <c r="G123" t="n">
-        <v>9386.666666666666</v>
+        <v>9436.166666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5042,7 +5234,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9400</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,22 +5251,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9430</v>
+        <v>9385</v>
       </c>
       <c r="C124" t="n">
-        <v>9430</v>
+        <v>9385</v>
       </c>
       <c r="D124" t="n">
-        <v>9430</v>
+        <v>9385</v>
       </c>
       <c r="E124" t="n">
-        <v>9430</v>
+        <v>9385</v>
       </c>
       <c r="F124" t="n">
-        <v>3.77</v>
+        <v>17.8375</v>
       </c>
       <c r="G124" t="n">
-        <v>9400</v>
+        <v>9434.916666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5081,7 +5275,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9400</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,22 +5292,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="C125" t="n">
-        <v>9440</v>
+        <v>9430</v>
       </c>
       <c r="D125" t="n">
-        <v>9440</v>
+        <v>9430</v>
       </c>
       <c r="E125" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="F125" t="n">
-        <v>70.46729999999999</v>
+        <v>3.77</v>
       </c>
       <c r="G125" t="n">
-        <v>9418.333333333334</v>
+        <v>9434.416666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5120,7 +5316,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9400</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5135,22 +5333,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9455</v>
+        <v>9435</v>
       </c>
       <c r="C126" t="n">
-        <v>9495</v>
+        <v>9440</v>
       </c>
       <c r="D126" t="n">
-        <v>9495</v>
+        <v>9440</v>
       </c>
       <c r="E126" t="n">
-        <v>9455</v>
+        <v>9435</v>
       </c>
       <c r="F126" t="n">
-        <v>239.4349</v>
+        <v>70.46729999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>9455</v>
+        <v>9434.083333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5159,7 +5357,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9400</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5174,7 +5374,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9495</v>
+        <v>9455</v>
       </c>
       <c r="C127" t="n">
         <v>9495</v>
@@ -5183,13 +5383,13 @@
         <v>9495</v>
       </c>
       <c r="E127" t="n">
-        <v>9495</v>
+        <v>9455</v>
       </c>
       <c r="F127" t="n">
-        <v>50.3</v>
+        <v>239.4349</v>
       </c>
       <c r="G127" t="n">
-        <v>9476.666666666666</v>
+        <v>9434.833333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5198,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9400</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,19 +5418,19 @@
         <v>9495</v>
       </c>
       <c r="C128" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="D128" t="n">
         <v>9495</v>
       </c>
       <c r="E128" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="F128" t="n">
-        <v>30.2</v>
+        <v>50.3</v>
       </c>
       <c r="G128" t="n">
-        <v>9493.333333333334</v>
+        <v>9435.583333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5237,7 +5439,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9400</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,22 +5456,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C129" t="n">
         <v>9490</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9435</v>
       </c>
       <c r="D129" t="n">
         <v>9495</v>
       </c>
       <c r="E129" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="F129" t="n">
-        <v>105.8105</v>
+        <v>30.2</v>
       </c>
       <c r="G129" t="n">
-        <v>9473.333333333334</v>
+        <v>9436.25</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5276,7 +5480,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9400</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,22 +5497,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="C130" t="n">
-        <v>9495</v>
+        <v>9435</v>
       </c>
       <c r="D130" t="n">
         <v>9495</v>
       </c>
       <c r="E130" t="n">
-        <v>9495</v>
+        <v>9435</v>
       </c>
       <c r="F130" t="n">
-        <v>12.0535</v>
+        <v>105.8105</v>
       </c>
       <c r="G130" t="n">
-        <v>9473.333333333334</v>
+        <v>9435.833333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5315,7 +5521,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9400</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,22 +5538,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="C131" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="D131" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="E131" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="F131" t="n">
-        <v>1.0537</v>
+        <v>12.0535</v>
       </c>
       <c r="G131" t="n">
-        <v>9473.333333333334</v>
+        <v>9436.416666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5354,7 +5562,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9400</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,22 +5579,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="C132" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="D132" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="E132" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="F132" t="n">
-        <v>18.6896</v>
+        <v>1.0537</v>
       </c>
       <c r="G132" t="n">
-        <v>9473.333333333334</v>
+        <v>9436.916666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5393,7 +5603,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9400</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5420,10 +5632,10 @@
         <v>9435</v>
       </c>
       <c r="F133" t="n">
-        <v>26.28</v>
+        <v>18.6896</v>
       </c>
       <c r="G133" t="n">
-        <v>9453.333333333334</v>
+        <v>9436.75</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5432,7 +5644,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9400</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,22 +5661,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9485</v>
+        <v>9435</v>
       </c>
       <c r="C134" t="n">
         <v>9435</v>
       </c>
       <c r="D134" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="E134" t="n">
         <v>9435</v>
       </c>
       <c r="F134" t="n">
-        <v>27.9078</v>
+        <v>26.28</v>
       </c>
       <c r="G134" t="n">
-        <v>9435</v>
+        <v>9435.166666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5471,7 +5685,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9400</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,22 +5702,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C135" t="n">
         <v>9435</v>
       </c>
-      <c r="C135" t="n">
-        <v>9430</v>
-      </c>
       <c r="D135" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E135" t="n">
         <v>9435</v>
       </c>
-      <c r="E135" t="n">
-        <v>9430</v>
-      </c>
       <c r="F135" t="n">
-        <v>56.3546</v>
+        <v>27.9078</v>
       </c>
       <c r="G135" t="n">
-        <v>9433.333333333334</v>
+        <v>9435</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5510,7 +5726,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9400</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,10 +5755,10 @@
         <v>9430</v>
       </c>
       <c r="F136" t="n">
-        <v>70.72790000000001</v>
+        <v>56.3546</v>
       </c>
       <c r="G136" t="n">
-        <v>9431.666666666666</v>
+        <v>9434.75</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5549,7 +5767,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9400</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,22 +5784,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="C137" t="n">
         <v>9430</v>
       </c>
       <c r="D137" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="E137" t="n">
         <v>9430</v>
       </c>
       <c r="F137" t="n">
-        <v>4.492</v>
+        <v>70.72790000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>9430</v>
+        <v>9434.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5588,7 +5808,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9400</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,22 +5825,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9485</v>
+        <v>9430</v>
       </c>
       <c r="C138" t="n">
-        <v>9495</v>
+        <v>9430</v>
       </c>
       <c r="D138" t="n">
-        <v>9495</v>
+        <v>9430</v>
       </c>
       <c r="E138" t="n">
-        <v>9485</v>
+        <v>9430</v>
       </c>
       <c r="F138" t="n">
-        <v>87.4866</v>
+        <v>4.492</v>
       </c>
       <c r="G138" t="n">
-        <v>9451.666666666666</v>
+        <v>9434.666666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5627,7 +5849,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9400</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,7 +5866,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9495</v>
+        <v>9485</v>
       </c>
       <c r="C139" t="n">
         <v>9495</v>
@@ -5651,13 +5875,13 @@
         <v>9495</v>
       </c>
       <c r="E139" t="n">
-        <v>9495</v>
+        <v>9485</v>
       </c>
       <c r="F139" t="n">
-        <v>77.6979</v>
+        <v>87.4866</v>
       </c>
       <c r="G139" t="n">
-        <v>9473.333333333334</v>
+        <v>9435.916666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5666,7 +5890,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9400</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5681,22 +5907,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="C140" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="D140" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="E140" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="F140" t="n">
-        <v>6.4855</v>
+        <v>77.6979</v>
       </c>
       <c r="G140" t="n">
-        <v>9496.666666666666</v>
+        <v>9436.083333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5705,7 +5931,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>9400</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5720,22 +5948,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="C141" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="D141" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="E141" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="F141" t="n">
-        <v>3.8094</v>
+        <v>6.4855</v>
       </c>
       <c r="G141" t="n">
-        <v>9500</v>
+        <v>9437.416666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5744,7 +5972,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>9400</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,10 +6001,10 @@
         <v>9505</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>3.8094</v>
       </c>
       <c r="G142" t="n">
-        <v>9503.333333333334</v>
+        <v>9438.833333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5783,7 +6013,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>9400</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,22 +6030,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9520</v>
+        <v>9505</v>
       </c>
       <c r="C143" t="n">
-        <v>9545</v>
+        <v>9505</v>
       </c>
       <c r="D143" t="n">
-        <v>9545</v>
+        <v>9505</v>
       </c>
       <c r="E143" t="n">
         <v>9505</v>
       </c>
       <c r="F143" t="n">
-        <v>30.9901</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>9518.333333333334</v>
+        <v>9439.083333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5822,7 +6054,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>9400</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,7 +6071,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9510</v>
+        <v>9520</v>
       </c>
       <c r="C144" t="n">
         <v>9545</v>
@@ -5849,10 +6083,10 @@
         <v>9505</v>
       </c>
       <c r="F144" t="n">
-        <v>104.9612</v>
+        <v>30.9901</v>
       </c>
       <c r="G144" t="n">
-        <v>9531.666666666666</v>
+        <v>9441.166666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5861,7 +6095,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9400</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,22 +6112,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C145" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="D145" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="E145" t="n">
-        <v>9540</v>
+        <v>9505</v>
       </c>
       <c r="F145" t="n">
-        <v>87.5945</v>
+        <v>104.9612</v>
       </c>
       <c r="G145" t="n">
-        <v>9543.333333333334</v>
+        <v>9443.083333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5900,7 +6136,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9400</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,22 +6153,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9575</v>
+        <v>9540</v>
       </c>
       <c r="C146" t="n">
-        <v>9575</v>
+        <v>9540</v>
       </c>
       <c r="D146" t="n">
-        <v>9575</v>
+        <v>9540</v>
       </c>
       <c r="E146" t="n">
-        <v>9575</v>
+        <v>9540</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3524</v>
+        <v>87.5945</v>
       </c>
       <c r="G146" t="n">
-        <v>9553.333333333334</v>
+        <v>9443.916666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5939,7 +6177,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9400</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5957,19 +6197,19 @@
         <v>9575</v>
       </c>
       <c r="C147" t="n">
-        <v>9580</v>
+        <v>9575</v>
       </c>
       <c r="D147" t="n">
-        <v>9580</v>
+        <v>9575</v>
       </c>
       <c r="E147" t="n">
         <v>9575</v>
       </c>
       <c r="F147" t="n">
-        <v>15</v>
+        <v>0.3524</v>
       </c>
       <c r="G147" t="n">
-        <v>9565</v>
+        <v>9445.916666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5978,7 +6218,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9400</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,25 +6247,29 @@
         <v>9575</v>
       </c>
       <c r="F148" t="n">
-        <v>37.678</v>
+        <v>15</v>
       </c>
       <c r="G148" t="n">
-        <v>9578.333333333334</v>
+        <v>9448.083333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9400</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6033,29 +6279,35 @@
         <v>9575</v>
       </c>
       <c r="C149" t="n">
-        <v>9575</v>
+        <v>9580</v>
       </c>
       <c r="D149" t="n">
-        <v>9575</v>
+        <v>9580</v>
       </c>
       <c r="E149" t="n">
         <v>9575</v>
       </c>
       <c r="F149" t="n">
-        <v>58.122</v>
+        <v>37.678</v>
       </c>
       <c r="G149" t="n">
-        <v>9578.333333333334</v>
+        <v>9450.416666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6068,19 +6320,19 @@
         <v>9575</v>
       </c>
       <c r="C150" t="n">
-        <v>9540</v>
+        <v>9575</v>
       </c>
       <c r="D150" t="n">
         <v>9575</v>
       </c>
       <c r="E150" t="n">
-        <v>9540</v>
+        <v>9575</v>
       </c>
       <c r="F150" t="n">
-        <v>5.508</v>
+        <v>58.122</v>
       </c>
       <c r="G150" t="n">
-        <v>9565</v>
+        <v>9453.333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6089,10 +6341,16 @@
         <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M150" t="n">
-        <v>1</v>
+        <v>1.013617021276596</v>
       </c>
     </row>
     <row r="151">
@@ -6100,22 +6358,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9535</v>
+        <v>9575</v>
       </c>
       <c r="C151" t="n">
-        <v>9535</v>
+        <v>9540</v>
       </c>
       <c r="D151" t="n">
-        <v>9535</v>
+        <v>9575</v>
       </c>
       <c r="E151" t="n">
-        <v>9535</v>
+        <v>9540</v>
       </c>
       <c r="F151" t="n">
-        <v>11.4889</v>
+        <v>5.508</v>
       </c>
       <c r="G151" t="n">
-        <v>9550</v>
+        <v>9454.916666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6138,19 +6396,19 @@
         <v>9535</v>
       </c>
       <c r="C152" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="D152" t="n">
         <v>9535</v>
       </c>
       <c r="E152" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="F152" t="n">
-        <v>39.8345</v>
+        <v>11.4889</v>
       </c>
       <c r="G152" t="n">
-        <v>9535</v>
+        <v>9457.166666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6170,22 +6428,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9575</v>
+        <v>9535</v>
       </c>
       <c r="C153" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="D153" t="n">
-        <v>9580</v>
+        <v>9535</v>
       </c>
       <c r="E153" t="n">
-        <v>9575</v>
+        <v>9530</v>
       </c>
       <c r="F153" t="n">
-        <v>52.2212</v>
+        <v>39.8345</v>
       </c>
       <c r="G153" t="n">
-        <v>9548.333333333334</v>
+        <v>9459.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6205,7 +6463,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9580</v>
+        <v>9575</v>
       </c>
       <c r="C154" t="n">
         <v>9580</v>
@@ -6214,13 +6472,13 @@
         <v>9580</v>
       </c>
       <c r="E154" t="n">
-        <v>9580</v>
+        <v>9575</v>
       </c>
       <c r="F154" t="n">
-        <v>15.3019</v>
+        <v>52.2212</v>
       </c>
       <c r="G154" t="n">
-        <v>9563.333333333334</v>
+        <v>9461.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6235,6 +6493,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15.3019</v>
+      </c>
+      <c r="G155" t="n">
+        <v>9464.666666666666</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.1441450777202073</v>
       </c>
       <c r="G2" t="n">
+        <v>9562.333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>9440.583333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
+        <v>9575</v>
+      </c>
+      <c r="H3" t="n">
         <v>9447.416666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>105</v>
       </c>
       <c r="G4" t="n">
+        <v>9583.333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>9453.083333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>48.1268</v>
       </c>
       <c r="G5" t="n">
+        <v>9588</v>
+      </c>
+      <c r="H5" t="n">
         <v>9459.083333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>34.1866</v>
       </c>
       <c r="G6" t="n">
+        <v>9592.666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>9465.083333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2.6866</v>
       </c>
       <c r="G7" t="n">
+        <v>9600.666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>9471.166666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>22.8886</v>
       </c>
       <c r="G8" t="n">
+        <v>9608.333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>9478</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>10.9326</v>
       </c>
       <c r="G9" t="n">
+        <v>9613.333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>9483.083333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>6.9285</v>
       </c>
       <c r="G10" t="n">
+        <v>9616.666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>9487.916666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>15</v>
       </c>
       <c r="G11" t="n">
+        <v>9619.333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>9492.75</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
+        <v>9619.333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>9497.25</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>22.4112</v>
       </c>
       <c r="G13" t="n">
+        <v>9620.333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>9502.166666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
+        <v>9624</v>
+      </c>
+      <c r="H14" t="n">
         <v>9508.333333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
+        <v>9628</v>
+      </c>
+      <c r="H15" t="n">
         <v>9514.666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>9.522</v>
       </c>
       <c r="G16" t="n">
+        <v>9629</v>
+      </c>
+      <c r="H16" t="n">
         <v>9520.416666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>78.0951</v>
       </c>
       <c r="G17" t="n">
+        <v>9627</v>
+      </c>
+      <c r="H17" t="n">
         <v>9525.916666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>74.1555</v>
       </c>
       <c r="G18" t="n">
+        <v>9624</v>
+      </c>
+      <c r="H18" t="n">
         <v>9531.333333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>36.1472</v>
       </c>
       <c r="G19" t="n">
+        <v>9625.333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>9535.416666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>33.6589</v>
       </c>
       <c r="G20" t="n">
+        <v>9619.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>9537.916666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>14.1041</v>
       </c>
       <c r="G21" t="n">
+        <v>9619.666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>9541.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>16.4229</v>
       </c>
       <c r="G22" t="n">
+        <v>9613.666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>9543.583333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>7.0595</v>
       </c>
       <c r="G23" t="n">
+        <v>9610</v>
+      </c>
+      <c r="H23" t="n">
         <v>9546.666666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>28.0906</v>
       </c>
       <c r="G24" t="n">
+        <v>9601.333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>9548.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>19.714</v>
       </c>
       <c r="G25" t="n">
+        <v>9593</v>
+      </c>
+      <c r="H25" t="n">
         <v>9550.333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>91.5192</v>
       </c>
       <c r="G26" t="n">
+        <v>9585.333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>9552.166666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>266.0756</v>
       </c>
       <c r="G27" t="n">
+        <v>9577</v>
+      </c>
+      <c r="H27" t="n">
         <v>9553.333333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>291.8799</v>
       </c>
       <c r="G28" t="n">
+        <v>9563.666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>9553.583333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,22 +1479,21 @@
         <v>37.0776</v>
       </c>
       <c r="G29" t="n">
+        <v>9552.666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>9555</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,24 +1517,21 @@
         <v>145.8052</v>
       </c>
       <c r="G30" t="n">
+        <v>9541.666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>9555.916666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9425</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,24 +1555,21 @@
         <v>62.8417</v>
       </c>
       <c r="G31" t="n">
+        <v>9527.666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>9555.333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9425</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1593,21 @@
         <v>61.7789</v>
       </c>
       <c r="G32" t="n">
+        <v>9515.666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>9554.916666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1631,21 @@
         <v>2.3124</v>
       </c>
       <c r="G33" t="n">
+        <v>9504.666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>9554.583333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1669,21 @@
         <v>7.3468</v>
       </c>
       <c r="G34" t="n">
+        <v>9492.666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>9553.916666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1707,21 @@
         <v>59.514</v>
       </c>
       <c r="G35" t="n">
+        <v>9486.333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>9552.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,22 +1745,21 @@
         <v>0.8461</v>
       </c>
       <c r="G36" t="n">
+        <v>9473.666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>9550.833333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9420</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,24 +1783,21 @@
         <v>6.6318</v>
       </c>
       <c r="G37" t="n">
+        <v>9464.333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>9548.666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,26 +1821,21 @@
         <v>17.5462</v>
       </c>
       <c r="G38" t="n">
+        <v>9451.666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>9546.666666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>9370</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1777,22 +1859,21 @@
         <v>32.4538</v>
       </c>
       <c r="G39" t="n">
+        <v>9444</v>
+      </c>
+      <c r="H39" t="n">
         <v>9542.916666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,24 +1897,21 @@
         <v>55.0324</v>
       </c>
       <c r="G40" t="n">
+        <v>9436.333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>9540.916666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1857,24 +1935,21 @@
         <v>50</v>
       </c>
       <c r="G41" t="n">
+        <v>9428.666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>9538.833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,26 +1973,21 @@
         <v>0.1</v>
       </c>
       <c r="G42" t="n">
+        <v>9425.333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>9537.166666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K42" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1941,24 +2011,21 @@
         <v>20</v>
       </c>
       <c r="G43" t="n">
+        <v>9426</v>
+      </c>
+      <c r="H43" t="n">
         <v>9535.416666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1982,26 +2049,21 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
+        <v>9423.666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>9534.083333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9435</v>
-      </c>
-      <c r="K44" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2025,26 +2087,21 @@
         <v>11.7485</v>
       </c>
       <c r="G45" t="n">
+        <v>9420.666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>9532.833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,24 +2125,21 @@
         <v>18.9484</v>
       </c>
       <c r="G46" t="n">
+        <v>9423.666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>9532.833333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,24 +2163,21 @@
         <v>9.8353</v>
       </c>
       <c r="G47" t="n">
+        <v>9426</v>
+      </c>
+      <c r="H47" t="n">
         <v>9532.75</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2150,24 +2201,21 @@
         <v>5.1064</v>
       </c>
       <c r="G48" t="n">
+        <v>9428</v>
+      </c>
+      <c r="H48" t="n">
         <v>9532.916666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2191,24 +2239,21 @@
         <v>0.3124</v>
       </c>
       <c r="G49" t="n">
+        <v>9433.666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>9533.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,24 +2277,21 @@
         <v>14.3753</v>
       </c>
       <c r="G50" t="n">
+        <v>9439</v>
+      </c>
+      <c r="H50" t="n">
         <v>9533.25</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2273,24 +2315,21 @@
         <v>80.7428</v>
       </c>
       <c r="G51" t="n">
+        <v>9446.333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>9533.083333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,24 +2353,21 @@
         <v>272.989</v>
       </c>
       <c r="G52" t="n">
+        <v>9455.666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>9533.583333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2355,24 +2391,21 @@
         <v>82.97799999999999</v>
       </c>
       <c r="G53" t="n">
+        <v>9464.666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>9533.666666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,24 +2429,21 @@
         <v>462.9327</v>
       </c>
       <c r="G54" t="n">
+        <v>9472</v>
+      </c>
+      <c r="H54" t="n">
         <v>9532.666666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,24 +2467,21 @@
         <v>70</v>
       </c>
       <c r="G55" t="n">
+        <v>9479.333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>9531.333333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,24 +2505,21 @@
         <v>64.0646</v>
       </c>
       <c r="G56" t="n">
+        <v>9482</v>
+      </c>
+      <c r="H56" t="n">
         <v>9528.833333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,24 +2543,21 @@
         <v>3.9383</v>
       </c>
       <c r="G57" t="n">
+        <v>9486</v>
+      </c>
+      <c r="H57" t="n">
         <v>9526.916666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2560,24 +2581,21 @@
         <v>11.159</v>
       </c>
       <c r="G58" t="n">
+        <v>9489.666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>9524.916666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,24 +2619,21 @@
         <v>49.2068</v>
       </c>
       <c r="G59" t="n">
+        <v>9491.666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>9523</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,24 +2657,21 @@
         <v>15.4439</v>
       </c>
       <c r="G60" t="n">
+        <v>9491.666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>9520.5</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2683,24 +2695,21 @@
         <v>22.2778</v>
       </c>
       <c r="G61" t="n">
+        <v>9490.666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>9517.75</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,24 +2733,21 @@
         <v>2.4893</v>
       </c>
       <c r="G62" t="n">
+        <v>9489.333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>9514.5</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2765,24 +2771,21 @@
         <v>31.3473</v>
       </c>
       <c r="G63" t="n">
+        <v>9488.666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>9511.333333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,24 +2809,21 @@
         <v>198.3543</v>
       </c>
       <c r="G64" t="n">
+        <v>9485.666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>9509.333333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,24 +2847,21 @@
         <v>38.3682</v>
       </c>
       <c r="G65" t="n">
+        <v>9483</v>
+      </c>
+      <c r="H65" t="n">
         <v>9507</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,24 +2885,21 @@
         <v>8.9984</v>
       </c>
       <c r="G66" t="n">
+        <v>9479</v>
+      </c>
+      <c r="H66" t="n">
         <v>9504.666666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2929,24 +2923,21 @@
         <v>3.018</v>
       </c>
       <c r="G67" t="n">
+        <v>9475</v>
+      </c>
+      <c r="H67" t="n">
         <v>9502.166666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2970,24 +2961,21 @@
         <v>16.982</v>
       </c>
       <c r="G68" t="n">
+        <v>9469.333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>9498.916666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3011,24 +2999,21 @@
         <v>3.47</v>
       </c>
       <c r="G69" t="n">
+        <v>9465.333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>9495.666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,24 +3037,21 @@
         <v>18.7288</v>
       </c>
       <c r="G70" t="n">
+        <v>9462</v>
+      </c>
+      <c r="H70" t="n">
         <v>9492.666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,24 +3075,21 @@
         <v>0.2104651162790698</v>
       </c>
       <c r="G71" t="n">
+        <v>9463.333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>9489.833333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,24 +3113,21 @@
         <v>2.54823488372093</v>
       </c>
       <c r="G72" t="n">
+        <v>9461.333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>9487.416666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3175,24 +3151,21 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
+        <v>9458.333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>9484.416666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,24 +3189,21 @@
         <v>0.1</v>
       </c>
       <c r="G74" t="n">
+        <v>9461</v>
+      </c>
+      <c r="H74" t="n">
         <v>9482.25</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3257,24 +3227,21 @@
         <v>16</v>
       </c>
       <c r="G75" t="n">
+        <v>9460</v>
+      </c>
+      <c r="H75" t="n">
         <v>9478.5</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,24 +3265,21 @@
         <v>23.5539</v>
       </c>
       <c r="G76" t="n">
+        <v>9459.333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>9475.333333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3339,24 +3303,21 @@
         <v>5.0951</v>
       </c>
       <c r="G77" t="n">
+        <v>9458.666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>9472.416666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,24 +3341,21 @@
         <v>15.3445</v>
       </c>
       <c r="G78" t="n">
+        <v>9456</v>
+      </c>
+      <c r="H78" t="n">
         <v>9469.333333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3421,24 +3379,21 @@
         <v>124.1393</v>
       </c>
       <c r="G79" t="n">
+        <v>9453.333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>9466.333333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,24 +3417,25 @@
         <v>0.3524</v>
       </c>
       <c r="G80" t="n">
+        <v>9455</v>
+      </c>
+      <c r="H80" t="n">
         <v>9465.833333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9420</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,24 +3459,29 @@
         <v>6.1229</v>
       </c>
       <c r="G81" t="n">
+        <v>9452.333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>9462.833333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>9485</v>
+      </c>
+      <c r="L81" t="n">
+        <v>9420</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,24 +3505,27 @@
         <v>23.5437</v>
       </c>
       <c r="G82" t="n">
+        <v>9450.333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>9461.333333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>9420</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3585,24 +3549,25 @@
         <v>0.3124</v>
       </c>
       <c r="G83" t="n">
+        <v>9453</v>
+      </c>
+      <c r="H83" t="n">
         <v>9459.666666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L83" t="n">
+        <v>9420</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,24 +3591,29 @@
         <v>4</v>
       </c>
       <c r="G84" t="n">
+        <v>9451</v>
+      </c>
+      <c r="H84" t="n">
         <v>9458.083333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>9490</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9420</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,24 +3637,29 @@
         <v>1.48</v>
       </c>
       <c r="G85" t="n">
+        <v>9449</v>
+      </c>
+      <c r="H85" t="n">
         <v>9456.666666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9420</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,24 +3683,25 @@
         <v>0.2</v>
       </c>
       <c r="G86" t="n">
+        <v>9451</v>
+      </c>
+      <c r="H86" t="n">
         <v>9456.25</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3749,24 +3725,27 @@
         <v>11.5252</v>
       </c>
       <c r="G87" t="n">
+        <v>9450.666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>9455.833333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,24 +3769,27 @@
         <v>41.1624</v>
       </c>
       <c r="G88" t="n">
+        <v>9451</v>
+      </c>
+      <c r="H88" t="n">
         <v>9456.25</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3831,24 +3813,29 @@
         <v>39.4402</v>
       </c>
       <c r="G89" t="n">
+        <v>9445</v>
+      </c>
+      <c r="H89" t="n">
         <v>9455.333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>9450</v>
+      </c>
+      <c r="L89" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,24 +3859,27 @@
         <v>103.0295</v>
       </c>
       <c r="G90" t="n">
+        <v>9442</v>
+      </c>
+      <c r="H90" t="n">
         <v>9453.583333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,24 +3903,29 @@
         <v>15</v>
       </c>
       <c r="G91" t="n">
+        <v>9442</v>
+      </c>
+      <c r="H91" t="n">
         <v>9453.916666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
         <v>9400</v>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,24 +3949,29 @@
         <v>28.1042</v>
       </c>
       <c r="G92" t="n">
+        <v>9439</v>
+      </c>
+      <c r="H92" t="n">
         <v>9453.25</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>9445</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,24 +3995,29 @@
         <v>11.3064</v>
       </c>
       <c r="G93" t="n">
+        <v>9437</v>
+      </c>
+      <c r="H93" t="n">
         <v>9452.416666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
         <v>9400</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,24 +4041,29 @@
         <v>19.97768726215645</v>
       </c>
       <c r="G94" t="n">
+        <v>9439.666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>9453.083333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4077,24 +4087,29 @@
         <v>275.4038</v>
       </c>
       <c r="G95" t="n">
+        <v>9433.333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>9452.583333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>9460</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,24 +4133,29 @@
         <v>17.5426</v>
       </c>
       <c r="G96" t="n">
+        <v>9436.333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>9453.5</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L96" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,24 +4179,29 @@
         <v>30</v>
       </c>
       <c r="G97" t="n">
+        <v>9436</v>
+      </c>
+      <c r="H97" t="n">
         <v>9454.25</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>9465</v>
+      </c>
+      <c r="L97" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,24 +4225,27 @@
         <v>124.1393</v>
       </c>
       <c r="G98" t="n">
+        <v>9428.666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>9453.916666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4241,24 +4269,29 @@
         <v>38.4188</v>
       </c>
       <c r="G99" t="n">
+        <v>9426</v>
+      </c>
+      <c r="H99" t="n">
         <v>9453.583333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>9380</v>
+      </c>
+      <c r="L99" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,24 +4315,29 @@
         <v>0.2312</v>
       </c>
       <c r="G100" t="n">
+        <v>9429</v>
+      </c>
+      <c r="H100" t="n">
         <v>9454.833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>9380</v>
+      </c>
+      <c r="L100" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,24 +4361,27 @@
         <v>0.1054</v>
       </c>
       <c r="G101" t="n">
+        <v>9428</v>
+      </c>
+      <c r="H101" t="n">
         <v>9456.083333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,24 +4405,27 @@
         <v>494.982</v>
       </c>
       <c r="G102" t="n">
+        <v>9422</v>
+      </c>
+      <c r="H102" t="n">
         <v>9455</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,24 +4449,27 @@
         <v>0.1</v>
       </c>
       <c r="G103" t="n">
+        <v>9423.333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>9455.583333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,24 +4493,27 @@
         <v>48.9665</v>
       </c>
       <c r="G104" t="n">
+        <v>9423.666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>9455.333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4487,24 +4537,27 @@
         <v>60</v>
       </c>
       <c r="G105" t="n">
+        <v>9420.333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>9453.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,24 +4581,27 @@
         <v>8.887</v>
       </c>
       <c r="G106" t="n">
+        <v>9419.666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>9452.916666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4569,24 +4625,27 @@
         <v>4.717</v>
       </c>
       <c r="G107" t="n">
+        <v>9422</v>
+      </c>
+      <c r="H107" t="n">
         <v>9452.25</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,24 +4669,27 @@
         <v>69.1491</v>
       </c>
       <c r="G108" t="n">
+        <v>9424.666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>9451.583333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,24 +4713,29 @@
         <v>73.2889</v>
       </c>
       <c r="G109" t="n">
+        <v>9423</v>
+      </c>
+      <c r="H109" t="n">
         <v>9450.416666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L109" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,24 +4759,29 @@
         <v>53.2197</v>
       </c>
       <c r="G110" t="n">
+        <v>9425.333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>9449.166666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+        <v>9435</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4733,24 +4805,27 @@
         <v>197.3513</v>
       </c>
       <c r="G111" t="n">
+        <v>9423.333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>9447.75</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,24 +4849,29 @@
         <v>2.3124</v>
       </c>
       <c r="G112" t="n">
+        <v>9426.666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>9447</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+        <v>9435</v>
+      </c>
+      <c r="L112" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,24 +4895,27 @@
         <v>198.5186</v>
       </c>
       <c r="G113" t="n">
+        <v>9432.333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>9445.833333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,24 +4939,27 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
+        <v>9438</v>
+      </c>
+      <c r="H114" t="n">
         <v>9445.083333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,24 +4983,27 @@
         <v>50</v>
       </c>
       <c r="G115" t="n">
+        <v>9437.333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>9444.333333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,24 +5027,27 @@
         <v>12.4955</v>
       </c>
       <c r="G116" t="n">
+        <v>9436</v>
+      </c>
+      <c r="H116" t="n">
         <v>9444.583333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,24 +5071,27 @@
         <v>1.1</v>
       </c>
       <c r="G117" t="n">
+        <v>9437.666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>9442.916666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5020,24 +5115,29 @@
         <v>103.0295</v>
       </c>
       <c r="G118" t="n">
+        <v>9432.333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>9441.25</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L118" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5061,24 +5161,29 @@
         <v>4.7569</v>
       </c>
       <c r="G119" t="n">
+        <v>9430.333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>9440</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,24 +5207,29 @@
         <v>4.182</v>
       </c>
       <c r="G120" t="n">
+        <v>9436</v>
+      </c>
+      <c r="H120" t="n">
         <v>9439.583333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L120" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5143,24 +5253,29 @@
         <v>81.60129999999999</v>
       </c>
       <c r="G121" t="n">
+        <v>9433</v>
+      </c>
+      <c r="H121" t="n">
         <v>9438.5</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>9435</v>
+      </c>
+      <c r="L121" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5184,24 +5299,29 @@
         <v>187.9928</v>
       </c>
       <c r="G122" t="n">
+        <v>9430</v>
+      </c>
+      <c r="H122" t="n">
         <v>9437.416666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L122" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,24 +5345,29 @@
         <v>104.8939</v>
       </c>
       <c r="G123" t="n">
+        <v>9427</v>
+      </c>
+      <c r="H123" t="n">
         <v>9436.166666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L123" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,24 +5391,29 @@
         <v>17.8375</v>
       </c>
       <c r="G124" t="n">
+        <v>9423.666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>9434.916666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>9385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5307,24 +5437,29 @@
         <v>3.77</v>
       </c>
       <c r="G125" t="n">
+        <v>9424</v>
+      </c>
+      <c r="H125" t="n">
         <v>9434.416666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>9385</v>
+      </c>
+      <c r="L125" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,24 +5483,29 @@
         <v>70.46729999999999</v>
       </c>
       <c r="G126" t="n">
+        <v>9424.333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>9434.083333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L126" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5389,24 +5529,27 @@
         <v>239.4349</v>
       </c>
       <c r="G127" t="n">
+        <v>9426.333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>9434.833333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,24 +5573,27 @@
         <v>50.3</v>
       </c>
       <c r="G128" t="n">
+        <v>9428.333333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>9435.583333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,24 +5617,27 @@
         <v>30.2</v>
       </c>
       <c r="G129" t="n">
+        <v>9430</v>
+      </c>
+      <c r="H129" t="n">
         <v>9436.25</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,24 +5661,27 @@
         <v>105.8105</v>
       </c>
       <c r="G130" t="n">
+        <v>9428</v>
+      </c>
+      <c r="H130" t="n">
         <v>9435.833333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5553,24 +5705,27 @@
         <v>12.0535</v>
       </c>
       <c r="G131" t="n">
+        <v>9430.666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>9436.416666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,24 +5749,27 @@
         <v>1.0537</v>
       </c>
       <c r="G132" t="n">
+        <v>9437.333333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>9436.916666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5635,24 +5793,27 @@
         <v>18.6896</v>
       </c>
       <c r="G133" t="n">
+        <v>9440.333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>9436.75</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,24 +5837,27 @@
         <v>26.28</v>
       </c>
       <c r="G134" t="n">
+        <v>9441.666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>9435.166666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,24 +5881,27 @@
         <v>27.9078</v>
       </c>
       <c r="G135" t="n">
+        <v>9441.666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>9435</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,24 +5925,27 @@
         <v>56.3546</v>
       </c>
       <c r="G136" t="n">
+        <v>9444.333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>9434.75</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5799,24 +5969,27 @@
         <v>70.72790000000001</v>
       </c>
       <c r="G137" t="n">
+        <v>9447</v>
+      </c>
+      <c r="H137" t="n">
         <v>9434.5</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5840,24 +6013,29 @@
         <v>4.492</v>
       </c>
       <c r="G138" t="n">
+        <v>9450</v>
+      </c>
+      <c r="H138" t="n">
         <v>9434.666666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L138" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5881,24 +6059,29 @@
         <v>87.4866</v>
       </c>
       <c r="G139" t="n">
+        <v>9457.333333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>9435.916666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L139" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5922,24 +6105,27 @@
         <v>77.6979</v>
       </c>
       <c r="G140" t="n">
+        <v>9461.666666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>9436.083333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,24 +6149,27 @@
         <v>6.4855</v>
       </c>
       <c r="G141" t="n">
+        <v>9465.666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>9437.416666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,24 +6193,27 @@
         <v>3.8094</v>
       </c>
       <c r="G142" t="n">
+        <v>9466.333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>9438.833333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,24 +6237,27 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
+        <v>9467</v>
+      </c>
+      <c r="H143" t="n">
         <v>9439.083333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6086,24 +6281,27 @@
         <v>30.9901</v>
       </c>
       <c r="G144" t="n">
+        <v>9470.666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>9441.166666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6127,24 +6325,27 @@
         <v>104.9612</v>
       </c>
       <c r="G145" t="n">
+        <v>9478</v>
+      </c>
+      <c r="H145" t="n">
         <v>9443.083333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6168,24 +6369,27 @@
         <v>87.5945</v>
       </c>
       <c r="G146" t="n">
+        <v>9481</v>
+      </c>
+      <c r="H146" t="n">
         <v>9443.916666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6209,24 +6413,27 @@
         <v>0.3524</v>
       </c>
       <c r="G147" t="n">
+        <v>9486.666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>9445.916666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,24 +6457,27 @@
         <v>15</v>
       </c>
       <c r="G148" t="n">
+        <v>9496.333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>9448.083333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6291,24 +6501,27 @@
         <v>37.678</v>
       </c>
       <c r="G149" t="n">
+        <v>9506</v>
+      </c>
+      <c r="H149" t="n">
         <v>9450.416666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6332,25 +6545,28 @@
         <v>58.122</v>
       </c>
       <c r="G150" t="n">
+        <v>9515.333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>9453.333333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1.013617021276596</v>
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -6373,18 +6589,27 @@
         <v>5.508</v>
       </c>
       <c r="G151" t="n">
+        <v>9522.666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>9454.916666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6408,18 +6633,27 @@
         <v>11.4889</v>
       </c>
       <c r="G152" t="n">
+        <v>9529.666666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>9457.166666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6443,18 +6677,27 @@
         <v>39.8345</v>
       </c>
       <c r="G153" t="n">
+        <v>9536.333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>9459.5</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6478,18 +6721,27 @@
         <v>52.2212</v>
       </c>
       <c r="G154" t="n">
+        <v>9542</v>
+      </c>
+      <c r="H154" t="n">
         <v>9461.5</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6513,18 +6765,467 @@
         <v>15.3019</v>
       </c>
       <c r="G155" t="n">
+        <v>9547.666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>9464.666666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.8731</v>
+      </c>
+      <c r="G156" t="n">
+        <v>9553</v>
+      </c>
+      <c r="H156" t="n">
+        <v>9466.583333333334</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F157" t="n">
+        <v>88.1414</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9558</v>
+      </c>
+      <c r="H157" t="n">
+        <v>9469.333333333334</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F158" t="n">
+        <v>116.3484</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9563.666666666666</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9472.833333333334</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F159" t="n">
+        <v>38.8563</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9566.666666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>9476.333333333334</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9515</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9515</v>
+      </c>
+      <c r="F160" t="n">
+        <v>114.2728</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9564.666666666666</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9477</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9520</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F161" t="n">
+        <v>312.2241</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9562.666666666666</v>
+      </c>
+      <c r="H161" t="n">
+        <v>9477.583333333334</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9561.333333333334</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9480.75</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7.821</v>
+      </c>
+      <c r="G163" t="n">
+        <v>9559</v>
+      </c>
+      <c r="H163" t="n">
+        <v>9482</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F164" t="n">
+        <v>54.3308</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9555.666666666666</v>
+      </c>
+      <c r="H164" t="n">
+        <v>9483.416666666666</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F165" t="n">
+        <v>37.9427</v>
+      </c>
+      <c r="G165" t="n">
+        <v>9552.666666666666</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9486.416666666666</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>9430</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9650</v>
+        <v>9465</v>
       </c>
       <c r="C2" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="D2" t="n">
-        <v>9650</v>
+        <v>9465</v>
       </c>
       <c r="E2" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1441450777202073</v>
+        <v>14.939</v>
       </c>
       <c r="G2" t="n">
-        <v>9562.333333333334</v>
+        <v>-119.9108</v>
       </c>
       <c r="H2" t="n">
-        <v>9440.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="C3" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="D3" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="E3" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>12.4246</v>
       </c>
       <c r="G3" t="n">
-        <v>9575</v>
+        <v>-119.9108</v>
       </c>
       <c r="H3" t="n">
-        <v>9447.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9625</v>
+        <v>9460</v>
       </c>
       <c r="C4" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="D4" t="n">
-        <v>9625</v>
+        <v>9505</v>
       </c>
       <c r="E4" t="n">
-        <v>9580</v>
+        <v>9460</v>
       </c>
       <c r="F4" t="n">
-        <v>105</v>
+        <v>16.0655</v>
       </c>
       <c r="G4" t="n">
-        <v>9583.333333333334</v>
+        <v>-103.8453</v>
       </c>
       <c r="H4" t="n">
-        <v>9453.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9605</v>
+        <v>9505</v>
       </c>
       <c r="C5" t="n">
-        <v>9600</v>
+        <v>9510</v>
       </c>
       <c r="D5" t="n">
-        <v>9605</v>
+        <v>9510</v>
       </c>
       <c r="E5" t="n">
-        <v>9600</v>
+        <v>9505</v>
       </c>
       <c r="F5" t="n">
-        <v>48.1268</v>
+        <v>62.3306</v>
       </c>
       <c r="G5" t="n">
-        <v>9588</v>
+        <v>-41.5147</v>
       </c>
       <c r="H5" t="n">
-        <v>9459.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="C6" t="n">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="D6" t="n">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E6" t="n">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F6" t="n">
-        <v>34.1866</v>
+        <v>86</v>
       </c>
       <c r="G6" t="n">
-        <v>9592.666666666666</v>
+        <v>-127.5147</v>
       </c>
       <c r="H6" t="n">
-        <v>9465.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9600</v>
+        <v>9520</v>
       </c>
       <c r="C7" t="n">
-        <v>9600</v>
+        <v>9520</v>
       </c>
       <c r="D7" t="n">
-        <v>9600</v>
+        <v>9520</v>
       </c>
       <c r="E7" t="n">
-        <v>9600</v>
+        <v>9520</v>
       </c>
       <c r="F7" t="n">
-        <v>2.6866</v>
+        <v>4.788</v>
       </c>
       <c r="G7" t="n">
-        <v>9600.666666666666</v>
+        <v>-122.7267</v>
       </c>
       <c r="H7" t="n">
-        <v>9471.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9645</v>
+        <v>9525</v>
       </c>
       <c r="C8" t="n">
-        <v>9645</v>
+        <v>9625</v>
       </c>
       <c r="D8" t="n">
-        <v>9645</v>
+        <v>9625</v>
       </c>
       <c r="E8" t="n">
-        <v>9645</v>
+        <v>9525</v>
       </c>
       <c r="F8" t="n">
-        <v>22.8886</v>
+        <v>531.8630271168831</v>
       </c>
       <c r="G8" t="n">
-        <v>9608.333333333334</v>
+        <v>409.1363271168831</v>
       </c>
       <c r="H8" t="n">
-        <v>9478</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9615</v>
+        <v>9520</v>
       </c>
       <c r="C9" t="n">
-        <v>9645</v>
+        <v>9520</v>
       </c>
       <c r="D9" t="n">
-        <v>9645</v>
+        <v>9520</v>
       </c>
       <c r="E9" t="n">
-        <v>9615</v>
+        <v>9520</v>
       </c>
       <c r="F9" t="n">
-        <v>10.9326</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>9613.333333333334</v>
+        <v>399.1363271168831</v>
       </c>
       <c r="H9" t="n">
-        <v>9483.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9640</v>
+        <v>9515</v>
       </c>
       <c r="C10" t="n">
-        <v>9640</v>
+        <v>9525</v>
       </c>
       <c r="D10" t="n">
-        <v>9640</v>
+        <v>9525</v>
       </c>
       <c r="E10" t="n">
-        <v>9640</v>
+        <v>9515</v>
       </c>
       <c r="F10" t="n">
-        <v>6.9285</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>9616.666666666666</v>
+        <v>401.1363271168831</v>
       </c>
       <c r="H10" t="n">
-        <v>9487.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9630</v>
+        <v>9530</v>
       </c>
       <c r="C11" t="n">
-        <v>9630</v>
+        <v>9530</v>
       </c>
       <c r="D11" t="n">
-        <v>9630</v>
+        <v>9535</v>
       </c>
       <c r="E11" t="n">
-        <v>9630</v>
+        <v>9530</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>20.0016</v>
       </c>
       <c r="G11" t="n">
-        <v>9619.333333333334</v>
+        <v>421.1379271168831</v>
       </c>
       <c r="H11" t="n">
-        <v>9492.75</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9615</v>
+        <v>9540</v>
       </c>
       <c r="C12" t="n">
-        <v>9605</v>
+        <v>9540</v>
       </c>
       <c r="D12" t="n">
-        <v>9615</v>
+        <v>9540</v>
       </c>
       <c r="E12" t="n">
-        <v>9605</v>
+        <v>9540</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>1.6889</v>
       </c>
       <c r="G12" t="n">
-        <v>9619.333333333334</v>
+        <v>422.8268271168831</v>
       </c>
       <c r="H12" t="n">
-        <v>9497.25</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9610</v>
+        <v>9535</v>
       </c>
       <c r="C13" t="n">
-        <v>9625</v>
+        <v>9540</v>
       </c>
       <c r="D13" t="n">
-        <v>9625</v>
+        <v>9540</v>
       </c>
       <c r="E13" t="n">
-        <v>9610</v>
+        <v>9535</v>
       </c>
       <c r="F13" t="n">
-        <v>22.4112</v>
+        <v>21.1475</v>
       </c>
       <c r="G13" t="n">
-        <v>9620.333333333334</v>
+        <v>422.8268271168831</v>
       </c>
       <c r="H13" t="n">
-        <v>9502.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9625</v>
+        <v>9535</v>
       </c>
       <c r="C14" t="n">
-        <v>9660</v>
+        <v>9535</v>
       </c>
       <c r="D14" t="n">
-        <v>9660</v>
+        <v>9535</v>
       </c>
       <c r="E14" t="n">
-        <v>9625</v>
+        <v>9535</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>50.0524</v>
       </c>
       <c r="G14" t="n">
-        <v>9624</v>
+        <v>372.7744271168831</v>
       </c>
       <c r="H14" t="n">
-        <v>9508.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9655</v>
+        <v>9540</v>
       </c>
       <c r="C15" t="n">
-        <v>9670</v>
+        <v>9470</v>
       </c>
       <c r="D15" t="n">
-        <v>9670</v>
+        <v>9540</v>
       </c>
       <c r="E15" t="n">
-        <v>9655</v>
+        <v>9470</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>88.78879999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>9628</v>
+        <v>283.9856271168832</v>
       </c>
       <c r="H15" t="n">
-        <v>9514.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9635</v>
+        <v>9485</v>
       </c>
       <c r="C16" t="n">
-        <v>9635</v>
+        <v>9480</v>
       </c>
       <c r="D16" t="n">
-        <v>9635</v>
+        <v>9485</v>
       </c>
       <c r="E16" t="n">
-        <v>9635</v>
+        <v>9480</v>
       </c>
       <c r="F16" t="n">
-        <v>9.522</v>
+        <v>75.21550000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>9629</v>
+        <v>359.2011271168832</v>
       </c>
       <c r="H16" t="n">
-        <v>9520.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9630</v>
+        <v>9460</v>
       </c>
       <c r="C17" t="n">
-        <v>9620</v>
+        <v>9460</v>
       </c>
       <c r="D17" t="n">
-        <v>9630</v>
+        <v>9460</v>
       </c>
       <c r="E17" t="n">
-        <v>9620</v>
+        <v>9460</v>
       </c>
       <c r="F17" t="n">
-        <v>78.0951</v>
+        <v>53.9241</v>
       </c>
       <c r="G17" t="n">
-        <v>9627</v>
+        <v>305.2770271168832</v>
       </c>
       <c r="H17" t="n">
-        <v>9525.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9615</v>
+        <v>9460</v>
       </c>
       <c r="C18" t="n">
-        <v>9605</v>
+        <v>9455</v>
       </c>
       <c r="D18" t="n">
-        <v>9615</v>
+        <v>9460</v>
       </c>
       <c r="E18" t="n">
-        <v>9605</v>
+        <v>9455</v>
       </c>
       <c r="F18" t="n">
-        <v>74.1555</v>
+        <v>51.2279</v>
       </c>
       <c r="G18" t="n">
-        <v>9624</v>
+        <v>254.0491271168832</v>
       </c>
       <c r="H18" t="n">
-        <v>9531.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9605</v>
+        <v>9530</v>
       </c>
       <c r="C19" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="D19" t="n">
-        <v>9605</v>
+        <v>9530</v>
       </c>
       <c r="E19" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="F19" t="n">
-        <v>36.1472</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>9625.333333333334</v>
+        <v>264.0491271168831</v>
       </c>
       <c r="H19" t="n">
-        <v>9535.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9590</v>
+        <v>9530</v>
       </c>
       <c r="C20" t="n">
-        <v>9515</v>
+        <v>9530</v>
       </c>
       <c r="D20" t="n">
-        <v>9610</v>
+        <v>9530</v>
       </c>
       <c r="E20" t="n">
-        <v>9515</v>
+        <v>9530</v>
       </c>
       <c r="F20" t="n">
-        <v>33.6589</v>
+        <v>10.49317943336831</v>
       </c>
       <c r="G20" t="n">
-        <v>9619.666666666666</v>
+        <v>264.0491271168831</v>
       </c>
       <c r="H20" t="n">
-        <v>9537.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="C21" t="n">
-        <v>9600</v>
+        <v>9480</v>
       </c>
       <c r="D21" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="E21" t="n">
-        <v>9600</v>
+        <v>9480</v>
       </c>
       <c r="F21" t="n">
-        <v>14.1041</v>
+        <v>10.5825</v>
       </c>
       <c r="G21" t="n">
-        <v>9619.666666666666</v>
+        <v>253.4666271168831</v>
       </c>
       <c r="H21" t="n">
-        <v>9541.5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9590</v>
+        <v>9505</v>
       </c>
       <c r="C22" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="D22" t="n">
-        <v>9590</v>
+        <v>9530</v>
       </c>
       <c r="E22" t="n">
-        <v>9510</v>
+        <v>9505</v>
       </c>
       <c r="F22" t="n">
-        <v>16.4229</v>
+        <v>52.95232056663169</v>
       </c>
       <c r="G22" t="n">
-        <v>9613.666666666666</v>
+        <v>306.4189476835148</v>
       </c>
       <c r="H22" t="n">
-        <v>9543.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9590</v>
+        <v>9540</v>
       </c>
       <c r="C23" t="n">
-        <v>9590</v>
+        <v>9570</v>
       </c>
       <c r="D23" t="n">
-        <v>9590</v>
+        <v>9570</v>
       </c>
       <c r="E23" t="n">
-        <v>9590</v>
+        <v>9540</v>
       </c>
       <c r="F23" t="n">
-        <v>7.0595</v>
+        <v>423.2412</v>
       </c>
       <c r="G23" t="n">
-        <v>9610</v>
+        <v>729.6601476835149</v>
       </c>
       <c r="H23" t="n">
-        <v>9546.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9515</v>
+        <v>9570</v>
       </c>
       <c r="C24" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="D24" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="E24" t="n">
-        <v>9515</v>
+        <v>9570</v>
       </c>
       <c r="F24" t="n">
-        <v>28.0906</v>
+        <v>407.5558</v>
       </c>
       <c r="G24" t="n">
-        <v>9601.333333333334</v>
+        <v>1137.215947683515</v>
       </c>
       <c r="H24" t="n">
-        <v>9548.5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="C25" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="D25" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="E25" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="F25" t="n">
-        <v>19.714</v>
+        <v>7.5946</v>
       </c>
       <c r="G25" t="n">
-        <v>9593</v>
+        <v>1137.215947683515</v>
       </c>
       <c r="H25" t="n">
-        <v>9550.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9515</v>
+        <v>9605</v>
       </c>
       <c r="C26" t="n">
-        <v>9515</v>
+        <v>9605</v>
       </c>
       <c r="D26" t="n">
-        <v>9515</v>
+        <v>9605</v>
       </c>
       <c r="E26" t="n">
-        <v>9515</v>
+        <v>9605</v>
       </c>
       <c r="F26" t="n">
-        <v>91.5192</v>
+        <v>5.205622071837585</v>
       </c>
       <c r="G26" t="n">
-        <v>9585.333333333334</v>
+        <v>1142.421569755352</v>
       </c>
       <c r="H26" t="n">
-        <v>9552.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9480</v>
+        <v>9605</v>
       </c>
       <c r="C27" t="n">
-        <v>9480</v>
+        <v>9610</v>
       </c>
       <c r="D27" t="n">
-        <v>9480</v>
+        <v>9610</v>
       </c>
       <c r="E27" t="n">
-        <v>9475</v>
+        <v>9605</v>
       </c>
       <c r="F27" t="n">
-        <v>266.0756</v>
+        <v>312.3585</v>
       </c>
       <c r="G27" t="n">
-        <v>9577</v>
+        <v>1454.780069755353</v>
       </c>
       <c r="H27" t="n">
-        <v>9553.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9475</v>
+        <v>9605</v>
       </c>
       <c r="C28" t="n">
-        <v>9425</v>
+        <v>9605</v>
       </c>
       <c r="D28" t="n">
-        <v>9475</v>
+        <v>9605</v>
       </c>
       <c r="E28" t="n">
-        <v>9425</v>
+        <v>9605</v>
       </c>
       <c r="F28" t="n">
-        <v>291.8799</v>
+        <v>39.5719</v>
       </c>
       <c r="G28" t="n">
-        <v>9563.666666666666</v>
+        <v>1415.208169755353</v>
       </c>
       <c r="H28" t="n">
-        <v>9553.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9445</v>
+        <v>9605</v>
       </c>
       <c r="C29" t="n">
-        <v>9495</v>
+        <v>9610</v>
       </c>
       <c r="D29" t="n">
-        <v>9495</v>
+        <v>9610</v>
       </c>
       <c r="E29" t="n">
-        <v>9430</v>
+        <v>9605</v>
       </c>
       <c r="F29" t="n">
-        <v>37.0776</v>
+        <v>48.69947792816242</v>
       </c>
       <c r="G29" t="n">
-        <v>9552.666666666666</v>
+        <v>1463.907647683515</v>
       </c>
       <c r="H29" t="n">
-        <v>9555</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9495</v>
+        <v>9620</v>
       </c>
       <c r="C30" t="n">
-        <v>9505</v>
+        <v>9620</v>
       </c>
       <c r="D30" t="n">
-        <v>9505</v>
+        <v>9620</v>
       </c>
       <c r="E30" t="n">
-        <v>9495</v>
+        <v>9620</v>
       </c>
       <c r="F30" t="n">
-        <v>145.8052</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>9541.666666666666</v>
+        <v>1503.907647683515</v>
       </c>
       <c r="H30" t="n">
-        <v>9555.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9425</v>
+        <v>9650</v>
       </c>
       <c r="C31" t="n">
-        <v>9425</v>
+        <v>9650</v>
       </c>
       <c r="D31" t="n">
-        <v>9425</v>
+        <v>9650</v>
       </c>
       <c r="E31" t="n">
-        <v>9425</v>
+        <v>9650</v>
       </c>
       <c r="F31" t="n">
-        <v>62.8417</v>
+        <v>0.1441450777202073</v>
       </c>
       <c r="G31" t="n">
-        <v>9527.666666666666</v>
+        <v>1504.051792761235</v>
       </c>
       <c r="H31" t="n">
-        <v>9555.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9420</v>
+        <v>9650</v>
       </c>
       <c r="C32" t="n">
-        <v>9440</v>
+        <v>9650</v>
       </c>
       <c r="D32" t="n">
-        <v>9440</v>
+        <v>9650</v>
       </c>
       <c r="E32" t="n">
-        <v>9420</v>
+        <v>9650</v>
       </c>
       <c r="F32" t="n">
-        <v>61.7789</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>9515.666666666666</v>
+        <v>1504.051792761235</v>
       </c>
       <c r="H32" t="n">
-        <v>9554.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9440</v>
+        <v>9625</v>
       </c>
       <c r="C33" t="n">
-        <v>9440</v>
+        <v>9580</v>
       </c>
       <c r="D33" t="n">
-        <v>9440</v>
+        <v>9625</v>
       </c>
       <c r="E33" t="n">
-        <v>9440</v>
+        <v>9580</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3124</v>
+        <v>105</v>
       </c>
       <c r="G33" t="n">
-        <v>9504.666666666666</v>
+        <v>1399.051792761235</v>
       </c>
       <c r="H33" t="n">
-        <v>9554.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9425</v>
+        <v>9605</v>
       </c>
       <c r="C34" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="D34" t="n">
-        <v>9425</v>
+        <v>9605</v>
       </c>
       <c r="E34" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="F34" t="n">
-        <v>7.3468</v>
+        <v>48.1268</v>
       </c>
       <c r="G34" t="n">
-        <v>9492.666666666666</v>
+        <v>1447.178592761235</v>
       </c>
       <c r="H34" t="n">
-        <v>9553.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9425</v>
+        <v>9600</v>
       </c>
       <c r="C35" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="D35" t="n">
-        <v>9425</v>
+        <v>9600</v>
       </c>
       <c r="E35" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="F35" t="n">
-        <v>59.514</v>
+        <v>34.1866</v>
       </c>
       <c r="G35" t="n">
-        <v>9486.333333333334</v>
+        <v>1447.178592761235</v>
       </c>
       <c r="H35" t="n">
-        <v>9552.5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9410</v>
+        <v>9600</v>
       </c>
       <c r="C36" t="n">
-        <v>9410</v>
+        <v>9600</v>
       </c>
       <c r="D36" t="n">
-        <v>9410</v>
+        <v>9600</v>
       </c>
       <c r="E36" t="n">
-        <v>9410</v>
+        <v>9600</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8461</v>
+        <v>2.6866</v>
       </c>
       <c r="G36" t="n">
-        <v>9473.666666666666</v>
+        <v>1447.178592761235</v>
       </c>
       <c r="H36" t="n">
-        <v>9550.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9370</v>
+        <v>9645</v>
       </c>
       <c r="C37" t="n">
-        <v>9370</v>
+        <v>9645</v>
       </c>
       <c r="D37" t="n">
-        <v>9370</v>
+        <v>9645</v>
       </c>
       <c r="E37" t="n">
-        <v>9370</v>
+        <v>9645</v>
       </c>
       <c r="F37" t="n">
-        <v>6.6318</v>
+        <v>22.8886</v>
       </c>
       <c r="G37" t="n">
-        <v>9464.333333333334</v>
+        <v>1470.067192761235</v>
       </c>
       <c r="H37" t="n">
-        <v>9548.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9400</v>
+        <v>9615</v>
       </c>
       <c r="C38" t="n">
-        <v>9400</v>
+        <v>9645</v>
       </c>
       <c r="D38" t="n">
-        <v>9400</v>
+        <v>9645</v>
       </c>
       <c r="E38" t="n">
-        <v>9400</v>
+        <v>9615</v>
       </c>
       <c r="F38" t="n">
-        <v>17.5462</v>
+        <v>10.9326</v>
       </c>
       <c r="G38" t="n">
-        <v>9451.666666666666</v>
+        <v>1470.067192761235</v>
       </c>
       <c r="H38" t="n">
-        <v>9546.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9400</v>
+        <v>9640</v>
       </c>
       <c r="C39" t="n">
-        <v>9400</v>
+        <v>9640</v>
       </c>
       <c r="D39" t="n">
-        <v>9400</v>
+        <v>9640</v>
       </c>
       <c r="E39" t="n">
-        <v>9400</v>
+        <v>9640</v>
       </c>
       <c r="F39" t="n">
-        <v>32.4538</v>
+        <v>6.9285</v>
       </c>
       <c r="G39" t="n">
-        <v>9444</v>
+        <v>1463.138692761235</v>
       </c>
       <c r="H39" t="n">
-        <v>9542.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9405</v>
+        <v>9630</v>
       </c>
       <c r="C40" t="n">
-        <v>9400</v>
+        <v>9630</v>
       </c>
       <c r="D40" t="n">
-        <v>9405</v>
+        <v>9630</v>
       </c>
       <c r="E40" t="n">
-        <v>9400</v>
+        <v>9630</v>
       </c>
       <c r="F40" t="n">
-        <v>55.0324</v>
+        <v>15</v>
       </c>
       <c r="G40" t="n">
-        <v>9436.333333333334</v>
+        <v>1448.138692761235</v>
       </c>
       <c r="H40" t="n">
-        <v>9540.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9400</v>
+        <v>9615</v>
       </c>
       <c r="C41" t="n">
-        <v>9400</v>
+        <v>9605</v>
       </c>
       <c r="D41" t="n">
-        <v>9400</v>
+        <v>9615</v>
       </c>
       <c r="E41" t="n">
-        <v>9400</v>
+        <v>9605</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>9428.666666666666</v>
+        <v>1348.138692761235</v>
       </c>
       <c r="H41" t="n">
-        <v>9538.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9400</v>
+        <v>9610</v>
       </c>
       <c r="C42" t="n">
-        <v>9430</v>
+        <v>9625</v>
       </c>
       <c r="D42" t="n">
-        <v>9430</v>
+        <v>9625</v>
       </c>
       <c r="E42" t="n">
-        <v>9400</v>
+        <v>9610</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>22.4112</v>
       </c>
       <c r="G42" t="n">
-        <v>9425.333333333334</v>
+        <v>1370.549892761235</v>
       </c>
       <c r="H42" t="n">
-        <v>9537.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9435</v>
+        <v>9625</v>
       </c>
       <c r="C43" t="n">
-        <v>9435</v>
+        <v>9660</v>
       </c>
       <c r="D43" t="n">
-        <v>9435</v>
+        <v>9660</v>
       </c>
       <c r="E43" t="n">
-        <v>9435</v>
+        <v>9625</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>9426</v>
+        <v>1381.549892761235</v>
       </c>
       <c r="H43" t="n">
-        <v>9535.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9460</v>
+        <v>9655</v>
       </c>
       <c r="C44" t="n">
-        <v>9460</v>
+        <v>9670</v>
       </c>
       <c r="D44" t="n">
-        <v>9460</v>
+        <v>9670</v>
       </c>
       <c r="E44" t="n">
-        <v>9460</v>
+        <v>9655</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>9423.666666666666</v>
+        <v>1481.549892761235</v>
       </c>
       <c r="H44" t="n">
-        <v>9534.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="C45" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="D45" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="E45" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="F45" t="n">
-        <v>11.7485</v>
+        <v>9.522</v>
       </c>
       <c r="G45" t="n">
-        <v>9420.666666666666</v>
+        <v>1472.027892761235</v>
       </c>
       <c r="H45" t="n">
-        <v>9532.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9470</v>
+        <v>9630</v>
       </c>
       <c r="C46" t="n">
-        <v>9470</v>
+        <v>9620</v>
       </c>
       <c r="D46" t="n">
-        <v>9505</v>
+        <v>9630</v>
       </c>
       <c r="E46" t="n">
-        <v>9470</v>
+        <v>9620</v>
       </c>
       <c r="F46" t="n">
-        <v>18.9484</v>
+        <v>78.0951</v>
       </c>
       <c r="G46" t="n">
-        <v>9423.666666666666</v>
+        <v>1393.932792761235</v>
       </c>
       <c r="H46" t="n">
-        <v>9532.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9475</v>
+        <v>9615</v>
       </c>
       <c r="C47" t="n">
-        <v>9475</v>
+        <v>9605</v>
       </c>
       <c r="D47" t="n">
-        <v>9475</v>
+        <v>9615</v>
       </c>
       <c r="E47" t="n">
-        <v>9475</v>
+        <v>9605</v>
       </c>
       <c r="F47" t="n">
-        <v>9.8353</v>
+        <v>74.1555</v>
       </c>
       <c r="G47" t="n">
-        <v>9426</v>
+        <v>1319.777292761235</v>
       </c>
       <c r="H47" t="n">
-        <v>9532.75</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9470</v>
+        <v>9605</v>
       </c>
       <c r="C48" t="n">
-        <v>9470</v>
+        <v>9600</v>
       </c>
       <c r="D48" t="n">
-        <v>9470</v>
+        <v>9605</v>
       </c>
       <c r="E48" t="n">
-        <v>9470</v>
+        <v>9600</v>
       </c>
       <c r="F48" t="n">
-        <v>5.1064</v>
+        <v>36.1472</v>
       </c>
       <c r="G48" t="n">
-        <v>9428</v>
+        <v>1283.630092761235</v>
       </c>
       <c r="H48" t="n">
-        <v>9532.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9505</v>
+        <v>9590</v>
       </c>
       <c r="C49" t="n">
-        <v>9505</v>
+        <v>9515</v>
       </c>
       <c r="D49" t="n">
-        <v>9505</v>
+        <v>9610</v>
       </c>
       <c r="E49" t="n">
-        <v>9505</v>
+        <v>9515</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3124</v>
+        <v>33.6589</v>
       </c>
       <c r="G49" t="n">
-        <v>9433.666666666666</v>
+        <v>1249.971192761235</v>
       </c>
       <c r="H49" t="n">
-        <v>9533.75</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="C50" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="D50" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E50" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F50" t="n">
-        <v>14.3753</v>
+        <v>14.1041</v>
       </c>
       <c r="G50" t="n">
-        <v>9439</v>
+        <v>1264.075292761235</v>
       </c>
       <c r="H50" t="n">
-        <v>9533.25</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9500</v>
+        <v>9590</v>
       </c>
       <c r="C51" t="n">
-        <v>9520</v>
+        <v>9510</v>
       </c>
       <c r="D51" t="n">
-        <v>9520</v>
+        <v>9590</v>
       </c>
       <c r="E51" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="F51" t="n">
-        <v>80.7428</v>
+        <v>16.4229</v>
       </c>
       <c r="G51" t="n">
-        <v>9446.333333333334</v>
+        <v>1247.652392761235</v>
       </c>
       <c r="H51" t="n">
-        <v>9533.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9520</v>
+        <v>9590</v>
       </c>
       <c r="C52" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="D52" t="n">
-        <v>9570</v>
+        <v>9590</v>
       </c>
       <c r="E52" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="F52" t="n">
-        <v>272.989</v>
+        <v>7.0595</v>
       </c>
       <c r="G52" t="n">
-        <v>9455.666666666666</v>
+        <v>1254.711892761235</v>
       </c>
       <c r="H52" t="n">
-        <v>9533.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C53" t="n">
-        <v>9535</v>
+        <v>9515</v>
       </c>
       <c r="D53" t="n">
-        <v>9535</v>
+        <v>9515</v>
       </c>
       <c r="E53" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F53" t="n">
-        <v>82.97799999999999</v>
+        <v>28.0906</v>
       </c>
       <c r="G53" t="n">
-        <v>9464.666666666666</v>
+        <v>1226.621292761235</v>
       </c>
       <c r="H53" t="n">
-        <v>9533.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9530</v>
+        <v>9515</v>
       </c>
       <c r="C54" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="D54" t="n">
-        <v>9535</v>
+        <v>9515</v>
       </c>
       <c r="E54" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F54" t="n">
-        <v>462.9327</v>
+        <v>19.714</v>
       </c>
       <c r="G54" t="n">
-        <v>9472</v>
+        <v>1226.621292761235</v>
       </c>
       <c r="H54" t="n">
-        <v>9532.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C55" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="D55" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="E55" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F55" t="n">
-        <v>70</v>
+        <v>91.5192</v>
       </c>
       <c r="G55" t="n">
-        <v>9479.333333333334</v>
+        <v>1226.621292761235</v>
       </c>
       <c r="H55" t="n">
-        <v>9531.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="C56" t="n">
-        <v>9440</v>
+        <v>9480</v>
       </c>
       <c r="D56" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="E56" t="n">
-        <v>9440</v>
+        <v>9475</v>
       </c>
       <c r="F56" t="n">
-        <v>64.0646</v>
+        <v>266.0756</v>
       </c>
       <c r="G56" t="n">
-        <v>9482</v>
+        <v>960.5456927612353</v>
       </c>
       <c r="H56" t="n">
-        <v>9528.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="C57" t="n">
-        <v>9490</v>
+        <v>9425</v>
       </c>
       <c r="D57" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="E57" t="n">
-        <v>9490</v>
+        <v>9425</v>
       </c>
       <c r="F57" t="n">
-        <v>3.9383</v>
+        <v>291.8799</v>
       </c>
       <c r="G57" t="n">
-        <v>9486</v>
+        <v>668.6657927612353</v>
       </c>
       <c r="H57" t="n">
-        <v>9526.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9490</v>
+        <v>9445</v>
       </c>
       <c r="C58" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="D58" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="E58" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="F58" t="n">
-        <v>11.159</v>
+        <v>37.0776</v>
       </c>
       <c r="G58" t="n">
-        <v>9489.666666666666</v>
+        <v>705.7433927612352</v>
       </c>
       <c r="H58" t="n">
-        <v>9524.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="C59" t="n">
-        <v>9490</v>
+        <v>9505</v>
       </c>
       <c r="D59" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="E59" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="F59" t="n">
-        <v>49.2068</v>
+        <v>145.8052</v>
       </c>
       <c r="G59" t="n">
-        <v>9491.666666666666</v>
+        <v>851.5485927612352</v>
       </c>
       <c r="H59" t="n">
-        <v>9523</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9465</v>
+        <v>9425</v>
       </c>
       <c r="C60" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="D60" t="n">
-        <v>9465</v>
+        <v>9425</v>
       </c>
       <c r="E60" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="F60" t="n">
-        <v>15.4439</v>
+        <v>62.8417</v>
       </c>
       <c r="G60" t="n">
-        <v>9491.666666666666</v>
+        <v>788.7068927612352</v>
       </c>
       <c r="H60" t="n">
-        <v>9520.5</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9455</v>
+        <v>9420</v>
       </c>
       <c r="C61" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="D61" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="E61" t="n">
-        <v>9455</v>
+        <v>9420</v>
       </c>
       <c r="F61" t="n">
-        <v>22.2778</v>
+        <v>61.7789</v>
       </c>
       <c r="G61" t="n">
-        <v>9490.666666666666</v>
+        <v>850.4857927612352</v>
       </c>
       <c r="H61" t="n">
-        <v>9517.75</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="C62" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="D62" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="E62" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="F62" t="n">
-        <v>2.4893</v>
+        <v>2.3124</v>
       </c>
       <c r="G62" t="n">
-        <v>9489.333333333334</v>
+        <v>850.4857927612352</v>
       </c>
       <c r="H62" t="n">
-        <v>9514.5</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="C63" t="n">
-        <v>9460</v>
+        <v>9420</v>
       </c>
       <c r="D63" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="E63" t="n">
-        <v>9455</v>
+        <v>9420</v>
       </c>
       <c r="F63" t="n">
-        <v>31.3473</v>
+        <v>7.3468</v>
       </c>
       <c r="G63" t="n">
-        <v>9488.666666666666</v>
+        <v>843.1389927612352</v>
       </c>
       <c r="H63" t="n">
-        <v>9511.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="C64" t="n">
-        <v>9460</v>
+        <v>9420</v>
       </c>
       <c r="D64" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="E64" t="n">
-        <v>9460</v>
+        <v>9420</v>
       </c>
       <c r="F64" t="n">
-        <v>198.3543</v>
+        <v>59.514</v>
       </c>
       <c r="G64" t="n">
-        <v>9485.666666666666</v>
+        <v>843.1389927612352</v>
       </c>
       <c r="H64" t="n">
-        <v>9509.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9460</v>
+        <v>9410</v>
       </c>
       <c r="C65" t="n">
-        <v>9460</v>
+        <v>9410</v>
       </c>
       <c r="D65" t="n">
-        <v>9460</v>
+        <v>9410</v>
       </c>
       <c r="E65" t="n">
-        <v>9460</v>
+        <v>9410</v>
       </c>
       <c r="F65" t="n">
-        <v>38.3682</v>
+        <v>0.8461</v>
       </c>
       <c r="G65" t="n">
-        <v>9483</v>
+        <v>842.2928927612352</v>
       </c>
       <c r="H65" t="n">
-        <v>9507</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9460</v>
+        <v>9370</v>
       </c>
       <c r="C66" t="n">
-        <v>9460</v>
+        <v>9370</v>
       </c>
       <c r="D66" t="n">
-        <v>9460</v>
+        <v>9370</v>
       </c>
       <c r="E66" t="n">
-        <v>9460</v>
+        <v>9370</v>
       </c>
       <c r="F66" t="n">
-        <v>8.9984</v>
+        <v>6.6318</v>
       </c>
       <c r="G66" t="n">
-        <v>9479</v>
+        <v>835.6610927612352</v>
       </c>
       <c r="H66" t="n">
-        <v>9504.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="C67" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="D67" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="E67" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="F67" t="n">
-        <v>3.018</v>
+        <v>17.5462</v>
       </c>
       <c r="G67" t="n">
-        <v>9475</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H67" t="n">
-        <v>9502.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="C68" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="D68" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="E68" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="F68" t="n">
-        <v>16.982</v>
+        <v>32.4538</v>
       </c>
       <c r="G68" t="n">
-        <v>9469.333333333334</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H68" t="n">
-        <v>9498.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9450</v>
+        <v>9405</v>
       </c>
       <c r="C69" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="D69" t="n">
-        <v>9450</v>
+        <v>9405</v>
       </c>
       <c r="E69" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="F69" t="n">
-        <v>3.47</v>
+        <v>55.0324</v>
       </c>
       <c r="G69" t="n">
-        <v>9465.333333333334</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H69" t="n">
-        <v>9495.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="C70" t="n">
-        <v>9460</v>
+        <v>9400</v>
       </c>
       <c r="D70" t="n">
-        <v>9460</v>
+        <v>9400</v>
       </c>
       <c r="E70" t="n">
-        <v>9450</v>
+        <v>9400</v>
       </c>
       <c r="F70" t="n">
-        <v>18.7288</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>9462</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H70" t="n">
-        <v>9492.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9460</v>
+        <v>9400</v>
       </c>
       <c r="C71" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="D71" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="E71" t="n">
-        <v>9460</v>
+        <v>9400</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2104651162790698</v>
+        <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>9463.333333333334</v>
+        <v>853.3072927612352</v>
       </c>
       <c r="H71" t="n">
-        <v>9489.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="C72" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="D72" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="E72" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="F72" t="n">
-        <v>2.54823488372093</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>9461.333333333334</v>
+        <v>873.3072927612352</v>
       </c>
       <c r="H72" t="n">
-        <v>9487.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="C73" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="D73" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="E73" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>9458.333333333334</v>
+        <v>893.3072927612352</v>
       </c>
       <c r="H73" t="n">
-        <v>9484.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="C74" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="D74" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="E74" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1</v>
+        <v>11.7485</v>
       </c>
       <c r="G74" t="n">
-        <v>9461</v>
+        <v>893.3072927612352</v>
       </c>
       <c r="H74" t="n">
-        <v>9482.25</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="C75" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="D75" t="n">
-        <v>9445</v>
+        <v>9505</v>
       </c>
       <c r="E75" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="F75" t="n">
-        <v>16</v>
+        <v>18.9484</v>
       </c>
       <c r="G75" t="n">
-        <v>9460</v>
+        <v>912.2556927612352</v>
       </c>
       <c r="H75" t="n">
-        <v>9478.5</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9445</v>
+        <v>9475</v>
       </c>
       <c r="C76" t="n">
-        <v>9445</v>
+        <v>9475</v>
       </c>
       <c r="D76" t="n">
-        <v>9445</v>
+        <v>9475</v>
       </c>
       <c r="E76" t="n">
-        <v>9440</v>
+        <v>9475</v>
       </c>
       <c r="F76" t="n">
-        <v>23.5539</v>
+        <v>9.8353</v>
       </c>
       <c r="G76" t="n">
-        <v>9459.333333333334</v>
+        <v>922.0909927612352</v>
       </c>
       <c r="H76" t="n">
-        <v>9475.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="C77" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="D77" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="E77" t="n">
-        <v>9445</v>
+        <v>9470</v>
       </c>
       <c r="F77" t="n">
-        <v>5.0951</v>
+        <v>5.1064</v>
       </c>
       <c r="G77" t="n">
-        <v>9458.666666666666</v>
+        <v>916.9845927612351</v>
       </c>
       <c r="H77" t="n">
-        <v>9472.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9440</v>
+        <v>9505</v>
       </c>
       <c r="C78" t="n">
-        <v>9420</v>
+        <v>9505</v>
       </c>
       <c r="D78" t="n">
-        <v>9440</v>
+        <v>9505</v>
       </c>
       <c r="E78" t="n">
-        <v>9420</v>
+        <v>9505</v>
       </c>
       <c r="F78" t="n">
-        <v>15.3445</v>
+        <v>0.3124</v>
       </c>
       <c r="G78" t="n">
-        <v>9456</v>
+        <v>917.2969927612352</v>
       </c>
       <c r="H78" t="n">
-        <v>9469.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9425</v>
+        <v>9500</v>
       </c>
       <c r="C79" t="n">
-        <v>9420</v>
+        <v>9500</v>
       </c>
       <c r="D79" t="n">
-        <v>9425</v>
+        <v>9500</v>
       </c>
       <c r="E79" t="n">
-        <v>9420</v>
+        <v>9500</v>
       </c>
       <c r="F79" t="n">
-        <v>124.1393</v>
+        <v>14.3753</v>
       </c>
       <c r="G79" t="n">
-        <v>9453.333333333334</v>
+        <v>902.9216927612351</v>
       </c>
       <c r="H79" t="n">
-        <v>9466.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,40 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9485</v>
+        <v>9500</v>
       </c>
       <c r="C80" t="n">
-        <v>9485</v>
+        <v>9520</v>
       </c>
       <c r="D80" t="n">
-        <v>9485</v>
+        <v>9520</v>
       </c>
       <c r="E80" t="n">
-        <v>9485</v>
+        <v>9500</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3524</v>
+        <v>80.7428</v>
       </c>
       <c r="G80" t="n">
-        <v>9455</v>
+        <v>983.6644927612351</v>
       </c>
       <c r="H80" t="n">
-        <v>9465.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,44 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9420</v>
+        <v>9520</v>
       </c>
       <c r="C81" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="D81" t="n">
-        <v>9420</v>
+        <v>9570</v>
       </c>
       <c r="E81" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="F81" t="n">
-        <v>6.1229</v>
+        <v>272.989</v>
       </c>
       <c r="G81" t="n">
-        <v>9452.333333333334</v>
+        <v>710.6754927612351</v>
       </c>
       <c r="H81" t="n">
-        <v>9462.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>9485</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="C82" t="n">
-        <v>9420</v>
+        <v>9535</v>
       </c>
       <c r="D82" t="n">
-        <v>9420</v>
+        <v>9535</v>
       </c>
       <c r="E82" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="F82" t="n">
-        <v>23.5437</v>
+        <v>82.97799999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>9450.333333333334</v>
+        <v>793.653492761235</v>
       </c>
       <c r="H82" t="n">
-        <v>9461.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,40 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9490</v>
+        <v>9530</v>
       </c>
       <c r="C83" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="D83" t="n">
-        <v>9490</v>
+        <v>9535</v>
       </c>
       <c r="E83" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3124</v>
+        <v>462.9327</v>
       </c>
       <c r="G83" t="n">
-        <v>9453</v>
+        <v>330.720792761235</v>
       </c>
       <c r="H83" t="n">
-        <v>9459.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,44 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="C84" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="D84" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="E84" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G84" t="n">
-        <v>9451</v>
+        <v>330.720792761235</v>
       </c>
       <c r="H84" t="n">
-        <v>9458.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9490</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,44 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="C85" t="n">
-        <v>9430</v>
+        <v>9440</v>
       </c>
       <c r="D85" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="E85" t="n">
-        <v>9430</v>
+        <v>9440</v>
       </c>
       <c r="F85" t="n">
-        <v>1.48</v>
+        <v>64.0646</v>
       </c>
       <c r="G85" t="n">
-        <v>9449</v>
+        <v>266.656192761235</v>
       </c>
       <c r="H85" t="n">
-        <v>9456.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9420</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,28 +3385,21 @@
         <v>9490</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2</v>
+        <v>3.9383</v>
       </c>
       <c r="G86" t="n">
-        <v>9451</v>
+        <v>270.5944927612351</v>
       </c>
       <c r="H86" t="n">
-        <v>9456.25</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9430</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,42 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="C87" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="D87" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="E87" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="F87" t="n">
-        <v>11.5252</v>
+        <v>11.159</v>
       </c>
       <c r="G87" t="n">
-        <v>9450.666666666666</v>
+        <v>270.5944927612351</v>
       </c>
       <c r="H87" t="n">
-        <v>9455.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,42 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="C88" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="D88" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="E88" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="F88" t="n">
-        <v>41.1624</v>
+        <v>49.2068</v>
       </c>
       <c r="G88" t="n">
-        <v>9451</v>
+        <v>270.5944927612351</v>
       </c>
       <c r="H88" t="n">
-        <v>9456.25</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,44 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="C89" t="n">
-        <v>9440</v>
+        <v>9460</v>
       </c>
       <c r="D89" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="E89" t="n">
-        <v>9440</v>
+        <v>9460</v>
       </c>
       <c r="F89" t="n">
-        <v>39.4402</v>
+        <v>15.4439</v>
       </c>
       <c r="G89" t="n">
-        <v>9445</v>
+        <v>255.1505927612351</v>
       </c>
       <c r="H89" t="n">
-        <v>9455.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>9450</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,42 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9415</v>
+        <v>9455</v>
       </c>
       <c r="C90" t="n">
-        <v>9400</v>
+        <v>9455</v>
       </c>
       <c r="D90" t="n">
-        <v>9415</v>
+        <v>9455</v>
       </c>
       <c r="E90" t="n">
-        <v>9400</v>
+        <v>9455</v>
       </c>
       <c r="F90" t="n">
-        <v>103.0295</v>
+        <v>22.2778</v>
       </c>
       <c r="G90" t="n">
-        <v>9442</v>
+        <v>232.8727927612351</v>
       </c>
       <c r="H90" t="n">
-        <v>9453.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,44 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9445</v>
+        <v>9455</v>
       </c>
       <c r="C91" t="n">
-        <v>9445</v>
+        <v>9455</v>
       </c>
       <c r="D91" t="n">
-        <v>9445</v>
+        <v>9455</v>
       </c>
       <c r="E91" t="n">
-        <v>9445</v>
+        <v>9455</v>
       </c>
       <c r="F91" t="n">
-        <v>15</v>
+        <v>2.4893</v>
       </c>
       <c r="G91" t="n">
-        <v>9442</v>
+        <v>232.8727927612351</v>
       </c>
       <c r="H91" t="n">
-        <v>9453.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,44 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9400</v>
+        <v>9455</v>
       </c>
       <c r="C92" t="n">
-        <v>9400</v>
+        <v>9460</v>
       </c>
       <c r="D92" t="n">
-        <v>9400</v>
+        <v>9460</v>
       </c>
       <c r="E92" t="n">
-        <v>9400</v>
+        <v>9455</v>
       </c>
       <c r="F92" t="n">
-        <v>28.1042</v>
+        <v>31.3473</v>
       </c>
       <c r="G92" t="n">
-        <v>9439</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H92" t="n">
-        <v>9453.25</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>9445</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,44 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="C93" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="D93" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="E93" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="F93" t="n">
-        <v>11.3064</v>
+        <v>198.3543</v>
       </c>
       <c r="G93" t="n">
-        <v>9437</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H93" t="n">
-        <v>9452.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="C94" t="n">
         <v>9460</v>
@@ -4035,35 +3662,24 @@
         <v>9460</v>
       </c>
       <c r="E94" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="F94" t="n">
-        <v>19.97768726215645</v>
+        <v>38.3682</v>
       </c>
       <c r="G94" t="n">
-        <v>9439.666666666666</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H94" t="n">
-        <v>9453.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,44 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="C95" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="D95" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="E95" t="n">
-        <v>9390</v>
+        <v>9460</v>
       </c>
       <c r="F95" t="n">
-        <v>275.4038</v>
+        <v>8.9984</v>
       </c>
       <c r="G95" t="n">
-        <v>9433.333333333334</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H95" t="n">
-        <v>9452.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>9460</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,44 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="C96" t="n">
-        <v>9465</v>
+        <v>9450</v>
       </c>
       <c r="D96" t="n">
-        <v>9465</v>
+        <v>9450</v>
       </c>
       <c r="E96" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="F96" t="n">
-        <v>17.5426</v>
+        <v>3.018</v>
       </c>
       <c r="G96" t="n">
-        <v>9436.333333333334</v>
+        <v>261.2020927612351</v>
       </c>
       <c r="H96" t="n">
-        <v>9453.5</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,44 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="C97" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="D97" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="E97" t="n">
-        <v>9415</v>
+        <v>9450</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>16.982</v>
       </c>
       <c r="G97" t="n">
-        <v>9436</v>
+        <v>261.2020927612351</v>
       </c>
       <c r="H97" t="n">
-        <v>9454.25</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>9465</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,42 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="C98" t="n">
-        <v>9380</v>
+        <v>9450</v>
       </c>
       <c r="D98" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="E98" t="n">
-        <v>9380</v>
+        <v>9450</v>
       </c>
       <c r="F98" t="n">
-        <v>124.1393</v>
+        <v>3.47</v>
       </c>
       <c r="G98" t="n">
-        <v>9428.666666666666</v>
+        <v>261.2020927612351</v>
       </c>
       <c r="H98" t="n">
-        <v>9453.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,44 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9400</v>
+        <v>9450</v>
       </c>
       <c r="C99" t="n">
-        <v>9380</v>
+        <v>9460</v>
       </c>
       <c r="D99" t="n">
-        <v>9400</v>
+        <v>9460</v>
       </c>
       <c r="E99" t="n">
-        <v>9380</v>
+        <v>9450</v>
       </c>
       <c r="F99" t="n">
-        <v>38.4188</v>
+        <v>18.7288</v>
       </c>
       <c r="G99" t="n">
-        <v>9426</v>
+        <v>279.9308927612351</v>
       </c>
       <c r="H99" t="n">
-        <v>9453.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>9380</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,44 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="C100" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="D100" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="E100" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2312</v>
+        <v>0.2104651162790698</v>
       </c>
       <c r="G100" t="n">
-        <v>9429</v>
+        <v>279.9308927612351</v>
       </c>
       <c r="H100" t="n">
-        <v>9454.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>9380</v>
-      </c>
-      <c r="L100" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,42 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="C101" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="D101" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="E101" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1054</v>
+        <v>2.54823488372093</v>
       </c>
       <c r="G101" t="n">
-        <v>9428</v>
+        <v>279.9308927612351</v>
       </c>
       <c r="H101" t="n">
-        <v>9456.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,42 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9415</v>
+        <v>9445</v>
       </c>
       <c r="C102" t="n">
-        <v>9365</v>
+        <v>9445</v>
       </c>
       <c r="D102" t="n">
-        <v>9415</v>
+        <v>9445</v>
       </c>
       <c r="E102" t="n">
-        <v>9365</v>
+        <v>9445</v>
       </c>
       <c r="F102" t="n">
-        <v>494.982</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>9422</v>
+        <v>276.9308927612351</v>
       </c>
       <c r="H102" t="n">
-        <v>9455</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,42 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="C103" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="D103" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="E103" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
       </c>
       <c r="G103" t="n">
-        <v>9423.333333333334</v>
+        <v>277.0308927612351</v>
       </c>
       <c r="H103" t="n">
-        <v>9455.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9370</v>
+        <v>9445</v>
       </c>
       <c r="C104" t="n">
         <v>9445</v>
@@ -4487,33 +4012,24 @@
         <v>9445</v>
       </c>
       <c r="E104" t="n">
-        <v>9360</v>
+        <v>9445</v>
       </c>
       <c r="F104" t="n">
-        <v>48.9665</v>
+        <v>16</v>
       </c>
       <c r="G104" t="n">
-        <v>9423.666666666666</v>
+        <v>261.0308927612351</v>
       </c>
       <c r="H104" t="n">
-        <v>9455.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,42 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9370</v>
+        <v>9445</v>
       </c>
       <c r="C105" t="n">
-        <v>9350</v>
+        <v>9445</v>
       </c>
       <c r="D105" t="n">
-        <v>9370</v>
+        <v>9445</v>
       </c>
       <c r="E105" t="n">
-        <v>9350</v>
+        <v>9440</v>
       </c>
       <c r="F105" t="n">
-        <v>60</v>
+        <v>23.5539</v>
       </c>
       <c r="G105" t="n">
-        <v>9420.333333333334</v>
+        <v>261.0308927612351</v>
       </c>
       <c r="H105" t="n">
-        <v>9453.5</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,42 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="C106" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="D106" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="E106" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="F106" t="n">
-        <v>8.887</v>
+        <v>5.0951</v>
       </c>
       <c r="G106" t="n">
-        <v>9419.666666666666</v>
+        <v>261.0308927612351</v>
       </c>
       <c r="H106" t="n">
-        <v>9452.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,42 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9435</v>
+        <v>9440</v>
       </c>
       <c r="C107" t="n">
-        <v>9435</v>
+        <v>9420</v>
       </c>
       <c r="D107" t="n">
-        <v>9435</v>
+        <v>9440</v>
       </c>
       <c r="E107" t="n">
-        <v>9435</v>
+        <v>9420</v>
       </c>
       <c r="F107" t="n">
-        <v>4.717</v>
+        <v>15.3445</v>
       </c>
       <c r="G107" t="n">
-        <v>9422</v>
+        <v>245.6863927612351</v>
       </c>
       <c r="H107" t="n">
-        <v>9452.25</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,42 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9410</v>
+        <v>9425</v>
       </c>
       <c r="C108" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="D108" t="n">
-        <v>9430</v>
+        <v>9425</v>
       </c>
       <c r="E108" t="n">
-        <v>9410</v>
+        <v>9420</v>
       </c>
       <c r="F108" t="n">
-        <v>69.1491</v>
+        <v>124.1393</v>
       </c>
       <c r="G108" t="n">
-        <v>9424.666666666666</v>
+        <v>245.6863927612351</v>
       </c>
       <c r="H108" t="n">
-        <v>9451.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,44 +4178,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9430</v>
+        <v>9485</v>
       </c>
       <c r="C109" t="n">
-        <v>9435</v>
+        <v>9485</v>
       </c>
       <c r="D109" t="n">
-        <v>9435</v>
+        <v>9485</v>
       </c>
       <c r="E109" t="n">
-        <v>9370</v>
+        <v>9485</v>
       </c>
       <c r="F109" t="n">
-        <v>73.2889</v>
+        <v>0.3524</v>
       </c>
       <c r="G109" t="n">
-        <v>9423</v>
+        <v>246.0387927612351</v>
       </c>
       <c r="H109" t="n">
-        <v>9450.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="K109" t="n">
-        <v>9430</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,44 +4217,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9425</v>
+        <v>9420</v>
       </c>
       <c r="C110" t="n">
-        <v>9425</v>
+        <v>9420</v>
       </c>
       <c r="D110" t="n">
-        <v>9425</v>
+        <v>9420</v>
       </c>
       <c r="E110" t="n">
-        <v>9425</v>
+        <v>9420</v>
       </c>
       <c r="F110" t="n">
-        <v>53.2197</v>
+        <v>6.1229</v>
       </c>
       <c r="G110" t="n">
-        <v>9425.333333333334</v>
+        <v>239.9158927612351</v>
       </c>
       <c r="H110" t="n">
-        <v>9449.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>9435</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,42 +4258,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="C111" t="n">
-        <v>9435</v>
+        <v>9420</v>
       </c>
       <c r="D111" t="n">
-        <v>9435</v>
+        <v>9420</v>
       </c>
       <c r="E111" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="F111" t="n">
-        <v>197.3513</v>
+        <v>23.5437</v>
       </c>
       <c r="G111" t="n">
-        <v>9423.333333333334</v>
+        <v>239.9158927612351</v>
       </c>
       <c r="H111" t="n">
-        <v>9447.75</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,44 +4299,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="C112" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="D112" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="E112" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="F112" t="n">
-        <v>2.3124</v>
+        <v>0.3124</v>
       </c>
       <c r="G112" t="n">
-        <v>9426.666666666666</v>
+        <v>240.2282927612351</v>
       </c>
       <c r="H112" t="n">
-        <v>9447</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="K112" t="n">
-        <v>9435</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,42 +4338,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9465</v>
+        <v>9420</v>
       </c>
       <c r="C113" t="n">
-        <v>9465</v>
+        <v>9420</v>
       </c>
       <c r="D113" t="n">
-        <v>9465</v>
+        <v>9420</v>
       </c>
       <c r="E113" t="n">
-        <v>9465</v>
+        <v>9420</v>
       </c>
       <c r="F113" t="n">
-        <v>198.5186</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>9432.333333333334</v>
+        <v>236.2282927612351</v>
       </c>
       <c r="H113" t="n">
-        <v>9445.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>9490</v>
+      </c>
+      <c r="K113" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,42 +4381,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="C114" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="D114" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="E114" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>1.48</v>
       </c>
       <c r="G114" t="n">
-        <v>9438</v>
+        <v>237.7082927612351</v>
       </c>
       <c r="H114" t="n">
-        <v>9445.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,42 +4422,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="C115" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="D115" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="E115" t="n">
-        <v>9465</v>
+        <v>9490</v>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>0.2</v>
       </c>
       <c r="G115" t="n">
-        <v>9437.333333333334</v>
+        <v>237.9082927612351</v>
       </c>
       <c r="H115" t="n">
-        <v>9444.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,30 +4469,21 @@
         <v>9455</v>
       </c>
       <c r="F116" t="n">
-        <v>12.4955</v>
+        <v>11.5252</v>
       </c>
       <c r="G116" t="n">
-        <v>9436</v>
+        <v>226.3830927612351</v>
       </c>
       <c r="H116" t="n">
-        <v>9444.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,42 +4492,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9390</v>
+        <v>9450</v>
       </c>
       <c r="C117" t="n">
-        <v>9390</v>
+        <v>9450</v>
       </c>
       <c r="D117" t="n">
-        <v>9390</v>
+        <v>9450</v>
       </c>
       <c r="E117" t="n">
-        <v>9390</v>
+        <v>9450</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1</v>
+        <v>41.1624</v>
       </c>
       <c r="G117" t="n">
-        <v>9437.666666666666</v>
+        <v>185.2206927612351</v>
       </c>
       <c r="H117" t="n">
-        <v>9442.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,44 +4527,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="C118" t="n">
-        <v>9390</v>
+        <v>9440</v>
       </c>
       <c r="D118" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="E118" t="n">
-        <v>9390</v>
+        <v>9440</v>
       </c>
       <c r="F118" t="n">
-        <v>103.0295</v>
+        <v>39.4402</v>
       </c>
       <c r="G118" t="n">
-        <v>9432.333333333334</v>
+        <v>145.7804927612351</v>
       </c>
       <c r="H118" t="n">
-        <v>9441.25</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5146,44 +4562,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9390</v>
+        <v>9415</v>
       </c>
       <c r="C119" t="n">
-        <v>9415</v>
+        <v>9400</v>
       </c>
       <c r="D119" t="n">
         <v>9415</v>
       </c>
       <c r="E119" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="F119" t="n">
-        <v>4.7569</v>
+        <v>103.0295</v>
       </c>
       <c r="G119" t="n">
-        <v>9430.333333333334</v>
+        <v>42.75099276123508</v>
       </c>
       <c r="H119" t="n">
-        <v>9440</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,44 +4597,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="C120" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="D120" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="E120" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="F120" t="n">
-        <v>4.182</v>
+        <v>15</v>
       </c>
       <c r="G120" t="n">
-        <v>9436</v>
+        <v>57.75099276123508</v>
       </c>
       <c r="H120" t="n">
-        <v>9439.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9415</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,44 +4632,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="C121" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="D121" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="E121" t="n">
-        <v>9390</v>
+        <v>9400</v>
       </c>
       <c r="F121" t="n">
-        <v>81.60129999999999</v>
+        <v>28.1042</v>
       </c>
       <c r="G121" t="n">
-        <v>9433</v>
+        <v>29.64679276123508</v>
       </c>
       <c r="H121" t="n">
-        <v>9438.5</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9435</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,32 +4679,25 @@
         <v>9390</v>
       </c>
       <c r="F122" t="n">
-        <v>187.9928</v>
+        <v>11.3064</v>
       </c>
       <c r="G122" t="n">
-        <v>9430</v>
+        <v>18.34039276123508</v>
       </c>
       <c r="H122" t="n">
-        <v>9437.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="K122" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,44 +4706,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9395</v>
+        <v>9445</v>
       </c>
       <c r="C123" t="n">
-        <v>9385</v>
+        <v>9460</v>
       </c>
       <c r="D123" t="n">
-        <v>9395</v>
+        <v>9460</v>
       </c>
       <c r="E123" t="n">
-        <v>9385</v>
+        <v>9445</v>
       </c>
       <c r="F123" t="n">
-        <v>104.8939</v>
+        <v>19.97768726215645</v>
       </c>
       <c r="G123" t="n">
-        <v>9427</v>
+        <v>38.31808002339153</v>
       </c>
       <c r="H123" t="n">
-        <v>9436.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>9390</v>
       </c>
       <c r="K123" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,44 +4749,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="C124" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="D124" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="E124" t="n">
-        <v>9385</v>
+        <v>9390</v>
       </c>
       <c r="F124" t="n">
-        <v>17.8375</v>
+        <v>275.4038</v>
       </c>
       <c r="G124" t="n">
-        <v>9423.666666666666</v>
+        <v>-237.0857199766085</v>
       </c>
       <c r="H124" t="n">
-        <v>9434.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>9460</v>
       </c>
       <c r="K124" t="n">
-        <v>9385</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>9400</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,44 +4792,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="C125" t="n">
-        <v>9430</v>
+        <v>9465</v>
       </c>
       <c r="D125" t="n">
-        <v>9430</v>
+        <v>9465</v>
       </c>
       <c r="E125" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="F125" t="n">
-        <v>3.77</v>
+        <v>17.5426</v>
       </c>
       <c r="G125" t="n">
-        <v>9424</v>
+        <v>-219.5431199766085</v>
       </c>
       <c r="H125" t="n">
-        <v>9434.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>9390</v>
       </c>
       <c r="K125" t="n">
-        <v>9385</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,44 +4831,41 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9435</v>
+        <v>9415</v>
       </c>
       <c r="C126" t="n">
-        <v>9440</v>
+        <v>9415</v>
       </c>
       <c r="D126" t="n">
-        <v>9440</v>
+        <v>9415</v>
       </c>
       <c r="E126" t="n">
-        <v>9435</v>
+        <v>9415</v>
       </c>
       <c r="F126" t="n">
-        <v>70.46729999999999</v>
+        <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>9424.333333333334</v>
+        <v>-249.5431199766085</v>
       </c>
       <c r="H126" t="n">
-        <v>9434.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>9465</v>
       </c>
       <c r="K126" t="n">
-        <v>9430</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,42 +4874,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9455</v>
+        <v>9395</v>
       </c>
       <c r="C127" t="n">
-        <v>9495</v>
+        <v>9380</v>
       </c>
       <c r="D127" t="n">
-        <v>9495</v>
+        <v>9395</v>
       </c>
       <c r="E127" t="n">
-        <v>9455</v>
+        <v>9380</v>
       </c>
       <c r="F127" t="n">
-        <v>239.4349</v>
+        <v>124.1393</v>
       </c>
       <c r="G127" t="n">
-        <v>9426.333333333334</v>
+        <v>-373.6824199766085</v>
       </c>
       <c r="H127" t="n">
-        <v>9434.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,42 +4915,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9495</v>
+        <v>9400</v>
       </c>
       <c r="C128" t="n">
-        <v>9495</v>
+        <v>9380</v>
       </c>
       <c r="D128" t="n">
-        <v>9495</v>
+        <v>9400</v>
       </c>
       <c r="E128" t="n">
-        <v>9495</v>
+        <v>9380</v>
       </c>
       <c r="F128" t="n">
-        <v>50.3</v>
+        <v>38.4188</v>
       </c>
       <c r="G128" t="n">
-        <v>9428.333333333334</v>
+        <v>-373.6824199766085</v>
       </c>
       <c r="H128" t="n">
-        <v>9435.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,42 +4956,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9495</v>
+        <v>9475</v>
       </c>
       <c r="C129" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="D129" t="n">
-        <v>9495</v>
+        <v>9475</v>
       </c>
       <c r="E129" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="F129" t="n">
-        <v>30.2</v>
+        <v>0.2312</v>
       </c>
       <c r="G129" t="n">
-        <v>9430</v>
+        <v>-373.4512199766085</v>
       </c>
       <c r="H129" t="n">
-        <v>9436.25</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,42 +4997,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="C130" t="n">
-        <v>9435</v>
+        <v>9475</v>
       </c>
       <c r="D130" t="n">
-        <v>9495</v>
+        <v>9475</v>
       </c>
       <c r="E130" t="n">
-        <v>9435</v>
+        <v>9475</v>
       </c>
       <c r="F130" t="n">
-        <v>105.8105</v>
+        <v>0.1054</v>
       </c>
       <c r="G130" t="n">
-        <v>9428</v>
+        <v>-373.4512199766085</v>
       </c>
       <c r="H130" t="n">
-        <v>9435.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,42 +5038,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9495</v>
+        <v>9415</v>
       </c>
       <c r="C131" t="n">
-        <v>9495</v>
+        <v>9365</v>
       </c>
       <c r="D131" t="n">
-        <v>9495</v>
+        <v>9415</v>
       </c>
       <c r="E131" t="n">
-        <v>9495</v>
+        <v>9365</v>
       </c>
       <c r="F131" t="n">
-        <v>12.0535</v>
+        <v>494.982</v>
       </c>
       <c r="G131" t="n">
-        <v>9430.666666666666</v>
+        <v>-868.4332199766085</v>
       </c>
       <c r="H131" t="n">
-        <v>9436.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,42 +5079,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9490</v>
+        <v>9470</v>
       </c>
       <c r="C132" t="n">
-        <v>9490</v>
+        <v>9470</v>
       </c>
       <c r="D132" t="n">
-        <v>9490</v>
+        <v>9470</v>
       </c>
       <c r="E132" t="n">
-        <v>9490</v>
+        <v>9470</v>
       </c>
       <c r="F132" t="n">
-        <v>1.0537</v>
+        <v>0.1</v>
       </c>
       <c r="G132" t="n">
-        <v>9437.333333333334</v>
+        <v>-868.3332199766085</v>
       </c>
       <c r="H132" t="n">
-        <v>9436.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,42 +5120,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9435</v>
+        <v>9370</v>
       </c>
       <c r="C133" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="D133" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="E133" t="n">
-        <v>9435</v>
+        <v>9360</v>
       </c>
       <c r="F133" t="n">
-        <v>18.6896</v>
+        <v>48.9665</v>
       </c>
       <c r="G133" t="n">
-        <v>9440.333333333334</v>
+        <v>-917.2997199766085</v>
       </c>
       <c r="H133" t="n">
-        <v>9436.75</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,42 +5161,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9435</v>
+        <v>9370</v>
       </c>
       <c r="C134" t="n">
-        <v>9435</v>
+        <v>9350</v>
       </c>
       <c r="D134" t="n">
-        <v>9435</v>
+        <v>9370</v>
       </c>
       <c r="E134" t="n">
-        <v>9435</v>
+        <v>9350</v>
       </c>
       <c r="F134" t="n">
-        <v>26.28</v>
+        <v>60</v>
       </c>
       <c r="G134" t="n">
-        <v>9441.666666666666</v>
+        <v>-977.2997199766085</v>
       </c>
       <c r="H134" t="n">
-        <v>9435.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,42 +5202,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9485</v>
+        <v>9435</v>
       </c>
       <c r="C135" t="n">
         <v>9435</v>
       </c>
       <c r="D135" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="E135" t="n">
         <v>9435</v>
       </c>
       <c r="F135" t="n">
-        <v>27.9078</v>
+        <v>8.887</v>
       </c>
       <c r="G135" t="n">
-        <v>9441.666666666666</v>
+        <v>-968.4127199766085</v>
       </c>
       <c r="H135" t="n">
-        <v>9435</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5913,39 +5246,36 @@
         <v>9435</v>
       </c>
       <c r="C136" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="D136" t="n">
         <v>9435</v>
       </c>
       <c r="E136" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="F136" t="n">
-        <v>56.3546</v>
+        <v>4.717</v>
       </c>
       <c r="G136" t="n">
-        <v>9444.333333333334</v>
+        <v>-968.4127199766085</v>
       </c>
       <c r="H136" t="n">
-        <v>9434.75</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,42 +5284,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="C137" t="n">
         <v>9430</v>
       </c>
       <c r="D137" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="E137" t="n">
-        <v>9430</v>
+        <v>9410</v>
       </c>
       <c r="F137" t="n">
-        <v>70.72790000000001</v>
+        <v>69.1491</v>
       </c>
       <c r="G137" t="n">
-        <v>9447</v>
+        <v>-1037.561819976609</v>
       </c>
       <c r="H137" t="n">
-        <v>9434.5</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6001,41 +5328,36 @@
         <v>9430</v>
       </c>
       <c r="C138" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="D138" t="n">
-        <v>9430</v>
+        <v>9435</v>
       </c>
       <c r="E138" t="n">
-        <v>9430</v>
+        <v>9370</v>
       </c>
       <c r="F138" t="n">
-        <v>4.492</v>
+        <v>73.2889</v>
       </c>
       <c r="G138" t="n">
-        <v>9450</v>
+        <v>-964.2729199766086</v>
       </c>
       <c r="H138" t="n">
-        <v>9434.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>9430</v>
-      </c>
-      <c r="L138" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M138" t="inlineStr">
+        <v>9390</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,44 +5366,41 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9485</v>
+        <v>9425</v>
       </c>
       <c r="C139" t="n">
-        <v>9495</v>
+        <v>9425</v>
       </c>
       <c r="D139" t="n">
-        <v>9495</v>
+        <v>9425</v>
       </c>
       <c r="E139" t="n">
-        <v>9485</v>
+        <v>9425</v>
       </c>
       <c r="F139" t="n">
-        <v>87.4866</v>
+        <v>53.2197</v>
       </c>
       <c r="G139" t="n">
-        <v>9457.333333333334</v>
+        <v>-1017.492619976609</v>
       </c>
       <c r="H139" t="n">
-        <v>9435.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>9435</v>
       </c>
       <c r="K139" t="n">
-        <v>9430</v>
-      </c>
-      <c r="L139" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M139" t="inlineStr">
+        <v>9390</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,42 +5409,41 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9495</v>
+        <v>9430</v>
       </c>
       <c r="C140" t="n">
-        <v>9495</v>
+        <v>9435</v>
       </c>
       <c r="D140" t="n">
-        <v>9495</v>
+        <v>9435</v>
       </c>
       <c r="E140" t="n">
-        <v>9495</v>
+        <v>9430</v>
       </c>
       <c r="F140" t="n">
-        <v>77.6979</v>
+        <v>197.3513</v>
       </c>
       <c r="G140" t="n">
-        <v>9461.666666666666</v>
+        <v>-820.1413199766085</v>
       </c>
       <c r="H140" t="n">
-        <v>9436.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M140" t="inlineStr">
+        <v>9425</v>
+      </c>
+      <c r="K140" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,42 +5452,41 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9500</v>
+        <v>9465</v>
       </c>
       <c r="C141" t="n">
-        <v>9500</v>
+        <v>9465</v>
       </c>
       <c r="D141" t="n">
-        <v>9500</v>
+        <v>9465</v>
       </c>
       <c r="E141" t="n">
-        <v>9500</v>
+        <v>9465</v>
       </c>
       <c r="F141" t="n">
-        <v>6.4855</v>
+        <v>2.3124</v>
       </c>
       <c r="G141" t="n">
-        <v>9465.666666666666</v>
+        <v>-817.8289199766085</v>
       </c>
       <c r="H141" t="n">
-        <v>9437.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M141" t="inlineStr">
+        <v>9435</v>
+      </c>
+      <c r="K141" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6178,42 +5495,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="C142" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="D142" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="E142" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="F142" t="n">
-        <v>3.8094</v>
+        <v>198.5186</v>
       </c>
       <c r="G142" t="n">
-        <v>9466.333333333334</v>
+        <v>-817.8289199766085</v>
       </c>
       <c r="H142" t="n">
-        <v>9438.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,42 +5536,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="C143" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="D143" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="E143" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G143" t="n">
-        <v>9467</v>
+        <v>-817.8289199766085</v>
       </c>
       <c r="H143" t="n">
-        <v>9439.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M143" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6266,42 +5577,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9520</v>
+        <v>9465</v>
       </c>
       <c r="C144" t="n">
-        <v>9545</v>
+        <v>9465</v>
       </c>
       <c r="D144" t="n">
-        <v>9545</v>
+        <v>9465</v>
       </c>
       <c r="E144" t="n">
-        <v>9505</v>
+        <v>9465</v>
       </c>
       <c r="F144" t="n">
-        <v>30.9901</v>
+        <v>50</v>
       </c>
       <c r="G144" t="n">
-        <v>9470.666666666666</v>
+        <v>-817.8289199766085</v>
       </c>
       <c r="H144" t="n">
-        <v>9441.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,42 +5618,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9510</v>
+        <v>9455</v>
       </c>
       <c r="C145" t="n">
-        <v>9545</v>
+        <v>9455</v>
       </c>
       <c r="D145" t="n">
-        <v>9545</v>
+        <v>9455</v>
       </c>
       <c r="E145" t="n">
-        <v>9505</v>
+        <v>9455</v>
       </c>
       <c r="F145" t="n">
-        <v>104.9612</v>
+        <v>12.4955</v>
       </c>
       <c r="G145" t="n">
-        <v>9478</v>
+        <v>-830.3244199766085</v>
       </c>
       <c r="H145" t="n">
-        <v>9443.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M145" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6354,42 +5659,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9540</v>
+        <v>9390</v>
       </c>
       <c r="C146" t="n">
-        <v>9540</v>
+        <v>9390</v>
       </c>
       <c r="D146" t="n">
-        <v>9540</v>
+        <v>9390</v>
       </c>
       <c r="E146" t="n">
-        <v>9540</v>
+        <v>9390</v>
       </c>
       <c r="F146" t="n">
-        <v>87.5945</v>
+        <v>1.1</v>
       </c>
       <c r="G146" t="n">
-        <v>9481</v>
+        <v>-831.4244199766085</v>
       </c>
       <c r="H146" t="n">
-        <v>9443.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M146" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,42 +5700,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9575</v>
+        <v>9395</v>
       </c>
       <c r="C147" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="D147" t="n">
-        <v>9575</v>
+        <v>9395</v>
       </c>
       <c r="E147" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3524</v>
+        <v>103.0295</v>
       </c>
       <c r="G147" t="n">
-        <v>9486.666666666666</v>
+        <v>-831.4244199766085</v>
       </c>
       <c r="H147" t="n">
-        <v>9445.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M147" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,42 +5741,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="C148" t="n">
-        <v>9580</v>
+        <v>9415</v>
       </c>
       <c r="D148" t="n">
-        <v>9580</v>
+        <v>9415</v>
       </c>
       <c r="E148" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="F148" t="n">
-        <v>15</v>
+        <v>4.7569</v>
       </c>
       <c r="G148" t="n">
-        <v>9496.333333333334</v>
+        <v>-826.6675199766086</v>
       </c>
       <c r="H148" t="n">
-        <v>9448.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,42 +5782,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9575</v>
+        <v>9435</v>
       </c>
       <c r="C149" t="n">
-        <v>9580</v>
+        <v>9435</v>
       </c>
       <c r="D149" t="n">
-        <v>9580</v>
+        <v>9435</v>
       </c>
       <c r="E149" t="n">
-        <v>9575</v>
+        <v>9435</v>
       </c>
       <c r="F149" t="n">
-        <v>37.678</v>
+        <v>4.182</v>
       </c>
       <c r="G149" t="n">
-        <v>9506</v>
+        <v>-822.4855199766085</v>
       </c>
       <c r="H149" t="n">
-        <v>9450.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M149" t="inlineStr">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6530,42 +5823,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="C150" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="D150" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="E150" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="F150" t="n">
-        <v>58.122</v>
+        <v>81.60129999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>9515.333333333334</v>
+        <v>-904.0868199766086</v>
       </c>
       <c r="H150" t="n">
-        <v>9453.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M150" t="inlineStr">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,42 +5864,41 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="C151" t="n">
-        <v>9540</v>
+        <v>9390</v>
       </c>
       <c r="D151" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="E151" t="n">
-        <v>9540</v>
+        <v>9390</v>
       </c>
       <c r="F151" t="n">
-        <v>5.508</v>
+        <v>187.9928</v>
       </c>
       <c r="G151" t="n">
-        <v>9522.666666666666</v>
+        <v>-904.0868199766086</v>
       </c>
       <c r="H151" t="n">
-        <v>9454.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M151" t="inlineStr">
+        <v>9390</v>
+      </c>
+      <c r="K151" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6618,42 +5907,39 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9535</v>
+        <v>9395</v>
       </c>
       <c r="C152" t="n">
-        <v>9535</v>
+        <v>9385</v>
       </c>
       <c r="D152" t="n">
-        <v>9535</v>
+        <v>9395</v>
       </c>
       <c r="E152" t="n">
-        <v>9535</v>
+        <v>9385</v>
       </c>
       <c r="F152" t="n">
-        <v>11.4889</v>
+        <v>104.8939</v>
       </c>
       <c r="G152" t="n">
-        <v>9529.666666666666</v>
+        <v>-1008.980719976609</v>
       </c>
       <c r="H152" t="n">
-        <v>9457.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M152" t="inlineStr">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,42 +5948,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9535</v>
+        <v>9385</v>
       </c>
       <c r="C153" t="n">
-        <v>9530</v>
+        <v>9385</v>
       </c>
       <c r="D153" t="n">
-        <v>9535</v>
+        <v>9385</v>
       </c>
       <c r="E153" t="n">
-        <v>9530</v>
+        <v>9385</v>
       </c>
       <c r="F153" t="n">
-        <v>39.8345</v>
+        <v>17.8375</v>
       </c>
       <c r="G153" t="n">
-        <v>9536.333333333334</v>
+        <v>-1008.980719976609</v>
       </c>
       <c r="H153" t="n">
-        <v>9459.5</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M153" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6706,42 +5989,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9575</v>
+        <v>9430</v>
       </c>
       <c r="C154" t="n">
-        <v>9580</v>
+        <v>9430</v>
       </c>
       <c r="D154" t="n">
-        <v>9580</v>
+        <v>9430</v>
       </c>
       <c r="E154" t="n">
-        <v>9575</v>
+        <v>9430</v>
       </c>
       <c r="F154" t="n">
-        <v>52.2212</v>
+        <v>3.77</v>
       </c>
       <c r="G154" t="n">
-        <v>9542</v>
+        <v>-1005.210719976609</v>
       </c>
       <c r="H154" t="n">
-        <v>9461.5</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M154" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6750,42 +6030,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9580</v>
+        <v>9435</v>
       </c>
       <c r="C155" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="D155" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="E155" t="n">
-        <v>9580</v>
+        <v>9435</v>
       </c>
       <c r="F155" t="n">
-        <v>15.3019</v>
+        <v>70.46729999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>9547.666666666666</v>
+        <v>-934.7434199766086</v>
       </c>
       <c r="H155" t="n">
-        <v>9464.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M155" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,42 +6071,39 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="C156" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="D156" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="E156" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="F156" t="n">
-        <v>7.8731</v>
+        <v>239.4349</v>
       </c>
       <c r="G156" t="n">
-        <v>9553</v>
+        <v>-695.3085199766086</v>
       </c>
       <c r="H156" t="n">
-        <v>9466.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M156" t="inlineStr">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,42 +6112,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="C157" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="D157" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="E157" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="F157" t="n">
-        <v>88.1414</v>
+        <v>50.3</v>
       </c>
       <c r="G157" t="n">
-        <v>9558</v>
+        <v>-695.3085199766086</v>
       </c>
       <c r="H157" t="n">
-        <v>9469.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M157" t="inlineStr">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6882,42 +6153,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="C158" t="n">
-        <v>9590</v>
+        <v>9490</v>
       </c>
       <c r="D158" t="n">
-        <v>9590</v>
+        <v>9495</v>
       </c>
       <c r="E158" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="F158" t="n">
-        <v>116.3484</v>
+        <v>30.2</v>
       </c>
       <c r="G158" t="n">
-        <v>9563.666666666666</v>
+        <v>-725.5085199766087</v>
       </c>
       <c r="H158" t="n">
-        <v>9472.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M158" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,42 +6194,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9585</v>
+        <v>9490</v>
       </c>
       <c r="C159" t="n">
-        <v>9590</v>
+        <v>9435</v>
       </c>
       <c r="D159" t="n">
-        <v>9590</v>
+        <v>9495</v>
       </c>
       <c r="E159" t="n">
-        <v>9585</v>
+        <v>9435</v>
       </c>
       <c r="F159" t="n">
-        <v>38.8563</v>
+        <v>105.8105</v>
       </c>
       <c r="G159" t="n">
-        <v>9566.666666666666</v>
+        <v>-831.3190199766087</v>
       </c>
       <c r="H159" t="n">
-        <v>9476.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M159" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6970,42 +6235,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9585</v>
+        <v>9495</v>
       </c>
       <c r="C160" t="n">
-        <v>9515</v>
+        <v>9495</v>
       </c>
       <c r="D160" t="n">
-        <v>9585</v>
+        <v>9495</v>
       </c>
       <c r="E160" t="n">
-        <v>9515</v>
+        <v>9495</v>
       </c>
       <c r="F160" t="n">
-        <v>114.2728</v>
+        <v>12.0535</v>
       </c>
       <c r="G160" t="n">
-        <v>9564.666666666666</v>
+        <v>-819.2655199766087</v>
       </c>
       <c r="H160" t="n">
-        <v>9477</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M160" t="inlineStr">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,42 +6276,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9520</v>
+        <v>9490</v>
       </c>
       <c r="C161" t="n">
-        <v>9510</v>
+        <v>9490</v>
       </c>
       <c r="D161" t="n">
-        <v>9520</v>
+        <v>9490</v>
       </c>
       <c r="E161" t="n">
-        <v>9510</v>
+        <v>9490</v>
       </c>
       <c r="F161" t="n">
-        <v>312.2241</v>
+        <v>1.0537</v>
       </c>
       <c r="G161" t="n">
-        <v>9562.666666666666</v>
+        <v>-820.3192199766088</v>
       </c>
       <c r="H161" t="n">
-        <v>9477.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M161" t="inlineStr">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7058,42 +6317,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9560</v>
+        <v>9435</v>
       </c>
       <c r="C162" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="D162" t="n">
-        <v>9560</v>
+        <v>9435</v>
       </c>
       <c r="E162" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="F162" t="n">
-        <v>1.47</v>
+        <v>18.6896</v>
       </c>
       <c r="G162" t="n">
-        <v>9561.333333333334</v>
+        <v>-839.0088199766088</v>
       </c>
       <c r="H162" t="n">
-        <v>9480.75</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M162" t="inlineStr">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7102,42 +6358,39 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="C163" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="D163" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="E163" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="F163" t="n">
-        <v>7.821</v>
+        <v>26.28</v>
       </c>
       <c r="G163" t="n">
-        <v>9559</v>
+        <v>-839.0088199766088</v>
       </c>
       <c r="H163" t="n">
-        <v>9482</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M163" t="inlineStr">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N163" t="n">
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7146,42 +6399,39 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9575</v>
+        <v>9485</v>
       </c>
       <c r="C164" t="n">
-        <v>9530</v>
+        <v>9435</v>
       </c>
       <c r="D164" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="E164" t="n">
-        <v>9530</v>
+        <v>9435</v>
       </c>
       <c r="F164" t="n">
-        <v>54.3308</v>
+        <v>27.9078</v>
       </c>
       <c r="G164" t="n">
-        <v>9555.666666666666</v>
+        <v>-839.0088199766088</v>
       </c>
       <c r="H164" t="n">
-        <v>9483.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M164" t="inlineStr">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N164" t="n">
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7190,42 +6440,1228 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F165" t="n">
+        <v>56.3546</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-895.3634199766088</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F166" t="n">
+        <v>70.72790000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-895.3634199766088</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9430</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9430</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4.492</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-895.3634199766088</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9485</v>
+      </c>
+      <c r="F168" t="n">
+        <v>87.4866</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-807.8768199766089</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9495</v>
+      </c>
+      <c r="F169" t="n">
+        <v>77.6979</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-807.8768199766089</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6.4855</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-801.3913199766089</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9505</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.8094</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-797.5819199766089</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9505</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-797.5819199766089</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F173" t="n">
+        <v>30.9901</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-766.5918199766089</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F174" t="n">
+        <v>104.9612</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-766.5918199766089</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F175" t="n">
+        <v>87.5945</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-854.186319976609</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-853.833919976609</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F177" t="n">
+        <v>15</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-838.833919976609</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F178" t="n">
+        <v>37.678</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-838.833919976609</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F179" t="n">
+        <v>58.122</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-896.9559199766089</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F180" t="n">
+        <v>5.508</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-902.463919976609</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F181" t="n">
+        <v>11.4889</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-913.9528199766089</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F182" t="n">
+        <v>39.8345</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-953.787319976609</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F183" t="n">
+        <v>52.2212</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F184" t="n">
+        <v>15.3019</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7.8731</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F186" t="n">
+        <v>88.1414</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F187" t="n">
+        <v>116.3484</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-785.217719976609</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F188" t="n">
+        <v>38.8563</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-785.217719976609</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9515</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9515</v>
+      </c>
+      <c r="F189" t="n">
+        <v>114.2728</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-899.490519976609</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9520</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F190" t="n">
+        <v>312.2241</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1211.714619976609</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1210.244619976609</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.821</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1218.065619976609</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F193" t="n">
+        <v>54.3308</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1272.396419976609</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
         <v>9525</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C194" t="n">
         <v>9530</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D194" t="n">
         <v>9530</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E194" t="n">
         <v>9525</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F194" t="n">
         <v>37.9427</v>
       </c>
-      <c r="G165" t="n">
-        <v>9552.666666666666</v>
-      </c>
-      <c r="H165" t="n">
-        <v>9486.416666666666</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>9430</v>
-      </c>
-      <c r="M165" t="inlineStr">
+      <c r="G194" t="n">
+        <v>-1272.396419976609</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>9390</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N165" t="n">
+      <c r="M194" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9465</v>
+        <v>9655</v>
       </c>
       <c r="C2" t="n">
-        <v>9460</v>
+        <v>9670</v>
       </c>
       <c r="D2" t="n">
-        <v>9465</v>
+        <v>9670</v>
       </c>
       <c r="E2" t="n">
-        <v>9460</v>
+        <v>9655</v>
       </c>
       <c r="F2" t="n">
-        <v>14.939</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>-119.9108</v>
+        <v>9651.666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="C3" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="D3" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="E3" t="n">
-        <v>9460</v>
+        <v>9635</v>
       </c>
       <c r="F3" t="n">
-        <v>12.4246</v>
+        <v>9.522</v>
       </c>
       <c r="G3" t="n">
-        <v>-119.9108</v>
+        <v>9655</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9460</v>
+        <v>9630</v>
       </c>
       <c r="C4" t="n">
-        <v>9505</v>
+        <v>9620</v>
       </c>
       <c r="D4" t="n">
-        <v>9505</v>
+        <v>9630</v>
       </c>
       <c r="E4" t="n">
-        <v>9460</v>
+        <v>9620</v>
       </c>
       <c r="F4" t="n">
-        <v>16.0655</v>
+        <v>78.0951</v>
       </c>
       <c r="G4" t="n">
-        <v>-103.8453</v>
+        <v>9641.666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9505</v>
+        <v>9615</v>
       </c>
       <c r="C5" t="n">
-        <v>9510</v>
+        <v>9605</v>
       </c>
       <c r="D5" t="n">
-        <v>9510</v>
+        <v>9615</v>
       </c>
       <c r="E5" t="n">
-        <v>9505</v>
+        <v>9605</v>
       </c>
       <c r="F5" t="n">
-        <v>62.3306</v>
+        <v>74.1555</v>
       </c>
       <c r="G5" t="n">
-        <v>-41.5147</v>
+        <v>9620</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9500</v>
+        <v>9605</v>
       </c>
       <c r="C6" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="D6" t="n">
-        <v>9500</v>
+        <v>9605</v>
       </c>
       <c r="E6" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F6" t="n">
-        <v>86</v>
+        <v>36.1472</v>
       </c>
       <c r="G6" t="n">
-        <v>-127.5147</v>
+        <v>9608.333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9520</v>
+        <v>9590</v>
       </c>
       <c r="C7" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="D7" t="n">
-        <v>9520</v>
+        <v>9610</v>
       </c>
       <c r="E7" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="F7" t="n">
-        <v>4.788</v>
+        <v>33.6589</v>
       </c>
       <c r="G7" t="n">
-        <v>-122.7267</v>
+        <v>9573.333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9525</v>
+        <v>9600</v>
       </c>
       <c r="C8" t="n">
-        <v>9625</v>
+        <v>9600</v>
       </c>
       <c r="D8" t="n">
-        <v>9625</v>
+        <v>9600</v>
       </c>
       <c r="E8" t="n">
-        <v>9525</v>
+        <v>9600</v>
       </c>
       <c r="F8" t="n">
-        <v>531.8630271168831</v>
+        <v>14.1041</v>
       </c>
       <c r="G8" t="n">
-        <v>409.1363271168831</v>
+        <v>9571.666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9520</v>
+        <v>9590</v>
       </c>
       <c r="C9" t="n">
-        <v>9520</v>
+        <v>9510</v>
       </c>
       <c r="D9" t="n">
-        <v>9520</v>
+        <v>9590</v>
       </c>
       <c r="E9" t="n">
-        <v>9520</v>
+        <v>9510</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>16.4229</v>
       </c>
       <c r="G9" t="n">
-        <v>399.1363271168831</v>
+        <v>9541.666666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="C10" t="n">
-        <v>9525</v>
+        <v>9590</v>
       </c>
       <c r="D10" t="n">
-        <v>9525</v>
+        <v>9590</v>
       </c>
       <c r="E10" t="n">
-        <v>9515</v>
+        <v>9590</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>7.0595</v>
       </c>
       <c r="G10" t="n">
-        <v>401.1363271168831</v>
+        <v>9566.666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9530</v>
+        <v>9515</v>
       </c>
       <c r="C11" t="n">
-        <v>9530</v>
+        <v>9515</v>
       </c>
       <c r="D11" t="n">
-        <v>9535</v>
+        <v>9515</v>
       </c>
       <c r="E11" t="n">
-        <v>9530</v>
+        <v>9515</v>
       </c>
       <c r="F11" t="n">
-        <v>20.0016</v>
+        <v>28.0906</v>
       </c>
       <c r="G11" t="n">
-        <v>421.1379271168831</v>
+        <v>9538.333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>9515</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9515</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9515</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.714</v>
+      </c>
+      <c r="G12" t="n">
         <v>9540</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9540</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.6889</v>
-      </c>
-      <c r="G12" t="n">
-        <v>422.8268271168831</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9535</v>
+        <v>9515</v>
       </c>
       <c r="C13" t="n">
-        <v>9540</v>
+        <v>9515</v>
       </c>
       <c r="D13" t="n">
-        <v>9540</v>
+        <v>9515</v>
       </c>
       <c r="E13" t="n">
-        <v>9535</v>
+        <v>9515</v>
       </c>
       <c r="F13" t="n">
-        <v>21.1475</v>
+        <v>91.5192</v>
       </c>
       <c r="G13" t="n">
-        <v>422.8268271168831</v>
+        <v>9515</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="C14" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="D14" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="E14" t="n">
-        <v>9535</v>
+        <v>9475</v>
       </c>
       <c r="F14" t="n">
-        <v>50.0524</v>
+        <v>266.0756</v>
       </c>
       <c r="G14" t="n">
-        <v>372.7744271168831</v>
+        <v>9503.333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9540</v>
+        <v>9475</v>
       </c>
       <c r="C15" t="n">
-        <v>9470</v>
+        <v>9425</v>
       </c>
       <c r="D15" t="n">
-        <v>9540</v>
+        <v>9475</v>
       </c>
       <c r="E15" t="n">
-        <v>9470</v>
+        <v>9425</v>
       </c>
       <c r="F15" t="n">
-        <v>88.78879999999999</v>
+        <v>291.8799</v>
       </c>
       <c r="G15" t="n">
-        <v>283.9856271168832</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9485</v>
+        <v>9445</v>
       </c>
       <c r="C16" t="n">
-        <v>9480</v>
+        <v>9495</v>
       </c>
       <c r="D16" t="n">
-        <v>9485</v>
+        <v>9495</v>
       </c>
       <c r="E16" t="n">
-        <v>9480</v>
+        <v>9430</v>
       </c>
       <c r="F16" t="n">
-        <v>75.21550000000001</v>
+        <v>37.0776</v>
       </c>
       <c r="G16" t="n">
-        <v>359.2011271168832</v>
+        <v>9466.666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9460</v>
+        <v>9495</v>
       </c>
       <c r="C17" t="n">
-        <v>9460</v>
+        <v>9505</v>
       </c>
       <c r="D17" t="n">
-        <v>9460</v>
+        <v>9505</v>
       </c>
       <c r="E17" t="n">
-        <v>9460</v>
+        <v>9495</v>
       </c>
       <c r="F17" t="n">
-        <v>53.9241</v>
+        <v>145.8052</v>
       </c>
       <c r="G17" t="n">
-        <v>305.2770271168832</v>
+        <v>9475</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="C18" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="D18" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="E18" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="F18" t="n">
-        <v>51.2279</v>
+        <v>62.8417</v>
       </c>
       <c r="G18" t="n">
-        <v>254.0491271168832</v>
+        <v>9475</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9530</v>
+        <v>9420</v>
       </c>
       <c r="C19" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="D19" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="E19" t="n">
-        <v>9530</v>
+        <v>9420</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>61.7789</v>
       </c>
       <c r="G19" t="n">
-        <v>264.0491271168831</v>
+        <v>9456.666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="C20" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="D20" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="E20" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="F20" t="n">
-        <v>10.49317943336831</v>
+        <v>2.3124</v>
       </c>
       <c r="G20" t="n">
-        <v>264.0491271168831</v>
+        <v>9435</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9530</v>
+        <v>9425</v>
       </c>
       <c r="C21" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="D21" t="n">
-        <v>9530</v>
+        <v>9425</v>
       </c>
       <c r="E21" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="F21" t="n">
-        <v>10.5825</v>
+        <v>7.3468</v>
       </c>
       <c r="G21" t="n">
-        <v>253.4666271168831</v>
+        <v>9433.333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9505</v>
+        <v>9425</v>
       </c>
       <c r="C22" t="n">
-        <v>9530</v>
+        <v>9420</v>
       </c>
       <c r="D22" t="n">
-        <v>9530</v>
+        <v>9425</v>
       </c>
       <c r="E22" t="n">
-        <v>9505</v>
+        <v>9420</v>
       </c>
       <c r="F22" t="n">
-        <v>52.95232056663169</v>
+        <v>59.514</v>
       </c>
       <c r="G22" t="n">
-        <v>306.4189476835148</v>
+        <v>9426.666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9540</v>
+        <v>9410</v>
       </c>
       <c r="C23" t="n">
-        <v>9570</v>
+        <v>9410</v>
       </c>
       <c r="D23" t="n">
-        <v>9570</v>
+        <v>9410</v>
       </c>
       <c r="E23" t="n">
-        <v>9540</v>
+        <v>9410</v>
       </c>
       <c r="F23" t="n">
-        <v>423.2412</v>
+        <v>0.8461</v>
       </c>
       <c r="G23" t="n">
-        <v>729.6601476835149</v>
+        <v>9416.666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9570</v>
+        <v>9370</v>
       </c>
       <c r="C24" t="n">
-        <v>9590</v>
+        <v>9370</v>
       </c>
       <c r="D24" t="n">
-        <v>9590</v>
+        <v>9370</v>
       </c>
       <c r="E24" t="n">
-        <v>9570</v>
+        <v>9370</v>
       </c>
       <c r="F24" t="n">
-        <v>407.5558</v>
+        <v>6.6318</v>
       </c>
       <c r="G24" t="n">
-        <v>1137.215947683515</v>
+        <v>9400</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9590</v>
+        <v>9400</v>
       </c>
       <c r="C25" t="n">
-        <v>9590</v>
+        <v>9400</v>
       </c>
       <c r="D25" t="n">
-        <v>9590</v>
+        <v>9400</v>
       </c>
       <c r="E25" t="n">
-        <v>9590</v>
+        <v>9400</v>
       </c>
       <c r="F25" t="n">
-        <v>7.5946</v>
+        <v>17.5462</v>
       </c>
       <c r="G25" t="n">
-        <v>1137.215947683515</v>
+        <v>9393.333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="C26" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="D26" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="E26" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="F26" t="n">
-        <v>5.205622071837585</v>
+        <v>32.4538</v>
       </c>
       <c r="G26" t="n">
-        <v>1142.421569755352</v>
+        <v>9390</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9605</v>
+        <v>9405</v>
       </c>
       <c r="C27" t="n">
-        <v>9610</v>
+        <v>9400</v>
       </c>
       <c r="D27" t="n">
-        <v>9610</v>
+        <v>9405</v>
       </c>
       <c r="E27" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3585</v>
+        <v>55.0324</v>
       </c>
       <c r="G27" t="n">
-        <v>1454.780069755353</v>
+        <v>9400</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="C28" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="D28" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="E28" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="F28" t="n">
-        <v>39.5719</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>1415.208169755353</v>
+        <v>9400</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="C29" t="n">
-        <v>9610</v>
+        <v>9430</v>
       </c>
       <c r="D29" t="n">
-        <v>9610</v>
+        <v>9430</v>
       </c>
       <c r="E29" t="n">
-        <v>9605</v>
+        <v>9400</v>
       </c>
       <c r="F29" t="n">
-        <v>48.69947792816242</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>1463.907647683515</v>
+        <v>9410</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9620</v>
+        <v>9435</v>
       </c>
       <c r="C30" t="n">
-        <v>9620</v>
+        <v>9435</v>
       </c>
       <c r="D30" t="n">
-        <v>9620</v>
+        <v>9435</v>
       </c>
       <c r="E30" t="n">
-        <v>9620</v>
+        <v>9435</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>1503.907647683515</v>
+        <v>9421.666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="C31" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="D31" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="E31" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1441450777202073</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>1504.051792761235</v>
+        <v>9441.666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="C32" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="D32" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="E32" t="n">
-        <v>9650</v>
+        <v>9460</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>11.7485</v>
       </c>
       <c r="G32" t="n">
-        <v>1504.051792761235</v>
+        <v>9451.666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9625</v>
+        <v>9470</v>
       </c>
       <c r="C33" t="n">
-        <v>9580</v>
+        <v>9470</v>
       </c>
       <c r="D33" t="n">
-        <v>9625</v>
+        <v>9505</v>
       </c>
       <c r="E33" t="n">
-        <v>9580</v>
+        <v>9470</v>
       </c>
       <c r="F33" t="n">
-        <v>105</v>
+        <v>18.9484</v>
       </c>
       <c r="G33" t="n">
-        <v>1399.051792761235</v>
+        <v>9463.333333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9605</v>
+        <v>9475</v>
       </c>
       <c r="C34" t="n">
-        <v>9600</v>
+        <v>9475</v>
       </c>
       <c r="D34" t="n">
-        <v>9605</v>
+        <v>9475</v>
       </c>
       <c r="E34" t="n">
-        <v>9600</v>
+        <v>9475</v>
       </c>
       <c r="F34" t="n">
-        <v>48.1268</v>
+        <v>9.8353</v>
       </c>
       <c r="G34" t="n">
-        <v>1447.178592761235</v>
+        <v>9468.333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9600</v>
+        <v>9470</v>
       </c>
       <c r="C35" t="n">
-        <v>9600</v>
+        <v>9470</v>
       </c>
       <c r="D35" t="n">
-        <v>9600</v>
+        <v>9470</v>
       </c>
       <c r="E35" t="n">
-        <v>9600</v>
+        <v>9470</v>
       </c>
       <c r="F35" t="n">
-        <v>34.1866</v>
+        <v>5.1064</v>
       </c>
       <c r="G35" t="n">
-        <v>1447.178592761235</v>
+        <v>9471.666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9600</v>
+        <v>9505</v>
       </c>
       <c r="C36" t="n">
-        <v>9600</v>
+        <v>9505</v>
       </c>
       <c r="D36" t="n">
-        <v>9600</v>
+        <v>9505</v>
       </c>
       <c r="E36" t="n">
-        <v>9600</v>
+        <v>9505</v>
       </c>
       <c r="F36" t="n">
-        <v>2.6866</v>
+        <v>0.3124</v>
       </c>
       <c r="G36" t="n">
-        <v>1447.178592761235</v>
+        <v>9483.333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9645</v>
+        <v>9500</v>
       </c>
       <c r="C37" t="n">
-        <v>9645</v>
+        <v>9500</v>
       </c>
       <c r="D37" t="n">
-        <v>9645</v>
+        <v>9500</v>
       </c>
       <c r="E37" t="n">
-        <v>9645</v>
+        <v>9500</v>
       </c>
       <c r="F37" t="n">
-        <v>22.8886</v>
+        <v>14.3753</v>
       </c>
       <c r="G37" t="n">
-        <v>1470.067192761235</v>
+        <v>9491.666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9615</v>
+        <v>9500</v>
       </c>
       <c r="C38" t="n">
-        <v>9645</v>
+        <v>9520</v>
       </c>
       <c r="D38" t="n">
-        <v>9645</v>
+        <v>9520</v>
       </c>
       <c r="E38" t="n">
-        <v>9615</v>
+        <v>9500</v>
       </c>
       <c r="F38" t="n">
-        <v>10.9326</v>
+        <v>80.7428</v>
       </c>
       <c r="G38" t="n">
-        <v>1470.067192761235</v>
+        <v>9508.333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9640</v>
+        <v>9520</v>
       </c>
       <c r="C39" t="n">
-        <v>9640</v>
+        <v>9510</v>
       </c>
       <c r="D39" t="n">
-        <v>9640</v>
+        <v>9570</v>
       </c>
       <c r="E39" t="n">
-        <v>9640</v>
+        <v>9510</v>
       </c>
       <c r="F39" t="n">
-        <v>6.9285</v>
+        <v>272.989</v>
       </c>
       <c r="G39" t="n">
-        <v>1463.138692761235</v>
+        <v>9510</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9630</v>
+        <v>9510</v>
       </c>
       <c r="C40" t="n">
-        <v>9630</v>
+        <v>9535</v>
       </c>
       <c r="D40" t="n">
-        <v>9630</v>
+        <v>9535</v>
       </c>
       <c r="E40" t="n">
-        <v>9630</v>
+        <v>9510</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>82.97799999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>1448.138692761235</v>
+        <v>9521.666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9615</v>
+        <v>9530</v>
       </c>
       <c r="C41" t="n">
-        <v>9605</v>
+        <v>9510</v>
       </c>
       <c r="D41" t="n">
-        <v>9615</v>
+        <v>9535</v>
       </c>
       <c r="E41" t="n">
-        <v>9605</v>
+        <v>9510</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>462.9327</v>
       </c>
       <c r="G41" t="n">
-        <v>1348.138692761235</v>
+        <v>9518.333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9610</v>
+        <v>9510</v>
       </c>
       <c r="C42" t="n">
-        <v>9625</v>
+        <v>9510</v>
       </c>
       <c r="D42" t="n">
-        <v>9625</v>
+        <v>9510</v>
       </c>
       <c r="E42" t="n">
-        <v>9610</v>
+        <v>9510</v>
       </c>
       <c r="F42" t="n">
-        <v>22.4112</v>
+        <v>70</v>
       </c>
       <c r="G42" t="n">
-        <v>1370.549892761235</v>
+        <v>9518.333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9625</v>
+        <v>9510</v>
       </c>
       <c r="C43" t="n">
-        <v>9660</v>
+        <v>9440</v>
       </c>
       <c r="D43" t="n">
-        <v>9660</v>
+        <v>9510</v>
       </c>
       <c r="E43" t="n">
-        <v>9625</v>
+        <v>9440</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>64.0646</v>
       </c>
       <c r="G43" t="n">
-        <v>1381.549892761235</v>
+        <v>9486.666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9655</v>
+        <v>9490</v>
       </c>
       <c r="C44" t="n">
-        <v>9670</v>
+        <v>9490</v>
       </c>
       <c r="D44" t="n">
-        <v>9670</v>
+        <v>9490</v>
       </c>
       <c r="E44" t="n">
-        <v>9655</v>
+        <v>9490</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>3.9383</v>
       </c>
       <c r="G44" t="n">
-        <v>1481.549892761235</v>
+        <v>9480</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9635</v>
+        <v>9490</v>
       </c>
       <c r="C45" t="n">
-        <v>9635</v>
+        <v>9490</v>
       </c>
       <c r="D45" t="n">
-        <v>9635</v>
+        <v>9490</v>
       </c>
       <c r="E45" t="n">
-        <v>9635</v>
+        <v>9490</v>
       </c>
       <c r="F45" t="n">
-        <v>9.522</v>
+        <v>11.159</v>
       </c>
       <c r="G45" t="n">
-        <v>1472.027892761235</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9630</v>
+        <v>9500</v>
       </c>
       <c r="C46" t="n">
-        <v>9620</v>
+        <v>9490</v>
       </c>
       <c r="D46" t="n">
-        <v>9630</v>
+        <v>9500</v>
       </c>
       <c r="E46" t="n">
-        <v>9620</v>
+        <v>9490</v>
       </c>
       <c r="F46" t="n">
-        <v>78.0951</v>
+        <v>49.2068</v>
       </c>
       <c r="G46" t="n">
-        <v>1393.932792761235</v>
+        <v>9490</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9615</v>
+        <v>9465</v>
       </c>
       <c r="C47" t="n">
-        <v>9605</v>
+        <v>9460</v>
       </c>
       <c r="D47" t="n">
-        <v>9615</v>
+        <v>9465</v>
       </c>
       <c r="E47" t="n">
-        <v>9605</v>
+        <v>9460</v>
       </c>
       <c r="F47" t="n">
-        <v>74.1555</v>
+        <v>15.4439</v>
       </c>
       <c r="G47" t="n">
-        <v>1319.777292761235</v>
+        <v>9480</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9605</v>
+        <v>9455</v>
       </c>
       <c r="C48" t="n">
-        <v>9600</v>
+        <v>9455</v>
       </c>
       <c r="D48" t="n">
-        <v>9605</v>
+        <v>9455</v>
       </c>
       <c r="E48" t="n">
-        <v>9600</v>
+        <v>9455</v>
       </c>
       <c r="F48" t="n">
-        <v>36.1472</v>
+        <v>22.2778</v>
       </c>
       <c r="G48" t="n">
-        <v>1283.630092761235</v>
+        <v>9468.333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9590</v>
+        <v>9455</v>
       </c>
       <c r="C49" t="n">
-        <v>9515</v>
+        <v>9455</v>
       </c>
       <c r="D49" t="n">
-        <v>9610</v>
+        <v>9455</v>
       </c>
       <c r="E49" t="n">
-        <v>9515</v>
+        <v>9455</v>
       </c>
       <c r="F49" t="n">
-        <v>33.6589</v>
+        <v>2.4893</v>
       </c>
       <c r="G49" t="n">
-        <v>1249.971192761235</v>
+        <v>9456.666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9600</v>
+        <v>9455</v>
       </c>
       <c r="C50" t="n">
-        <v>9600</v>
+        <v>9460</v>
       </c>
       <c r="D50" t="n">
-        <v>9600</v>
+        <v>9460</v>
       </c>
       <c r="E50" t="n">
-        <v>9600</v>
+        <v>9455</v>
       </c>
       <c r="F50" t="n">
-        <v>14.1041</v>
+        <v>31.3473</v>
       </c>
       <c r="G50" t="n">
-        <v>1264.075292761235</v>
+        <v>9456.666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="C51" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="D51" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="E51" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="F51" t="n">
-        <v>16.4229</v>
+        <v>198.3543</v>
       </c>
       <c r="G51" t="n">
-        <v>1247.652392761235</v>
+        <v>9458.333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="C52" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="D52" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="E52" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="F52" t="n">
-        <v>7.0595</v>
+        <v>38.3682</v>
       </c>
       <c r="G52" t="n">
-        <v>1254.711892761235</v>
+        <v>9460</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="C53" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="D53" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="E53" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="F53" t="n">
-        <v>28.0906</v>
+        <v>8.9984</v>
       </c>
       <c r="G53" t="n">
-        <v>1226.621292761235</v>
+        <v>9460</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="C54" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="D54" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="E54" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="F54" t="n">
-        <v>19.714</v>
+        <v>3.018</v>
       </c>
       <c r="G54" t="n">
-        <v>1226.621292761235</v>
+        <v>9456.666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="C55" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="D55" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="E55" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="F55" t="n">
-        <v>91.5192</v>
+        <v>16.982</v>
       </c>
       <c r="G55" t="n">
-        <v>1226.621292761235</v>
+        <v>9453.333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9480</v>
+        <v>9450</v>
       </c>
       <c r="C56" t="n">
-        <v>9480</v>
+        <v>9450</v>
       </c>
       <c r="D56" t="n">
-        <v>9480</v>
+        <v>9450</v>
       </c>
       <c r="E56" t="n">
-        <v>9475</v>
+        <v>9450</v>
       </c>
       <c r="F56" t="n">
-        <v>266.0756</v>
+        <v>3.47</v>
       </c>
       <c r="G56" t="n">
-        <v>960.5456927612353</v>
+        <v>9450</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9475</v>
+        <v>9450</v>
       </c>
       <c r="C57" t="n">
-        <v>9425</v>
+        <v>9460</v>
       </c>
       <c r="D57" t="n">
-        <v>9475</v>
+        <v>9460</v>
       </c>
       <c r="E57" t="n">
-        <v>9425</v>
+        <v>9450</v>
       </c>
       <c r="F57" t="n">
-        <v>291.8799</v>
+        <v>18.7288</v>
       </c>
       <c r="G57" t="n">
-        <v>668.6657927612353</v>
+        <v>9453.333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9445</v>
+        <v>9460</v>
       </c>
       <c r="C58" t="n">
-        <v>9495</v>
+        <v>9460</v>
       </c>
       <c r="D58" t="n">
-        <v>9495</v>
+        <v>9460</v>
       </c>
       <c r="E58" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="F58" t="n">
-        <v>37.0776</v>
+        <v>0.2104651162790698</v>
       </c>
       <c r="G58" t="n">
-        <v>705.7433927612352</v>
+        <v>9456.666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9495</v>
+        <v>9460</v>
       </c>
       <c r="C59" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="D59" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="E59" t="n">
-        <v>9495</v>
+        <v>9460</v>
       </c>
       <c r="F59" t="n">
-        <v>145.8052</v>
+        <v>2.54823488372093</v>
       </c>
       <c r="G59" t="n">
-        <v>851.5485927612352</v>
+        <v>9460</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="C60" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="D60" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="E60" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="F60" t="n">
-        <v>62.8417</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>788.7068927612352</v>
+        <v>9455</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9420</v>
+        <v>9530</v>
       </c>
       <c r="C61" t="n">
-        <v>9440</v>
+        <v>9530</v>
       </c>
       <c r="D61" t="n">
-        <v>9440</v>
+        <v>9530</v>
       </c>
       <c r="E61" t="n">
-        <v>9420</v>
+        <v>9530</v>
       </c>
       <c r="F61" t="n">
-        <v>61.7789</v>
+        <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>850.4857927612352</v>
+        <v>9478.333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="C62" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="D62" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="E62" t="n">
-        <v>9440</v>
+        <v>9445</v>
       </c>
       <c r="F62" t="n">
-        <v>2.3124</v>
+        <v>16</v>
       </c>
       <c r="G62" t="n">
-        <v>850.4857927612352</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="C63" t="n">
-        <v>9420</v>
+        <v>9445</v>
       </c>
       <c r="D63" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="E63" t="n">
-        <v>9420</v>
+        <v>9440</v>
       </c>
       <c r="F63" t="n">
-        <v>7.3468</v>
+        <v>23.5539</v>
       </c>
       <c r="G63" t="n">
-        <v>843.1389927612352</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="C64" t="n">
-        <v>9420</v>
+        <v>9445</v>
       </c>
       <c r="D64" t="n">
-        <v>9425</v>
+        <v>9445</v>
       </c>
       <c r="E64" t="n">
-        <v>9420</v>
+        <v>9445</v>
       </c>
       <c r="F64" t="n">
-        <v>59.514</v>
+        <v>5.0951</v>
       </c>
       <c r="G64" t="n">
-        <v>843.1389927612352</v>
+        <v>9445</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9410</v>
+        <v>9440</v>
       </c>
       <c r="C65" t="n">
-        <v>9410</v>
+        <v>9420</v>
       </c>
       <c r="D65" t="n">
-        <v>9410</v>
+        <v>9440</v>
       </c>
       <c r="E65" t="n">
-        <v>9410</v>
+        <v>9420</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8461</v>
+        <v>15.3445</v>
       </c>
       <c r="G65" t="n">
-        <v>842.2928927612352</v>
+        <v>9436.666666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9370</v>
+        <v>9425</v>
       </c>
       <c r="C66" t="n">
-        <v>9370</v>
+        <v>9420</v>
       </c>
       <c r="D66" t="n">
-        <v>9370</v>
+        <v>9425</v>
       </c>
       <c r="E66" t="n">
-        <v>9370</v>
+        <v>9420</v>
       </c>
       <c r="F66" t="n">
-        <v>6.6318</v>
+        <v>124.1393</v>
       </c>
       <c r="G66" t="n">
-        <v>835.6610927612352</v>
+        <v>9428.333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9400</v>
+        <v>9485</v>
       </c>
       <c r="C67" t="n">
-        <v>9400</v>
+        <v>9485</v>
       </c>
       <c r="D67" t="n">
-        <v>9400</v>
+        <v>9485</v>
       </c>
       <c r="E67" t="n">
-        <v>9400</v>
+        <v>9485</v>
       </c>
       <c r="F67" t="n">
-        <v>17.5462</v>
+        <v>0.3524</v>
       </c>
       <c r="G67" t="n">
-        <v>853.2072927612352</v>
+        <v>9441.666666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="C68" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="D68" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="E68" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="F68" t="n">
-        <v>32.4538</v>
+        <v>6.1229</v>
       </c>
       <c r="G68" t="n">
-        <v>853.2072927612352</v>
+        <v>9441.666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9405</v>
+        <v>9420</v>
       </c>
       <c r="C69" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="D69" t="n">
-        <v>9405</v>
+        <v>9420</v>
       </c>
       <c r="E69" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="F69" t="n">
-        <v>55.0324</v>
+        <v>23.5437</v>
       </c>
       <c r="G69" t="n">
-        <v>853.2072927612352</v>
+        <v>9441.666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="C70" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="D70" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="E70" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>0.3124</v>
       </c>
       <c r="G70" t="n">
-        <v>853.2072927612352</v>
+        <v>9443.333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="C71" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="D71" t="n">
-        <v>9430</v>
+        <v>9420</v>
       </c>
       <c r="E71" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>853.3072927612352</v>
+        <v>9443.333333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="C72" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="D72" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="E72" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>1.48</v>
       </c>
       <c r="G72" t="n">
-        <v>873.3072927612352</v>
+        <v>9446.666666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9460</v>
+        <v>9490</v>
       </c>
       <c r="C73" t="n">
-        <v>9460</v>
+        <v>9490</v>
       </c>
       <c r="D73" t="n">
-        <v>9460</v>
+        <v>9490</v>
       </c>
       <c r="E73" t="n">
-        <v>9460</v>
+        <v>9490</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="G73" t="n">
-        <v>893.3072927612352</v>
+        <v>9446.666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="C74" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="D74" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="E74" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="F74" t="n">
-        <v>11.7485</v>
+        <v>11.5252</v>
       </c>
       <c r="G74" t="n">
-        <v>893.3072927612352</v>
+        <v>9458.333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="C75" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="D75" t="n">
-        <v>9505</v>
+        <v>9450</v>
       </c>
       <c r="E75" t="n">
-        <v>9470</v>
+        <v>9450</v>
       </c>
       <c r="F75" t="n">
-        <v>18.9484</v>
+        <v>41.1624</v>
       </c>
       <c r="G75" t="n">
-        <v>912.2556927612352</v>
+        <v>9465</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9475</v>
+        <v>9450</v>
       </c>
       <c r="C76" t="n">
-        <v>9475</v>
+        <v>9440</v>
       </c>
       <c r="D76" t="n">
-        <v>9475</v>
+        <v>9450</v>
       </c>
       <c r="E76" t="n">
-        <v>9475</v>
+        <v>9440</v>
       </c>
       <c r="F76" t="n">
-        <v>9.8353</v>
+        <v>39.4402</v>
       </c>
       <c r="G76" t="n">
-        <v>922.0909927612352</v>
+        <v>9448.333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9470</v>
+        <v>9415</v>
       </c>
       <c r="C77" t="n">
-        <v>9470</v>
+        <v>9400</v>
       </c>
       <c r="D77" t="n">
-        <v>9470</v>
+        <v>9415</v>
       </c>
       <c r="E77" t="n">
-        <v>9470</v>
+        <v>9400</v>
       </c>
       <c r="F77" t="n">
-        <v>5.1064</v>
+        <v>103.0295</v>
       </c>
       <c r="G77" t="n">
-        <v>916.9845927612351</v>
+        <v>9430</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9505</v>
+        <v>9445</v>
       </c>
       <c r="C78" t="n">
-        <v>9505</v>
+        <v>9445</v>
       </c>
       <c r="D78" t="n">
-        <v>9505</v>
+        <v>9445</v>
       </c>
       <c r="E78" t="n">
-        <v>9505</v>
+        <v>9445</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3124</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>917.2969927612352</v>
+        <v>9428.333333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="C79" t="n">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="D79" t="n">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E79" t="n">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F79" t="n">
-        <v>14.3753</v>
+        <v>28.1042</v>
       </c>
       <c r="G79" t="n">
-        <v>902.9216927612351</v>
+        <v>9415</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9500</v>
+        <v>9390</v>
       </c>
       <c r="C80" t="n">
-        <v>9520</v>
+        <v>9390</v>
       </c>
       <c r="D80" t="n">
-        <v>9520</v>
+        <v>9390</v>
       </c>
       <c r="E80" t="n">
-        <v>9500</v>
+        <v>9390</v>
       </c>
       <c r="F80" t="n">
-        <v>80.7428</v>
+        <v>11.3064</v>
       </c>
       <c r="G80" t="n">
-        <v>983.6644927612351</v>
+        <v>9411.666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9520</v>
+        <v>9445</v>
       </c>
       <c r="C81" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="D81" t="n">
-        <v>9570</v>
+        <v>9460</v>
       </c>
       <c r="E81" t="n">
-        <v>9510</v>
+        <v>9445</v>
       </c>
       <c r="F81" t="n">
-        <v>272.989</v>
+        <v>19.97768726215645</v>
       </c>
       <c r="G81" t="n">
-        <v>710.6754927612351</v>
+        <v>9416.666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9510</v>
+        <v>9390</v>
       </c>
       <c r="C82" t="n">
-        <v>9535</v>
+        <v>9390</v>
       </c>
       <c r="D82" t="n">
-        <v>9535</v>
+        <v>9390</v>
       </c>
       <c r="E82" t="n">
-        <v>9510</v>
+        <v>9390</v>
       </c>
       <c r="F82" t="n">
-        <v>82.97799999999999</v>
+        <v>275.4038</v>
       </c>
       <c r="G82" t="n">
-        <v>793.653492761235</v>
+        <v>9413.333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="C83" t="n">
-        <v>9510</v>
+        <v>9465</v>
       </c>
       <c r="D83" t="n">
-        <v>9535</v>
+        <v>9465</v>
       </c>
       <c r="E83" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="F83" t="n">
-        <v>462.9327</v>
+        <v>17.5426</v>
       </c>
       <c r="G83" t="n">
-        <v>330.720792761235</v>
+        <v>9438.333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9510</v>
+        <v>9415</v>
       </c>
       <c r="C84" t="n">
-        <v>9510</v>
+        <v>9415</v>
       </c>
       <c r="D84" t="n">
-        <v>9510</v>
+        <v>9415</v>
       </c>
       <c r="E84" t="n">
-        <v>9510</v>
+        <v>9415</v>
       </c>
       <c r="F84" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G84" t="n">
-        <v>330.720792761235</v>
+        <v>9423.333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9510</v>
+        <v>9395</v>
       </c>
       <c r="C85" t="n">
-        <v>9440</v>
+        <v>9380</v>
       </c>
       <c r="D85" t="n">
-        <v>9510</v>
+        <v>9395</v>
       </c>
       <c r="E85" t="n">
-        <v>9440</v>
+        <v>9380</v>
       </c>
       <c r="F85" t="n">
-        <v>64.0646</v>
+        <v>124.1393</v>
       </c>
       <c r="G85" t="n">
-        <v>266.656192761235</v>
+        <v>9420</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9490</v>
+        <v>9400</v>
       </c>
       <c r="C86" t="n">
-        <v>9490</v>
+        <v>9380</v>
       </c>
       <c r="D86" t="n">
-        <v>9490</v>
+        <v>9400</v>
       </c>
       <c r="E86" t="n">
-        <v>9490</v>
+        <v>9380</v>
       </c>
       <c r="F86" t="n">
-        <v>3.9383</v>
+        <v>38.4188</v>
       </c>
       <c r="G86" t="n">
-        <v>270.5944927612351</v>
+        <v>9391.666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="C87" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="D87" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="E87" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="F87" t="n">
-        <v>11.159</v>
+        <v>0.2312</v>
       </c>
       <c r="G87" t="n">
-        <v>270.5944927612351</v>
+        <v>9411.666666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="C88" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="D88" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="E88" t="n">
-        <v>9490</v>
+        <v>9475</v>
       </c>
       <c r="F88" t="n">
-        <v>49.2068</v>
+        <v>0.1054</v>
       </c>
       <c r="G88" t="n">
-        <v>270.5944927612351</v>
+        <v>9443.333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9465</v>
+        <v>9415</v>
       </c>
       <c r="C89" t="n">
-        <v>9460</v>
+        <v>9365</v>
       </c>
       <c r="D89" t="n">
-        <v>9465</v>
+        <v>9415</v>
       </c>
       <c r="E89" t="n">
-        <v>9460</v>
+        <v>9365</v>
       </c>
       <c r="F89" t="n">
-        <v>15.4439</v>
+        <v>494.982</v>
       </c>
       <c r="G89" t="n">
-        <v>255.1505927612351</v>
+        <v>9438.333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9455</v>
+        <v>9470</v>
       </c>
       <c r="C90" t="n">
-        <v>9455</v>
+        <v>9470</v>
       </c>
       <c r="D90" t="n">
-        <v>9455</v>
+        <v>9470</v>
       </c>
       <c r="E90" t="n">
-        <v>9455</v>
+        <v>9470</v>
       </c>
       <c r="F90" t="n">
-        <v>22.2778</v>
+        <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>232.8727927612351</v>
+        <v>9436.666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9455</v>
+        <v>9370</v>
       </c>
       <c r="C91" t="n">
-        <v>9455</v>
+        <v>9445</v>
       </c>
       <c r="D91" t="n">
-        <v>9455</v>
+        <v>9445</v>
       </c>
       <c r="E91" t="n">
-        <v>9455</v>
+        <v>9360</v>
       </c>
       <c r="F91" t="n">
-        <v>2.4893</v>
+        <v>48.9665</v>
       </c>
       <c r="G91" t="n">
-        <v>232.8727927612351</v>
+        <v>9426.666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9455</v>
+        <v>9370</v>
       </c>
       <c r="C92" t="n">
-        <v>9460</v>
+        <v>9350</v>
       </c>
       <c r="D92" t="n">
-        <v>9460</v>
+        <v>9370</v>
       </c>
       <c r="E92" t="n">
-        <v>9455</v>
+        <v>9350</v>
       </c>
       <c r="F92" t="n">
-        <v>31.3473</v>
+        <v>60</v>
       </c>
       <c r="G92" t="n">
-        <v>264.2200927612351</v>
+        <v>9421.666666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="C93" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="D93" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="E93" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="F93" t="n">
-        <v>198.3543</v>
+        <v>8.887</v>
       </c>
       <c r="G93" t="n">
-        <v>264.2200927612351</v>
+        <v>9410</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="C94" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="D94" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="E94" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="F94" t="n">
-        <v>38.3682</v>
+        <v>4.717</v>
       </c>
       <c r="G94" t="n">
-        <v>264.2200927612351</v>
+        <v>9406.666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9460</v>
+        <v>9410</v>
       </c>
       <c r="C95" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="D95" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="E95" t="n">
-        <v>9460</v>
+        <v>9410</v>
       </c>
       <c r="F95" t="n">
-        <v>8.9984</v>
+        <v>69.1491</v>
       </c>
       <c r="G95" t="n">
-        <v>264.2200927612351</v>
+        <v>9433.333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9450</v>
+        <v>9430</v>
       </c>
       <c r="C96" t="n">
-        <v>9450</v>
+        <v>9435</v>
       </c>
       <c r="D96" t="n">
-        <v>9450</v>
+        <v>9435</v>
       </c>
       <c r="E96" t="n">
-        <v>9450</v>
+        <v>9370</v>
       </c>
       <c r="F96" t="n">
-        <v>3.018</v>
+        <v>73.2889</v>
       </c>
       <c r="G96" t="n">
-        <v>261.2020927612351</v>
+        <v>9433.333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9450</v>
+        <v>9425</v>
       </c>
       <c r="C97" t="n">
-        <v>9450</v>
+        <v>9425</v>
       </c>
       <c r="D97" t="n">
-        <v>9450</v>
+        <v>9425</v>
       </c>
       <c r="E97" t="n">
-        <v>9450</v>
+        <v>9425</v>
       </c>
       <c r="F97" t="n">
-        <v>16.982</v>
+        <v>53.2197</v>
       </c>
       <c r="G97" t="n">
-        <v>261.2020927612351</v>
+        <v>9430</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9450</v>
+        <v>9430</v>
       </c>
       <c r="C98" t="n">
-        <v>9450</v>
+        <v>9435</v>
       </c>
       <c r="D98" t="n">
-        <v>9450</v>
+        <v>9435</v>
       </c>
       <c r="E98" t="n">
-        <v>9450</v>
+        <v>9430</v>
       </c>
       <c r="F98" t="n">
-        <v>3.47</v>
+        <v>197.3513</v>
       </c>
       <c r="G98" t="n">
-        <v>261.2020927612351</v>
+        <v>9431.666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="C99" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="D99" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="E99" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="F99" t="n">
-        <v>18.7288</v>
+        <v>2.3124</v>
       </c>
       <c r="G99" t="n">
-        <v>279.9308927612351</v>
+        <v>9441.666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="C100" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="D100" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="E100" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2104651162790698</v>
+        <v>198.5186</v>
       </c>
       <c r="G100" t="n">
-        <v>279.9308927612351</v>
+        <v>9455</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="C101" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="D101" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="E101" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="F101" t="n">
-        <v>2.54823488372093</v>
+        <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>279.9308927612351</v>
+        <v>9465</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9445</v>
+        <v>9465</v>
       </c>
       <c r="C102" t="n">
-        <v>9445</v>
+        <v>9465</v>
       </c>
       <c r="D102" t="n">
-        <v>9445</v>
+        <v>9465</v>
       </c>
       <c r="E102" t="n">
-        <v>9445</v>
+        <v>9465</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G102" t="n">
-        <v>276.9308927612351</v>
+        <v>9465</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9530</v>
+        <v>9455</v>
       </c>
       <c r="C103" t="n">
-        <v>9530</v>
+        <v>9455</v>
       </c>
       <c r="D103" t="n">
-        <v>9530</v>
+        <v>9455</v>
       </c>
       <c r="E103" t="n">
-        <v>9530</v>
+        <v>9455</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1</v>
+        <v>12.4955</v>
       </c>
       <c r="G103" t="n">
-        <v>277.0308927612351</v>
+        <v>9461.666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="C104" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="D104" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="E104" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="F104" t="n">
-        <v>16</v>
+        <v>1.1</v>
       </c>
       <c r="G104" t="n">
-        <v>261.0308927612351</v>
+        <v>9436.666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9445</v>
+        <v>9395</v>
       </c>
       <c r="C105" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="D105" t="n">
-        <v>9445</v>
+        <v>9395</v>
       </c>
       <c r="E105" t="n">
-        <v>9440</v>
+        <v>9390</v>
       </c>
       <c r="F105" t="n">
-        <v>23.5539</v>
+        <v>103.0295</v>
       </c>
       <c r="G105" t="n">
-        <v>261.0308927612351</v>
+        <v>9411.666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="C106" t="n">
-        <v>9445</v>
+        <v>9415</v>
       </c>
       <c r="D106" t="n">
-        <v>9445</v>
+        <v>9415</v>
       </c>
       <c r="E106" t="n">
-        <v>9445</v>
+        <v>9390</v>
       </c>
       <c r="F106" t="n">
-        <v>5.0951</v>
+        <v>4.7569</v>
       </c>
       <c r="G106" t="n">
-        <v>261.0308927612351</v>
+        <v>9398.333333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9440</v>
+        <v>9435</v>
       </c>
       <c r="C107" t="n">
-        <v>9420</v>
+        <v>9435</v>
       </c>
       <c r="D107" t="n">
-        <v>9440</v>
+        <v>9435</v>
       </c>
       <c r="E107" t="n">
-        <v>9420</v>
+        <v>9435</v>
       </c>
       <c r="F107" t="n">
-        <v>15.3445</v>
+        <v>4.182</v>
       </c>
       <c r="G107" t="n">
-        <v>245.6863927612351</v>
+        <v>9413.333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9425</v>
+        <v>9390</v>
       </c>
       <c r="C108" t="n">
-        <v>9420</v>
+        <v>9390</v>
       </c>
       <c r="D108" t="n">
-        <v>9425</v>
+        <v>9390</v>
       </c>
       <c r="E108" t="n">
-        <v>9420</v>
+        <v>9390</v>
       </c>
       <c r="F108" t="n">
-        <v>124.1393</v>
+        <v>81.60129999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>245.6863927612351</v>
+        <v>9413.333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,149 +4283,149 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9485</v>
+        <v>9390</v>
       </c>
       <c r="C109" t="n">
-        <v>9485</v>
+        <v>9390</v>
       </c>
       <c r="D109" t="n">
-        <v>9485</v>
+        <v>9390</v>
       </c>
       <c r="E109" t="n">
-        <v>9485</v>
+        <v>9390</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3524</v>
+        <v>187.9928</v>
       </c>
       <c r="G109" t="n">
-        <v>246.0387927612351</v>
+        <v>9405</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>9420</v>
-      </c>
-      <c r="K109" t="n">
-        <v>9420</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9420</v>
+        <v>9395</v>
       </c>
       <c r="C110" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="D110" t="n">
-        <v>9420</v>
+        <v>9395</v>
       </c>
       <c r="E110" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="F110" t="n">
-        <v>6.1229</v>
+        <v>104.8939</v>
       </c>
       <c r="G110" t="n">
-        <v>239.9158927612351</v>
+        <v>9388.333333333334</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9420</v>
-      </c>
+      <c r="J110" t="n">
+        <v>9390</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="C111" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="D111" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="E111" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="F111" t="n">
-        <v>23.5437</v>
+        <v>17.8375</v>
       </c>
       <c r="G111" t="n">
-        <v>239.9158927612351</v>
+        <v>9386.666666666666</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9420</v>
-      </c>
+      <c r="J111" t="n">
+        <v>9385</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="C112" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="D112" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="E112" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3124</v>
+        <v>3.77</v>
       </c>
       <c r="G112" t="n">
-        <v>240.2282927612351</v>
+        <v>9400</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4323,37 +4434,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>9420</v>
-      </c>
-      <c r="K112" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
+        <v>9385</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9420</v>
+        <v>9435</v>
       </c>
       <c r="C113" t="n">
-        <v>9420</v>
+        <v>9440</v>
       </c>
       <c r="D113" t="n">
-        <v>9420</v>
+        <v>9440</v>
       </c>
       <c r="E113" t="n">
-        <v>9420</v>
+        <v>9435</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>70.46729999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>236.2282927612351</v>
+        <v>9418.333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4362,117 +4476,124 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>9490</v>
-      </c>
-      <c r="K113" t="n">
-        <v>9420</v>
-      </c>
+        <v>9430</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9430</v>
+        <v>9455</v>
       </c>
       <c r="C114" t="n">
-        <v>9430</v>
+        <v>9495</v>
       </c>
       <c r="D114" t="n">
-        <v>9430</v>
+        <v>9495</v>
       </c>
       <c r="E114" t="n">
-        <v>9430</v>
+        <v>9455</v>
       </c>
       <c r="F114" t="n">
-        <v>1.48</v>
+        <v>239.4349</v>
       </c>
       <c r="G114" t="n">
-        <v>237.7082927612351</v>
+        <v>9455</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9420</v>
-      </c>
+      <c r="J114" t="n">
+        <v>9440</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="C115" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="D115" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="E115" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2</v>
+        <v>50.3</v>
       </c>
       <c r="G115" t="n">
-        <v>237.9082927612351</v>
+        <v>9476.666666666666</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9495</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9455</v>
+        <v>9495</v>
       </c>
       <c r="C116" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="D116" t="n">
-        <v>9455</v>
+        <v>9495</v>
       </c>
       <c r="E116" t="n">
-        <v>9455</v>
+        <v>9490</v>
       </c>
       <c r="F116" t="n">
-        <v>11.5252</v>
+        <v>30.2</v>
       </c>
       <c r="G116" t="n">
-        <v>226.3830927612351</v>
+        <v>9493.333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4482,32 +4603,37 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="C117" t="n">
-        <v>9450</v>
+        <v>9435</v>
       </c>
       <c r="D117" t="n">
-        <v>9450</v>
+        <v>9495</v>
       </c>
       <c r="E117" t="n">
-        <v>9450</v>
+        <v>9435</v>
       </c>
       <c r="F117" t="n">
-        <v>41.1624</v>
+        <v>105.8105</v>
       </c>
       <c r="G117" t="n">
-        <v>185.2206927612351</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4517,32 +4643,37 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9450</v>
+        <v>9495</v>
       </c>
       <c r="C118" t="n">
-        <v>9440</v>
+        <v>9495</v>
       </c>
       <c r="D118" t="n">
-        <v>9450</v>
+        <v>9495</v>
       </c>
       <c r="E118" t="n">
-        <v>9440</v>
+        <v>9495</v>
       </c>
       <c r="F118" t="n">
-        <v>39.4402</v>
+        <v>12.0535</v>
       </c>
       <c r="G118" t="n">
-        <v>145.7804927612351</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4552,67 +4683,79 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9415</v>
+        <v>9490</v>
       </c>
       <c r="C119" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="D119" t="n">
-        <v>9415</v>
+        <v>9490</v>
       </c>
       <c r="E119" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="F119" t="n">
-        <v>103.0295</v>
+        <v>1.0537</v>
       </c>
       <c r="G119" t="n">
-        <v>42.75099276123508</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9495</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9445</v>
+        <v>9435</v>
       </c>
       <c r="C120" t="n">
-        <v>9445</v>
+        <v>9435</v>
       </c>
       <c r="D120" t="n">
-        <v>9445</v>
+        <v>9435</v>
       </c>
       <c r="E120" t="n">
-        <v>9445</v>
+        <v>9435</v>
       </c>
       <c r="F120" t="n">
-        <v>15</v>
+        <v>18.6896</v>
       </c>
       <c r="G120" t="n">
-        <v>57.75099276123508</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4622,32 +4765,37 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="C121" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="D121" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="E121" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="F121" t="n">
-        <v>28.1042</v>
+        <v>26.28</v>
       </c>
       <c r="G121" t="n">
-        <v>29.64679276123508</v>
+        <v>9453.333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4657,239 +4805,237 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9390</v>
+        <v>9485</v>
       </c>
       <c r="C122" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="D122" t="n">
-        <v>9390</v>
+        <v>9490</v>
       </c>
       <c r="E122" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="F122" t="n">
-        <v>11.3064</v>
+        <v>27.9078</v>
       </c>
       <c r="G122" t="n">
-        <v>18.34039276123508</v>
+        <v>9435</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9400</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9445</v>
+        <v>9435</v>
       </c>
       <c r="C123" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="D123" t="n">
-        <v>9460</v>
+        <v>9435</v>
       </c>
       <c r="E123" t="n">
-        <v>9445</v>
+        <v>9430</v>
       </c>
       <c r="F123" t="n">
-        <v>19.97768726215645</v>
+        <v>56.3546</v>
       </c>
       <c r="G123" t="n">
-        <v>38.31808002339153</v>
+        <v>9433.333333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>9390</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="C124" t="n">
-        <v>9390</v>
+        <v>9430</v>
       </c>
       <c r="D124" t="n">
-        <v>9390</v>
+        <v>9435</v>
       </c>
       <c r="E124" t="n">
-        <v>9390</v>
+        <v>9430</v>
       </c>
       <c r="F124" t="n">
-        <v>275.4038</v>
+        <v>70.72790000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-237.0857199766085</v>
+        <v>9431.666666666666</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K124" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="C125" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="D125" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="E125" t="n">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="F125" t="n">
-        <v>17.5426</v>
+        <v>4.492</v>
       </c>
       <c r="G125" t="n">
-        <v>-219.5431199766085</v>
+        <v>9430</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>9390</v>
-      </c>
-      <c r="K125" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9415</v>
+        <v>9485</v>
       </c>
       <c r="C126" t="n">
-        <v>9415</v>
+        <v>9495</v>
       </c>
       <c r="D126" t="n">
-        <v>9415</v>
+        <v>9495</v>
       </c>
       <c r="E126" t="n">
-        <v>9415</v>
+        <v>9485</v>
       </c>
       <c r="F126" t="n">
-        <v>30</v>
+        <v>87.4866</v>
       </c>
       <c r="G126" t="n">
-        <v>-249.5431199766085</v>
+        <v>9451.666666666666</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>9465</v>
-      </c>
-      <c r="K126" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9395</v>
+        <v>9495</v>
       </c>
       <c r="C127" t="n">
-        <v>9380</v>
+        <v>9495</v>
       </c>
       <c r="D127" t="n">
-        <v>9395</v>
+        <v>9495</v>
       </c>
       <c r="E127" t="n">
-        <v>9380</v>
+        <v>9495</v>
       </c>
       <c r="F127" t="n">
-        <v>124.1393</v>
+        <v>77.6979</v>
       </c>
       <c r="G127" t="n">
-        <v>-373.6824199766085</v>
+        <v>9473.333333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4898,39 +5044,38 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="C128" t="n">
-        <v>9380</v>
+        <v>9500</v>
       </c>
       <c r="D128" t="n">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E128" t="n">
-        <v>9380</v>
+        <v>9500</v>
       </c>
       <c r="F128" t="n">
-        <v>38.4188</v>
+        <v>6.4855</v>
       </c>
       <c r="G128" t="n">
-        <v>-373.6824199766085</v>
+        <v>9496.666666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4939,9 +5084,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,28 +5093,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="C129" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="D129" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="E129" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2312</v>
+        <v>3.8094</v>
       </c>
       <c r="G129" t="n">
-        <v>-373.4512199766085</v>
+        <v>9500</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4980,9 +5124,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,28 +5133,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="C130" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="D130" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="E130" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1054</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>-373.4512199766085</v>
+        <v>9503.333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5021,9 +5164,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,28 +5173,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9415</v>
+        <v>9520</v>
       </c>
       <c r="C131" t="n">
-        <v>9365</v>
+        <v>9545</v>
       </c>
       <c r="D131" t="n">
-        <v>9415</v>
+        <v>9545</v>
       </c>
       <c r="E131" t="n">
-        <v>9365</v>
+        <v>9505</v>
       </c>
       <c r="F131" t="n">
-        <v>494.982</v>
+        <v>30.9901</v>
       </c>
       <c r="G131" t="n">
-        <v>-868.4332199766085</v>
+        <v>9518.333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5062,9 +5204,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,28 +5213,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9470</v>
+        <v>9510</v>
       </c>
       <c r="C132" t="n">
-        <v>9470</v>
+        <v>9545</v>
       </c>
       <c r="D132" t="n">
-        <v>9470</v>
+        <v>9545</v>
       </c>
       <c r="E132" t="n">
-        <v>9470</v>
+        <v>9505</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1</v>
+        <v>104.9612</v>
       </c>
       <c r="G132" t="n">
-        <v>-868.3332199766085</v>
+        <v>9531.666666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5103,9 +5244,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,28 +5253,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9370</v>
+        <v>9540</v>
       </c>
       <c r="C133" t="n">
-        <v>9445</v>
+        <v>9540</v>
       </c>
       <c r="D133" t="n">
-        <v>9445</v>
+        <v>9540</v>
       </c>
       <c r="E133" t="n">
-        <v>9360</v>
+        <v>9540</v>
       </c>
       <c r="F133" t="n">
-        <v>48.9665</v>
+        <v>87.5945</v>
       </c>
       <c r="G133" t="n">
-        <v>-917.2997199766085</v>
+        <v>9543.333333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5144,9 +5284,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,28 +5293,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9370</v>
+        <v>9575</v>
       </c>
       <c r="C134" t="n">
-        <v>9350</v>
+        <v>9575</v>
       </c>
       <c r="D134" t="n">
-        <v>9370</v>
+        <v>9575</v>
       </c>
       <c r="E134" t="n">
-        <v>9350</v>
+        <v>9575</v>
       </c>
       <c r="F134" t="n">
-        <v>60</v>
+        <v>0.3524</v>
       </c>
       <c r="G134" t="n">
-        <v>-977.2997199766085</v>
+        <v>9553.333333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5185,9 +5324,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,28 +5333,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9435</v>
+        <v>9575</v>
       </c>
       <c r="C135" t="n">
-        <v>9435</v>
+        <v>9580</v>
       </c>
       <c r="D135" t="n">
-        <v>9435</v>
+        <v>9580</v>
       </c>
       <c r="E135" t="n">
-        <v>9435</v>
+        <v>9575</v>
       </c>
       <c r="F135" t="n">
-        <v>8.887</v>
+        <v>15</v>
       </c>
       <c r="G135" t="n">
-        <v>-968.4127199766085</v>
+        <v>9565</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5226,9 +5364,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,28 +5373,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9435</v>
+        <v>9575</v>
       </c>
       <c r="C136" t="n">
-        <v>9435</v>
+        <v>9580</v>
       </c>
       <c r="D136" t="n">
-        <v>9435</v>
+        <v>9580</v>
       </c>
       <c r="E136" t="n">
-        <v>9435</v>
+        <v>9575</v>
       </c>
       <c r="F136" t="n">
-        <v>4.717</v>
+        <v>37.678</v>
       </c>
       <c r="G136" t="n">
-        <v>-968.4127199766085</v>
+        <v>9578.333333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5267,9 +5404,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,28 +5413,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9410</v>
+        <v>9575</v>
       </c>
       <c r="C137" t="n">
-        <v>9430</v>
+        <v>9575</v>
       </c>
       <c r="D137" t="n">
-        <v>9430</v>
+        <v>9575</v>
       </c>
       <c r="E137" t="n">
-        <v>9410</v>
+        <v>9575</v>
       </c>
       <c r="F137" t="n">
-        <v>69.1491</v>
+        <v>58.122</v>
       </c>
       <c r="G137" t="n">
-        <v>-1037.561819976609</v>
+        <v>9578.333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5308,9 +5444,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,28 +5453,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9430</v>
+        <v>9575</v>
       </c>
       <c r="C138" t="n">
-        <v>9435</v>
+        <v>9540</v>
       </c>
       <c r="D138" t="n">
-        <v>9435</v>
+        <v>9575</v>
       </c>
       <c r="E138" t="n">
-        <v>9370</v>
+        <v>9540</v>
       </c>
       <c r="F138" t="n">
-        <v>73.2889</v>
+        <v>5.508</v>
       </c>
       <c r="G138" t="n">
-        <v>-964.2729199766086</v>
+        <v>9565</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5349,9 +5484,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5360,41 +5493,38 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9425</v>
+        <v>9535</v>
       </c>
       <c r="C139" t="n">
-        <v>9425</v>
+        <v>9535</v>
       </c>
       <c r="D139" t="n">
-        <v>9425</v>
+        <v>9535</v>
       </c>
       <c r="E139" t="n">
-        <v>9425</v>
+        <v>9535</v>
       </c>
       <c r="F139" t="n">
-        <v>53.2197</v>
+        <v>11.4889</v>
       </c>
       <c r="G139" t="n">
-        <v>-1017.492619976609</v>
+        <v>9550</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>9435</v>
-      </c>
-      <c r="K139" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5403,41 +5533,38 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9430</v>
+        <v>9535</v>
       </c>
       <c r="C140" t="n">
-        <v>9435</v>
+        <v>9530</v>
       </c>
       <c r="D140" t="n">
-        <v>9435</v>
+        <v>9535</v>
       </c>
       <c r="E140" t="n">
-        <v>9430</v>
+        <v>9530</v>
       </c>
       <c r="F140" t="n">
-        <v>197.3513</v>
+        <v>39.8345</v>
       </c>
       <c r="G140" t="n">
-        <v>-820.1413199766085</v>
+        <v>9535</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K140" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,41 +5573,38 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9465</v>
+        <v>9575</v>
       </c>
       <c r="C141" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="D141" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="E141" t="n">
-        <v>9465</v>
+        <v>9575</v>
       </c>
       <c r="F141" t="n">
-        <v>2.3124</v>
+        <v>52.2212</v>
       </c>
       <c r="G141" t="n">
-        <v>-817.8289199766085</v>
+        <v>9548.333333333334</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>9435</v>
-      </c>
-      <c r="K141" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5489,28 +5613,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="C142" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="D142" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="E142" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="F142" t="n">
-        <v>198.5186</v>
+        <v>15.3019</v>
       </c>
       <c r="G142" t="n">
-        <v>-817.8289199766085</v>
+        <v>9563.333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5519,9 +5644,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,28 +5653,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="C143" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="D143" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="E143" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="F143" t="n">
-        <v>50</v>
+        <v>7.8731</v>
       </c>
       <c r="G143" t="n">
-        <v>-817.8289199766085</v>
+        <v>9580</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5560,9 +5684,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,28 +5693,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="C144" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="D144" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="E144" t="n">
-        <v>9465</v>
+        <v>9580</v>
       </c>
       <c r="F144" t="n">
-        <v>50</v>
+        <v>88.1414</v>
       </c>
       <c r="G144" t="n">
-        <v>-817.8289199766085</v>
+        <v>9580</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5601,9 +5724,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5612,28 +5733,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9455</v>
+        <v>9580</v>
       </c>
       <c r="C145" t="n">
-        <v>9455</v>
+        <v>9590</v>
       </c>
       <c r="D145" t="n">
-        <v>9455</v>
+        <v>9590</v>
       </c>
       <c r="E145" t="n">
-        <v>9455</v>
+        <v>9580</v>
       </c>
       <c r="F145" t="n">
-        <v>12.4955</v>
+        <v>116.3484</v>
       </c>
       <c r="G145" t="n">
-        <v>-830.3244199766085</v>
+        <v>9583.333333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5642,9 +5764,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5653,28 +5773,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9390</v>
+        <v>9585</v>
       </c>
       <c r="C146" t="n">
-        <v>9390</v>
+        <v>9590</v>
       </c>
       <c r="D146" t="n">
-        <v>9390</v>
+        <v>9590</v>
       </c>
       <c r="E146" t="n">
-        <v>9390</v>
+        <v>9585</v>
       </c>
       <c r="F146" t="n">
-        <v>1.1</v>
+        <v>38.8563</v>
       </c>
       <c r="G146" t="n">
-        <v>-831.4244199766085</v>
+        <v>9586.666666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5683,9 +5804,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,28 +5813,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9395</v>
+        <v>9585</v>
       </c>
       <c r="C147" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="D147" t="n">
-        <v>9395</v>
+        <v>9585</v>
       </c>
       <c r="E147" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="F147" t="n">
-        <v>103.0295</v>
+        <v>114.2728</v>
       </c>
       <c r="G147" t="n">
-        <v>-831.4244199766085</v>
+        <v>9565</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5724,9 +5844,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,28 +5853,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9390</v>
+        <v>9520</v>
       </c>
       <c r="C148" t="n">
-        <v>9415</v>
+        <v>9510</v>
       </c>
       <c r="D148" t="n">
-        <v>9415</v>
+        <v>9520</v>
       </c>
       <c r="E148" t="n">
-        <v>9390</v>
+        <v>9510</v>
       </c>
       <c r="F148" t="n">
-        <v>4.7569</v>
+        <v>312.2241</v>
       </c>
       <c r="G148" t="n">
-        <v>-826.6675199766086</v>
+        <v>9538.333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5765,9 +5884,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,28 +5893,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9435</v>
+        <v>9560</v>
       </c>
       <c r="C149" t="n">
-        <v>9435</v>
+        <v>9555</v>
       </c>
       <c r="D149" t="n">
-        <v>9435</v>
+        <v>9560</v>
       </c>
       <c r="E149" t="n">
-        <v>9435</v>
+        <v>9555</v>
       </c>
       <c r="F149" t="n">
-        <v>4.182</v>
+        <v>1.47</v>
       </c>
       <c r="G149" t="n">
-        <v>-822.4855199766085</v>
+        <v>9526.666666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5806,9 +5924,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5817,28 +5933,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9390</v>
+        <v>9540</v>
       </c>
       <c r="C150" t="n">
-        <v>9390</v>
+        <v>9545</v>
       </c>
       <c r="D150" t="n">
-        <v>9390</v>
+        <v>9545</v>
       </c>
       <c r="E150" t="n">
-        <v>9390</v>
+        <v>9540</v>
       </c>
       <c r="F150" t="n">
-        <v>81.60129999999999</v>
+        <v>7.821</v>
       </c>
       <c r="G150" t="n">
-        <v>-904.0868199766086</v>
+        <v>9536.666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5847,9 +5964,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,41 +5973,38 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9390</v>
+        <v>9575</v>
       </c>
       <c r="C151" t="n">
-        <v>9390</v>
+        <v>9530</v>
       </c>
       <c r="D151" t="n">
-        <v>9390</v>
+        <v>9580</v>
       </c>
       <c r="E151" t="n">
-        <v>9390</v>
+        <v>9530</v>
       </c>
       <c r="F151" t="n">
-        <v>187.9928</v>
+        <v>54.3308</v>
       </c>
       <c r="G151" t="n">
-        <v>-904.0868199766086</v>
+        <v>9543.333333333334</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>9390</v>
-      </c>
-      <c r="K151" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,28 +6013,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9395</v>
+        <v>9525</v>
       </c>
       <c r="C152" t="n">
-        <v>9385</v>
+        <v>9530</v>
       </c>
       <c r="D152" t="n">
-        <v>9395</v>
+        <v>9530</v>
       </c>
       <c r="E152" t="n">
-        <v>9385</v>
+        <v>9525</v>
       </c>
       <c r="F152" t="n">
-        <v>104.8939</v>
+        <v>37.9427</v>
       </c>
       <c r="G152" t="n">
-        <v>-1008.980719976609</v>
+        <v>9535</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5931,9 +6044,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>9390</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5942,1728 +6053,7 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9385</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9385</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9385</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9385</v>
-      </c>
-      <c r="F153" t="n">
-        <v>17.8375</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1008.980719976609</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>9430</v>
-      </c>
-      <c r="C154" t="n">
-        <v>9430</v>
-      </c>
-      <c r="D154" t="n">
-        <v>9430</v>
-      </c>
-      <c r="E154" t="n">
-        <v>9430</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1005.210719976609</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>9435</v>
-      </c>
-      <c r="C155" t="n">
-        <v>9440</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9440</v>
-      </c>
-      <c r="E155" t="n">
-        <v>9435</v>
-      </c>
-      <c r="F155" t="n">
-        <v>70.46729999999999</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-934.7434199766086</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>9455</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9495</v>
-      </c>
-      <c r="D156" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9455</v>
-      </c>
-      <c r="F156" t="n">
-        <v>239.4349</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-695.3085199766086</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>9495</v>
-      </c>
-      <c r="C157" t="n">
-        <v>9495</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E157" t="n">
-        <v>9495</v>
-      </c>
-      <c r="F157" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-695.3085199766086</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>9495</v>
-      </c>
-      <c r="C158" t="n">
-        <v>9490</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9490</v>
-      </c>
-      <c r="F158" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-725.5085199766087</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9490</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9435</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9435</v>
-      </c>
-      <c r="F159" t="n">
-        <v>105.8105</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-831.3190199766087</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9495</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9495</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9495</v>
-      </c>
-      <c r="F160" t="n">
-        <v>12.0535</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-819.2655199766087</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9490</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9490</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9490</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9490</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1.0537</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-820.3192199766088</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9435</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9435</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9435</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9435</v>
-      </c>
-      <c r="F162" t="n">
-        <v>18.6896</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-839.0088199766088</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9435</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9435</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9435</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9435</v>
-      </c>
-      <c r="F163" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-839.0088199766088</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9485</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9435</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9490</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9435</v>
-      </c>
-      <c r="F164" t="n">
-        <v>27.9078</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-839.0088199766088</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9435</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9430</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9435</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9430</v>
-      </c>
-      <c r="F165" t="n">
-        <v>56.3546</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-895.3634199766088</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9435</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9430</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9435</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9430</v>
-      </c>
-      <c r="F166" t="n">
-        <v>70.72790000000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-895.3634199766088</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9430</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9430</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9430</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9430</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4.492</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-895.3634199766088</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9485</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9495</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9485</v>
-      </c>
-      <c r="F168" t="n">
-        <v>87.4866</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-807.8768199766089</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9495</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9495</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9495</v>
-      </c>
-      <c r="F169" t="n">
-        <v>77.6979</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-807.8768199766089</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9500</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9500</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6.4855</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-801.3913199766089</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9505</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9505</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9505</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3.8094</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-797.5819199766089</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9505</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9505</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9505</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-797.5819199766089</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9520</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9545</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9545</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F173" t="n">
-        <v>30.9901</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-766.5918199766089</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9510</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9545</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9545</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F174" t="n">
-        <v>104.9612</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-766.5918199766089</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9540</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F175" t="n">
-        <v>87.5945</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-854.186319976609</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9575</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9575</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.3524</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-853.833919976609</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F177" t="n">
-        <v>15</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-838.833919976609</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F178" t="n">
-        <v>37.678</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-838.833919976609</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9575</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9575</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F179" t="n">
-        <v>58.122</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-896.9559199766089</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9540</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9575</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5.508</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-902.463919976609</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11.4889</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-913.9528199766089</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E182" t="n">
-        <v>9530</v>
-      </c>
-      <c r="F182" t="n">
-        <v>39.8345</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-953.787319976609</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9575</v>
-      </c>
-      <c r="F183" t="n">
-        <v>52.2212</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F184" t="n">
-        <v>15.3019</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F185" t="n">
-        <v>7.8731</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F186" t="n">
-        <v>88.1414</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9580</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F187" t="n">
-        <v>116.3484</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-785.217719976609</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9585</v>
-      </c>
-      <c r="F188" t="n">
-        <v>38.8563</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-785.217719976609</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9515</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9585</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9515</v>
-      </c>
-      <c r="F189" t="n">
-        <v>114.2728</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-899.490519976609</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9520</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9510</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9520</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9510</v>
-      </c>
-      <c r="F190" t="n">
-        <v>312.2241</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1211.714619976609</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1210.244619976609</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9545</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9545</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F192" t="n">
-        <v>7.821</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1218.065619976609</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9575</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9580</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9530</v>
-      </c>
-      <c r="F193" t="n">
-        <v>54.3308</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1272.396419976609</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9525</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9525</v>
-      </c>
-      <c r="F194" t="n">
-        <v>37.9427</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1272.396419976609</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>9390</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9655</v>
+        <v>9240</v>
       </c>
       <c r="C2" t="n">
-        <v>9670</v>
+        <v>9240</v>
       </c>
       <c r="D2" t="n">
-        <v>9670</v>
+        <v>9240</v>
       </c>
       <c r="E2" t="n">
-        <v>9655</v>
+        <v>9240</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>9651.666666666666</v>
+        <v>-331.4302</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9635</v>
+        <v>9240</v>
       </c>
       <c r="C3" t="n">
-        <v>9635</v>
+        <v>9240</v>
       </c>
       <c r="D3" t="n">
-        <v>9635</v>
+        <v>9240</v>
       </c>
       <c r="E3" t="n">
-        <v>9635</v>
+        <v>9240</v>
       </c>
       <c r="F3" t="n">
-        <v>9.522</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>9655</v>
+        <v>-331.4302</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9630</v>
+        <v>9240</v>
       </c>
       <c r="C4" t="n">
-        <v>9620</v>
+        <v>9240</v>
       </c>
       <c r="D4" t="n">
-        <v>9630</v>
+        <v>9240</v>
       </c>
       <c r="E4" t="n">
-        <v>9620</v>
+        <v>9240</v>
       </c>
       <c r="F4" t="n">
-        <v>78.0951</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>9641.666666666666</v>
+        <v>-331.4302</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9240</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,32 +550,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9615</v>
+        <v>9235</v>
       </c>
       <c r="C5" t="n">
-        <v>9605</v>
+        <v>9235</v>
       </c>
       <c r="D5" t="n">
-        <v>9615</v>
+        <v>9235</v>
       </c>
       <c r="E5" t="n">
-        <v>9605</v>
+        <v>9235</v>
       </c>
       <c r="F5" t="n">
-        <v>74.1555</v>
+        <v>21.7446</v>
       </c>
       <c r="G5" t="n">
-        <v>9620</v>
+        <v>-353.1748</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +594,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9605</v>
+        <v>9240</v>
       </c>
       <c r="C6" t="n">
-        <v>9600</v>
+        <v>9235</v>
       </c>
       <c r="D6" t="n">
-        <v>9605</v>
+        <v>9240</v>
       </c>
       <c r="E6" t="n">
-        <v>9600</v>
+        <v>9235</v>
       </c>
       <c r="F6" t="n">
-        <v>36.1472</v>
+        <v>67.7852</v>
       </c>
       <c r="G6" t="n">
-        <v>9608.333333333334</v>
+        <v>-353.1748</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9235</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +638,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9590</v>
+        <v>9320</v>
       </c>
       <c r="C7" t="n">
-        <v>9515</v>
+        <v>9340</v>
       </c>
       <c r="D7" t="n">
-        <v>9610</v>
+        <v>9490</v>
       </c>
       <c r="E7" t="n">
-        <v>9515</v>
+        <v>9320</v>
       </c>
       <c r="F7" t="n">
-        <v>33.6589</v>
+        <v>132.8374</v>
       </c>
       <c r="G7" t="n">
-        <v>9573.333333333334</v>
+        <v>-220.3374</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9235</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +682,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9600</v>
+        <v>9350</v>
       </c>
       <c r="C8" t="n">
-        <v>9600</v>
+        <v>9350</v>
       </c>
       <c r="D8" t="n">
-        <v>9600</v>
+        <v>9350</v>
       </c>
       <c r="E8" t="n">
-        <v>9600</v>
+        <v>9350</v>
       </c>
       <c r="F8" t="n">
-        <v>14.1041</v>
+        <v>1.0826</v>
       </c>
       <c r="G8" t="n">
-        <v>9571.666666666666</v>
+        <v>-219.2548</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +724,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9590</v>
+        <v>9340</v>
       </c>
       <c r="C9" t="n">
-        <v>9510</v>
+        <v>9340</v>
       </c>
       <c r="D9" t="n">
-        <v>9590</v>
+        <v>9340</v>
       </c>
       <c r="E9" t="n">
-        <v>9510</v>
+        <v>9340</v>
       </c>
       <c r="F9" t="n">
-        <v>16.4229</v>
+        <v>3.08</v>
       </c>
       <c r="G9" t="n">
-        <v>9541.666666666666</v>
+        <v>-222.3348</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9590</v>
+        <v>9335</v>
       </c>
       <c r="C10" t="n">
-        <v>9590</v>
+        <v>9335</v>
       </c>
       <c r="D10" t="n">
-        <v>9590</v>
+        <v>9340</v>
       </c>
       <c r="E10" t="n">
-        <v>9590</v>
+        <v>9335</v>
       </c>
       <c r="F10" t="n">
-        <v>7.0595</v>
+        <v>65.56399999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>9566.666666666666</v>
+        <v>-287.8988</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +790,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +808,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9515</v>
+        <v>9330</v>
       </c>
       <c r="C11" t="n">
-        <v>9515</v>
+        <v>9330</v>
       </c>
       <c r="D11" t="n">
-        <v>9515</v>
+        <v>9330</v>
       </c>
       <c r="E11" t="n">
-        <v>9515</v>
+        <v>9330</v>
       </c>
       <c r="F11" t="n">
-        <v>28.0906</v>
+        <v>7.5202</v>
       </c>
       <c r="G11" t="n">
-        <v>9538.333333333334</v>
+        <v>-295.419</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +832,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="C12" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="D12" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="E12" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="F12" t="n">
-        <v>19.714</v>
+        <v>0.5382</v>
       </c>
       <c r="G12" t="n">
-        <v>9540</v>
+        <v>-295.9572</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +874,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +892,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="C13" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="D13" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="E13" t="n">
-        <v>9515</v>
+        <v>9290</v>
       </c>
       <c r="F13" t="n">
-        <v>91.5192</v>
+        <v>6.4588</v>
       </c>
       <c r="G13" t="n">
-        <v>9515</v>
+        <v>-295.9572</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +934,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9480</v>
+        <v>9290</v>
       </c>
       <c r="C14" t="n">
-        <v>9480</v>
+        <v>9290</v>
       </c>
       <c r="D14" t="n">
-        <v>9480</v>
+        <v>9290</v>
       </c>
       <c r="E14" t="n">
-        <v>9475</v>
+        <v>9290</v>
       </c>
       <c r="F14" t="n">
-        <v>266.0756</v>
+        <v>35.7916</v>
       </c>
       <c r="G14" t="n">
-        <v>9503.333333333334</v>
+        <v>-295.9572</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>9290</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +978,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9475</v>
+        <v>9290</v>
       </c>
       <c r="C15" t="n">
-        <v>9425</v>
+        <v>9290</v>
       </c>
       <c r="D15" t="n">
-        <v>9475</v>
+        <v>9290</v>
       </c>
       <c r="E15" t="n">
-        <v>9425</v>
+        <v>9290</v>
       </c>
       <c r="F15" t="n">
-        <v>291.8799</v>
+        <v>4.7201</v>
       </c>
       <c r="G15" t="n">
-        <v>9473.333333333334</v>
+        <v>-295.9572</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>9290</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1022,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9445</v>
+        <v>9285</v>
       </c>
       <c r="C16" t="n">
-        <v>9495</v>
+        <v>9280</v>
       </c>
       <c r="D16" t="n">
-        <v>9495</v>
+        <v>9285</v>
       </c>
       <c r="E16" t="n">
-        <v>9430</v>
+        <v>9280</v>
       </c>
       <c r="F16" t="n">
-        <v>37.0776</v>
+        <v>34.37</v>
       </c>
       <c r="G16" t="n">
-        <v>9466.666666666666</v>
+        <v>-330.3272</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>9290</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1066,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9495</v>
+        <v>9355</v>
       </c>
       <c r="C17" t="n">
-        <v>9505</v>
+        <v>9355</v>
       </c>
       <c r="D17" t="n">
-        <v>9505</v>
+        <v>9355</v>
       </c>
       <c r="E17" t="n">
-        <v>9495</v>
+        <v>9355</v>
       </c>
       <c r="F17" t="n">
-        <v>145.8052</v>
+        <v>11.957</v>
       </c>
       <c r="G17" t="n">
-        <v>9475</v>
+        <v>-318.3702</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>9280</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1110,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9425</v>
+        <v>9365</v>
       </c>
       <c r="C18" t="n">
-        <v>9425</v>
+        <v>9365</v>
       </c>
       <c r="D18" t="n">
-        <v>9425</v>
+        <v>9365</v>
       </c>
       <c r="E18" t="n">
-        <v>9425</v>
+        <v>9365</v>
       </c>
       <c r="F18" t="n">
-        <v>62.8417</v>
+        <v>32.37</v>
       </c>
       <c r="G18" t="n">
-        <v>9475</v>
+        <v>-286.0002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>9355</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1154,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9420</v>
+        <v>9370</v>
       </c>
       <c r="C19" t="n">
-        <v>9440</v>
+        <v>9385</v>
       </c>
       <c r="D19" t="n">
-        <v>9440</v>
+        <v>9385</v>
       </c>
       <c r="E19" t="n">
-        <v>9420</v>
+        <v>9370</v>
       </c>
       <c r="F19" t="n">
-        <v>61.7789</v>
+        <v>16.026</v>
       </c>
       <c r="G19" t="n">
-        <v>9456.666666666666</v>
+        <v>-269.9742</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>9365</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9440</v>
+        <v>9385</v>
       </c>
       <c r="C20" t="n">
-        <v>9440</v>
+        <v>9385</v>
       </c>
       <c r="D20" t="n">
-        <v>9440</v>
+        <v>9385</v>
       </c>
       <c r="E20" t="n">
-        <v>9440</v>
+        <v>9385</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3124</v>
+        <v>5.896</v>
       </c>
       <c r="G20" t="n">
-        <v>9435</v>
+        <v>-269.9742</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1222,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1240,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9425</v>
+        <v>9385</v>
       </c>
       <c r="C21" t="n">
-        <v>9420</v>
+        <v>9405</v>
       </c>
       <c r="D21" t="n">
-        <v>9425</v>
+        <v>9405</v>
       </c>
       <c r="E21" t="n">
-        <v>9420</v>
+        <v>9385</v>
       </c>
       <c r="F21" t="n">
-        <v>7.3468</v>
+        <v>122.0525</v>
       </c>
       <c r="G21" t="n">
-        <v>9433.333333333334</v>
+        <v>-147.9217</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1264,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1282,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9425</v>
+        <v>9405</v>
       </c>
       <c r="C22" t="n">
-        <v>9420</v>
+        <v>9405</v>
       </c>
       <c r="D22" t="n">
-        <v>9425</v>
+        <v>9410</v>
       </c>
       <c r="E22" t="n">
-        <v>9420</v>
+        <v>9405</v>
       </c>
       <c r="F22" t="n">
-        <v>59.514</v>
+        <v>29.5791</v>
       </c>
       <c r="G22" t="n">
-        <v>9426.666666666666</v>
+        <v>-147.9217</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1324,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9410</v>
+        <v>9405</v>
       </c>
       <c r="C23" t="n">
-        <v>9410</v>
+        <v>9405</v>
       </c>
       <c r="D23" t="n">
-        <v>9410</v>
+        <v>9405</v>
       </c>
       <c r="E23" t="n">
-        <v>9410</v>
+        <v>9405</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8461</v>
+        <v>10.4868</v>
       </c>
       <c r="G23" t="n">
-        <v>9416.666666666666</v>
+        <v>-147.9217</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1348,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1366,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9370</v>
+        <v>9405</v>
       </c>
       <c r="C24" t="n">
-        <v>9370</v>
+        <v>9405</v>
       </c>
       <c r="D24" t="n">
-        <v>9370</v>
+        <v>9405</v>
       </c>
       <c r="E24" t="n">
-        <v>9370</v>
+        <v>9405</v>
       </c>
       <c r="F24" t="n">
-        <v>6.6318</v>
+        <v>6.96</v>
       </c>
       <c r="G24" t="n">
-        <v>9400</v>
+        <v>-147.9217</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1390,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1408,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="C25" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="D25" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="E25" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="F25" t="n">
-        <v>17.5462</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>9393.333333333334</v>
+        <v>-132.9217</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1432,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1450,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="C26" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="D26" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="E26" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="F26" t="n">
-        <v>32.4538</v>
+        <v>4.89</v>
       </c>
       <c r="G26" t="n">
-        <v>9390</v>
+        <v>-132.9217</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1492,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9405</v>
+        <v>9410</v>
       </c>
       <c r="C27" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="D27" t="n">
-        <v>9405</v>
+        <v>9410</v>
       </c>
       <c r="E27" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="F27" t="n">
-        <v>55.0324</v>
+        <v>0.001</v>
       </c>
       <c r="G27" t="n">
-        <v>9400</v>
+        <v>-132.9217</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1516,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1534,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9400</v>
+        <v>9450</v>
       </c>
       <c r="C28" t="n">
-        <v>9400</v>
+        <v>9450</v>
       </c>
       <c r="D28" t="n">
-        <v>9400</v>
+        <v>9450</v>
       </c>
       <c r="E28" t="n">
-        <v>9400</v>
+        <v>9450</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>21.0799</v>
       </c>
       <c r="G28" t="n">
-        <v>9400</v>
+        <v>-111.8418</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1558,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1576,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9400</v>
+        <v>9460</v>
       </c>
       <c r="C29" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="D29" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="E29" t="n">
-        <v>9400</v>
+        <v>9460</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>2.16</v>
       </c>
       <c r="G29" t="n">
-        <v>9410</v>
+        <v>-109.6818</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1600,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1618,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9435</v>
+        <v>9465</v>
       </c>
       <c r="C30" t="n">
-        <v>9435</v>
+        <v>9465</v>
       </c>
       <c r="D30" t="n">
-        <v>9435</v>
+        <v>9465</v>
       </c>
       <c r="E30" t="n">
-        <v>9435</v>
+        <v>9465</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>4.71</v>
       </c>
       <c r="G30" t="n">
-        <v>9421.666666666666</v>
+        <v>-104.9718</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1660,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="C31" t="n">
         <v>9460</v>
       </c>
       <c r="D31" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="E31" t="n">
         <v>9460</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>14.939</v>
       </c>
       <c r="G31" t="n">
-        <v>9441.666666666666</v>
+        <v>-119.9108</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1684,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1714,10 @@
         <v>9460</v>
       </c>
       <c r="F32" t="n">
-        <v>11.7485</v>
+        <v>12.4246</v>
       </c>
       <c r="G32" t="n">
-        <v>9451.666666666666</v>
+        <v>-119.9108</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1726,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1744,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="C33" t="n">
-        <v>9470</v>
+        <v>9505</v>
       </c>
       <c r="D33" t="n">
         <v>9505</v>
       </c>
       <c r="E33" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="F33" t="n">
-        <v>18.9484</v>
+        <v>16.0655</v>
       </c>
       <c r="G33" t="n">
-        <v>9463.333333333334</v>
+        <v>-103.8453</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1768,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1786,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="C34" t="n">
-        <v>9475</v>
+        <v>9510</v>
       </c>
       <c r="D34" t="n">
-        <v>9475</v>
+        <v>9510</v>
       </c>
       <c r="E34" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="F34" t="n">
-        <v>9.8353</v>
+        <v>62.3306</v>
       </c>
       <c r="G34" t="n">
-        <v>9468.333333333334</v>
+        <v>-41.5147</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1810,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1828,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9470</v>
+        <v>9500</v>
       </c>
       <c r="C35" t="n">
-        <v>9470</v>
+        <v>9500</v>
       </c>
       <c r="D35" t="n">
-        <v>9470</v>
+        <v>9500</v>
       </c>
       <c r="E35" t="n">
-        <v>9470</v>
+        <v>9500</v>
       </c>
       <c r="F35" t="n">
-        <v>5.1064</v>
+        <v>86</v>
       </c>
       <c r="G35" t="n">
-        <v>9471.666666666666</v>
+        <v>-127.5147</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1870,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9505</v>
+        <v>9520</v>
       </c>
       <c r="C36" t="n">
-        <v>9505</v>
+        <v>9520</v>
       </c>
       <c r="D36" t="n">
-        <v>9505</v>
+        <v>9520</v>
       </c>
       <c r="E36" t="n">
-        <v>9505</v>
+        <v>9520</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3124</v>
+        <v>4.788</v>
       </c>
       <c r="G36" t="n">
-        <v>9483.333333333334</v>
+        <v>-122.7267</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1894,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1912,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C37" t="n">
-        <v>9500</v>
+        <v>9625</v>
       </c>
       <c r="D37" t="n">
-        <v>9500</v>
+        <v>9625</v>
       </c>
       <c r="E37" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F37" t="n">
-        <v>14.3753</v>
+        <v>531.8630271168831</v>
       </c>
       <c r="G37" t="n">
-        <v>9491.666666666666</v>
+        <v>409.1363271168831</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,7 +1954,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9500</v>
+        <v>9520</v>
       </c>
       <c r="C38" t="n">
         <v>9520</v>
@@ -1743,13 +1963,13 @@
         <v>9520</v>
       </c>
       <c r="E38" t="n">
-        <v>9500</v>
+        <v>9520</v>
       </c>
       <c r="F38" t="n">
-        <v>80.7428</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>9508.333333333334</v>
+        <v>399.1363271168831</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1996,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="C39" t="n">
-        <v>9510</v>
+        <v>9525</v>
       </c>
       <c r="D39" t="n">
-        <v>9570</v>
+        <v>9525</v>
       </c>
       <c r="E39" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F39" t="n">
-        <v>272.989</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>9510</v>
+        <v>401.1363271168831</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2038,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C40" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="D40" t="n">
         <v>9535</v>
       </c>
       <c r="E40" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="F40" t="n">
-        <v>82.97799999999999</v>
+        <v>20.0016</v>
       </c>
       <c r="G40" t="n">
-        <v>9521.666666666666</v>
+        <v>421.1379271168831</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2062,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2080,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="C41" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="D41" t="n">
-        <v>9535</v>
+        <v>9540</v>
       </c>
       <c r="E41" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="F41" t="n">
-        <v>462.9327</v>
+        <v>1.6889</v>
       </c>
       <c r="G41" t="n">
-        <v>9518.333333333334</v>
+        <v>422.8268271168831</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2122,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="C42" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="D42" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="E42" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="F42" t="n">
-        <v>70</v>
+        <v>21.1475</v>
       </c>
       <c r="G42" t="n">
-        <v>9518.333333333334</v>
+        <v>422.8268271168831</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2164,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="C43" t="n">
-        <v>9440</v>
+        <v>9535</v>
       </c>
       <c r="D43" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="E43" t="n">
-        <v>9440</v>
+        <v>9535</v>
       </c>
       <c r="F43" t="n">
-        <v>64.0646</v>
+        <v>50.0524</v>
       </c>
       <c r="G43" t="n">
-        <v>9486.666666666666</v>
+        <v>372.7744271168831</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2206,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="C44" t="n">
-        <v>9490</v>
+        <v>9470</v>
       </c>
       <c r="D44" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="E44" t="n">
-        <v>9490</v>
+        <v>9470</v>
       </c>
       <c r="F44" t="n">
-        <v>3.9383</v>
+        <v>88.78879999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>9480</v>
+        <v>283.9856271168832</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2230,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2248,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="C45" t="n">
-        <v>9490</v>
+        <v>9480</v>
       </c>
       <c r="D45" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="E45" t="n">
-        <v>9490</v>
+        <v>9480</v>
       </c>
       <c r="F45" t="n">
-        <v>11.159</v>
+        <v>75.21550000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>9473.333333333334</v>
+        <v>359.2011271168832</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2272,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2290,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9500</v>
+        <v>9460</v>
       </c>
       <c r="C46" t="n">
-        <v>9490</v>
+        <v>9460</v>
       </c>
       <c r="D46" t="n">
-        <v>9500</v>
+        <v>9460</v>
       </c>
       <c r="E46" t="n">
-        <v>9490</v>
+        <v>9460</v>
       </c>
       <c r="F46" t="n">
-        <v>49.2068</v>
+        <v>53.9241</v>
       </c>
       <c r="G46" t="n">
-        <v>9490</v>
+        <v>305.2770271168832</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2314,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2332,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9465</v>
+        <v>9460</v>
       </c>
       <c r="C47" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D47" t="n">
         <v>9460</v>
       </c>
-      <c r="D47" t="n">
-        <v>9465</v>
-      </c>
       <c r="E47" t="n">
-        <v>9460</v>
+        <v>9455</v>
       </c>
       <c r="F47" t="n">
-        <v>15.4439</v>
+        <v>51.2279</v>
       </c>
       <c r="G47" t="n">
-        <v>9480</v>
+        <v>254.0491271168832</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2374,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="C48" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="D48" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="E48" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="F48" t="n">
-        <v>22.2778</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>9468.333333333334</v>
+        <v>264.0491271168831</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2416,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="C49" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="D49" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="E49" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="F49" t="n">
-        <v>2.4893</v>
+        <v>10.49317943336831</v>
       </c>
       <c r="G49" t="n">
-        <v>9456.666666666666</v>
+        <v>264.0491271168831</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2458,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9455</v>
+        <v>9530</v>
       </c>
       <c r="C50" t="n">
-        <v>9460</v>
+        <v>9480</v>
       </c>
       <c r="D50" t="n">
-        <v>9460</v>
+        <v>9530</v>
       </c>
       <c r="E50" t="n">
-        <v>9455</v>
+        <v>9480</v>
       </c>
       <c r="F50" t="n">
-        <v>31.3473</v>
+        <v>10.5825</v>
       </c>
       <c r="G50" t="n">
-        <v>9456.666666666666</v>
+        <v>253.4666271168831</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2500,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9460</v>
+        <v>9505</v>
       </c>
       <c r="C51" t="n">
-        <v>9460</v>
+        <v>9530</v>
       </c>
       <c r="D51" t="n">
-        <v>9460</v>
+        <v>9530</v>
       </c>
       <c r="E51" t="n">
-        <v>9460</v>
+        <v>9505</v>
       </c>
       <c r="F51" t="n">
-        <v>198.3543</v>
+        <v>52.95232056663169</v>
       </c>
       <c r="G51" t="n">
-        <v>9458.333333333334</v>
+        <v>306.4189476835148</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2524,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2542,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9460</v>
+        <v>9540</v>
       </c>
       <c r="C52" t="n">
-        <v>9460</v>
+        <v>9570</v>
       </c>
       <c r="D52" t="n">
-        <v>9460</v>
+        <v>9570</v>
       </c>
       <c r="E52" t="n">
-        <v>9460</v>
+        <v>9540</v>
       </c>
       <c r="F52" t="n">
-        <v>38.3682</v>
+        <v>423.2412</v>
       </c>
       <c r="G52" t="n">
-        <v>9460</v>
+        <v>729.6601476835149</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2566,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2584,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9460</v>
+        <v>9570</v>
       </c>
       <c r="C53" t="n">
-        <v>9460</v>
+        <v>9590</v>
       </c>
       <c r="D53" t="n">
-        <v>9460</v>
+        <v>9590</v>
       </c>
       <c r="E53" t="n">
-        <v>9460</v>
+        <v>9570</v>
       </c>
       <c r="F53" t="n">
-        <v>8.9984</v>
+        <v>407.5558</v>
       </c>
       <c r="G53" t="n">
-        <v>9460</v>
+        <v>1137.215947683515</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2608,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2626,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9450</v>
+        <v>9590</v>
       </c>
       <c r="C54" t="n">
-        <v>9450</v>
+        <v>9590</v>
       </c>
       <c r="D54" t="n">
-        <v>9450</v>
+        <v>9590</v>
       </c>
       <c r="E54" t="n">
-        <v>9450</v>
+        <v>9590</v>
       </c>
       <c r="F54" t="n">
-        <v>3.018</v>
+        <v>7.5946</v>
       </c>
       <c r="G54" t="n">
-        <v>9456.666666666666</v>
+        <v>1137.215947683515</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2668,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="C55" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="D55" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="E55" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="F55" t="n">
-        <v>16.982</v>
+        <v>5.205622071837585</v>
       </c>
       <c r="G55" t="n">
-        <v>9453.333333333334</v>
+        <v>1142.421569755352</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2692,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2710,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="C56" t="n">
-        <v>9450</v>
+        <v>9610</v>
       </c>
       <c r="D56" t="n">
-        <v>9450</v>
+        <v>9610</v>
       </c>
       <c r="E56" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="F56" t="n">
-        <v>3.47</v>
+        <v>312.3585</v>
       </c>
       <c r="G56" t="n">
-        <v>9450</v>
+        <v>1454.780069755353</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2752,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="C57" t="n">
-        <v>9460</v>
+        <v>9605</v>
       </c>
       <c r="D57" t="n">
-        <v>9460</v>
+        <v>9605</v>
       </c>
       <c r="E57" t="n">
-        <v>9450</v>
+        <v>9605</v>
       </c>
       <c r="F57" t="n">
-        <v>18.7288</v>
+        <v>39.5719</v>
       </c>
       <c r="G57" t="n">
-        <v>9453.333333333334</v>
+        <v>1415.208169755353</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2794,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9460</v>
+        <v>9605</v>
       </c>
       <c r="C58" t="n">
-        <v>9460</v>
+        <v>9610</v>
       </c>
       <c r="D58" t="n">
-        <v>9460</v>
+        <v>9610</v>
       </c>
       <c r="E58" t="n">
-        <v>9460</v>
+        <v>9605</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2104651162790698</v>
+        <v>48.69947792816242</v>
       </c>
       <c r="G58" t="n">
-        <v>9456.666666666666</v>
+        <v>1463.907647683515</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2836,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9460</v>
+        <v>9620</v>
       </c>
       <c r="C59" t="n">
-        <v>9460</v>
+        <v>9620</v>
       </c>
       <c r="D59" t="n">
-        <v>9460</v>
+        <v>9620</v>
       </c>
       <c r="E59" t="n">
-        <v>9460</v>
+        <v>9620</v>
       </c>
       <c r="F59" t="n">
-        <v>2.54823488372093</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>9460</v>
+        <v>1503.907647683515</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2860,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2878,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9445</v>
+        <v>9650</v>
       </c>
       <c r="C60" t="n">
-        <v>9445</v>
+        <v>9650</v>
       </c>
       <c r="D60" t="n">
-        <v>9445</v>
+        <v>9650</v>
       </c>
       <c r="E60" t="n">
-        <v>9445</v>
+        <v>9650</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>0.1441450777202073</v>
       </c>
       <c r="G60" t="n">
-        <v>9455</v>
+        <v>1504.051792761235</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,34 +2920,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9530</v>
+        <v>9650</v>
       </c>
       <c r="C61" t="n">
-        <v>9530</v>
+        <v>9650</v>
       </c>
       <c r="D61" t="n">
-        <v>9530</v>
+        <v>9650</v>
       </c>
       <c r="E61" t="n">
-        <v>9530</v>
+        <v>9650</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>9478.333333333334</v>
+        <v>1504.051792761235</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9240</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>1.039372294372295</v>
       </c>
       <c r="N61" t="inlineStr"/>
     </row>
@@ -2598,28 +2962,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9445</v>
+        <v>9625</v>
       </c>
       <c r="C62" t="n">
-        <v>9445</v>
+        <v>9580</v>
       </c>
       <c r="D62" t="n">
-        <v>9445</v>
+        <v>9625</v>
       </c>
       <c r="E62" t="n">
-        <v>9445</v>
+        <v>9580</v>
       </c>
       <c r="F62" t="n">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G62" t="n">
-        <v>9473.333333333334</v>
+        <v>1399.051792761235</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2998,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9445</v>
+        <v>9605</v>
       </c>
       <c r="C63" t="n">
-        <v>9445</v>
+        <v>9600</v>
       </c>
       <c r="D63" t="n">
-        <v>9445</v>
+        <v>9605</v>
       </c>
       <c r="E63" t="n">
-        <v>9440</v>
+        <v>9600</v>
       </c>
       <c r="F63" t="n">
-        <v>23.5539</v>
+        <v>48.1268</v>
       </c>
       <c r="G63" t="n">
-        <v>9473.333333333334</v>
+        <v>1447.178592761235</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +3034,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9445</v>
+        <v>9600</v>
       </c>
       <c r="C64" t="n">
-        <v>9445</v>
+        <v>9600</v>
       </c>
       <c r="D64" t="n">
-        <v>9445</v>
+        <v>9600</v>
       </c>
       <c r="E64" t="n">
-        <v>9445</v>
+        <v>9600</v>
       </c>
       <c r="F64" t="n">
-        <v>5.0951</v>
+        <v>34.1866</v>
       </c>
       <c r="G64" t="n">
-        <v>9445</v>
+        <v>1447.178592761235</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +3070,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9440</v>
+        <v>9600</v>
       </c>
       <c r="C65" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="D65" t="n">
-        <v>9440</v>
+        <v>9600</v>
       </c>
       <c r="E65" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="F65" t="n">
-        <v>15.3445</v>
+        <v>2.6866</v>
       </c>
       <c r="G65" t="n">
-        <v>9436.666666666666</v>
+        <v>1447.178592761235</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +3106,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9425</v>
+        <v>9645</v>
       </c>
       <c r="C66" t="n">
-        <v>9420</v>
+        <v>9645</v>
       </c>
       <c r="D66" t="n">
-        <v>9425</v>
+        <v>9645</v>
       </c>
       <c r="E66" t="n">
-        <v>9420</v>
+        <v>9645</v>
       </c>
       <c r="F66" t="n">
-        <v>124.1393</v>
+        <v>22.8886</v>
       </c>
       <c r="G66" t="n">
-        <v>9428.333333333334</v>
+        <v>1470.067192761235</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +3142,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9485</v>
+        <v>9615</v>
       </c>
       <c r="C67" t="n">
-        <v>9485</v>
+        <v>9645</v>
       </c>
       <c r="D67" t="n">
-        <v>9485</v>
+        <v>9645</v>
       </c>
       <c r="E67" t="n">
-        <v>9485</v>
+        <v>9615</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3524</v>
+        <v>10.9326</v>
       </c>
       <c r="G67" t="n">
-        <v>9441.666666666666</v>
+        <v>1470.067192761235</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,28 +3178,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9420</v>
+        <v>9640</v>
       </c>
       <c r="C68" t="n">
-        <v>9420</v>
+        <v>9640</v>
       </c>
       <c r="D68" t="n">
-        <v>9420</v>
+        <v>9640</v>
       </c>
       <c r="E68" t="n">
-        <v>9420</v>
+        <v>9640</v>
       </c>
       <c r="F68" t="n">
-        <v>6.1229</v>
+        <v>6.9285</v>
       </c>
       <c r="G68" t="n">
-        <v>9441.666666666666</v>
+        <v>1463.138692761235</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +3214,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9420</v>
+        <v>9630</v>
       </c>
       <c r="C69" t="n">
-        <v>9420</v>
+        <v>9630</v>
       </c>
       <c r="D69" t="n">
-        <v>9420</v>
+        <v>9630</v>
       </c>
       <c r="E69" t="n">
-        <v>9420</v>
+        <v>9630</v>
       </c>
       <c r="F69" t="n">
-        <v>23.5437</v>
+        <v>15</v>
       </c>
       <c r="G69" t="n">
-        <v>9441.666666666666</v>
+        <v>1448.138692761235</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,28 +3250,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9490</v>
+        <v>9615</v>
       </c>
       <c r="C70" t="n">
-        <v>9490</v>
+        <v>9605</v>
       </c>
       <c r="D70" t="n">
-        <v>9490</v>
+        <v>9615</v>
       </c>
       <c r="E70" t="n">
-        <v>9490</v>
+        <v>9605</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3124</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>9443.333333333334</v>
+        <v>1348.138692761235</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +3286,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9420</v>
+        <v>9610</v>
       </c>
       <c r="C71" t="n">
-        <v>9420</v>
+        <v>9625</v>
       </c>
       <c r="D71" t="n">
-        <v>9420</v>
+        <v>9625</v>
       </c>
       <c r="E71" t="n">
-        <v>9420</v>
+        <v>9610</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>22.4112</v>
       </c>
       <c r="G71" t="n">
-        <v>9443.333333333334</v>
+        <v>1370.549892761235</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +3322,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9430</v>
+        <v>9625</v>
       </c>
       <c r="C72" t="n">
-        <v>9430</v>
+        <v>9660</v>
       </c>
       <c r="D72" t="n">
-        <v>9430</v>
+        <v>9660</v>
       </c>
       <c r="E72" t="n">
-        <v>9430</v>
+        <v>9625</v>
       </c>
       <c r="F72" t="n">
-        <v>1.48</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>9446.666666666666</v>
+        <v>1381.549892761235</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +3358,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9490</v>
+        <v>9655</v>
       </c>
       <c r="C73" t="n">
-        <v>9490</v>
+        <v>9670</v>
       </c>
       <c r="D73" t="n">
-        <v>9490</v>
+        <v>9670</v>
       </c>
       <c r="E73" t="n">
-        <v>9490</v>
+        <v>9655</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>9446.666666666666</v>
+        <v>1481.549892761235</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3394,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9455</v>
+        <v>9635</v>
       </c>
       <c r="C74" t="n">
-        <v>9455</v>
+        <v>9635</v>
       </c>
       <c r="D74" t="n">
-        <v>9455</v>
+        <v>9635</v>
       </c>
       <c r="E74" t="n">
-        <v>9455</v>
+        <v>9635</v>
       </c>
       <c r="F74" t="n">
-        <v>11.5252</v>
+        <v>9.522</v>
       </c>
       <c r="G74" t="n">
-        <v>9458.333333333334</v>
+        <v>1472.027892761235</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3430,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9450</v>
+        <v>9630</v>
       </c>
       <c r="C75" t="n">
-        <v>9450</v>
+        <v>9620</v>
       </c>
       <c r="D75" t="n">
-        <v>9450</v>
+        <v>9630</v>
       </c>
       <c r="E75" t="n">
-        <v>9450</v>
+        <v>9620</v>
       </c>
       <c r="F75" t="n">
-        <v>41.1624</v>
+        <v>78.0951</v>
       </c>
       <c r="G75" t="n">
-        <v>9465</v>
+        <v>1393.932792761235</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,28 +3466,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9450</v>
+        <v>9615</v>
       </c>
       <c r="C76" t="n">
-        <v>9440</v>
+        <v>9605</v>
       </c>
       <c r="D76" t="n">
-        <v>9450</v>
+        <v>9615</v>
       </c>
       <c r="E76" t="n">
-        <v>9440</v>
+        <v>9605</v>
       </c>
       <c r="F76" t="n">
-        <v>39.4402</v>
+        <v>74.1555</v>
       </c>
       <c r="G76" t="n">
-        <v>9448.333333333334</v>
+        <v>1319.777292761235</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3502,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9415</v>
+        <v>9605</v>
       </c>
       <c r="C77" t="n">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="D77" t="n">
-        <v>9415</v>
+        <v>9605</v>
       </c>
       <c r="E77" t="n">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F77" t="n">
-        <v>103.0295</v>
+        <v>36.1472</v>
       </c>
       <c r="G77" t="n">
-        <v>9430</v>
+        <v>1283.630092761235</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3538,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9445</v>
+        <v>9590</v>
       </c>
       <c r="C78" t="n">
-        <v>9445</v>
+        <v>9515</v>
       </c>
       <c r="D78" t="n">
-        <v>9445</v>
+        <v>9610</v>
       </c>
       <c r="E78" t="n">
-        <v>9445</v>
+        <v>9515</v>
       </c>
       <c r="F78" t="n">
-        <v>15</v>
+        <v>33.6589</v>
       </c>
       <c r="G78" t="n">
-        <v>9428.333333333334</v>
+        <v>1249.971192761235</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3574,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="C79" t="n">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="D79" t="n">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E79" t="n">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F79" t="n">
-        <v>28.1042</v>
+        <v>14.1041</v>
       </c>
       <c r="G79" t="n">
-        <v>9415</v>
+        <v>1264.075292761235</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3610,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9390</v>
+        <v>9590</v>
       </c>
       <c r="C80" t="n">
-        <v>9390</v>
+        <v>9510</v>
       </c>
       <c r="D80" t="n">
-        <v>9390</v>
+        <v>9590</v>
       </c>
       <c r="E80" t="n">
-        <v>9390</v>
+        <v>9510</v>
       </c>
       <c r="F80" t="n">
-        <v>11.3064</v>
+        <v>16.4229</v>
       </c>
       <c r="G80" t="n">
-        <v>9411.666666666666</v>
+        <v>1247.652392761235</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3646,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9445</v>
+        <v>9590</v>
       </c>
       <c r="C81" t="n">
-        <v>9460</v>
+        <v>9590</v>
       </c>
       <c r="D81" t="n">
-        <v>9460</v>
+        <v>9590</v>
       </c>
       <c r="E81" t="n">
-        <v>9445</v>
+        <v>9590</v>
       </c>
       <c r="F81" t="n">
-        <v>19.97768726215645</v>
+        <v>7.0595</v>
       </c>
       <c r="G81" t="n">
-        <v>9416.666666666666</v>
+        <v>1254.711892761235</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3682,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="C82" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="D82" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="E82" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="F82" t="n">
-        <v>275.4038</v>
+        <v>28.0906</v>
       </c>
       <c r="G82" t="n">
-        <v>9413.333333333334</v>
+        <v>1226.621292761235</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,22 +3718,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9460</v>
+        <v>9515</v>
       </c>
       <c r="C83" t="n">
-        <v>9465</v>
+        <v>9515</v>
       </c>
       <c r="D83" t="n">
-        <v>9465</v>
+        <v>9515</v>
       </c>
       <c r="E83" t="n">
-        <v>9460</v>
+        <v>9515</v>
       </c>
       <c r="F83" t="n">
-        <v>17.5426</v>
+        <v>19.714</v>
       </c>
       <c r="G83" t="n">
-        <v>9438.333333333334</v>
+        <v>1226.621292761235</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3754,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9415</v>
+        <v>9515</v>
       </c>
       <c r="C84" t="n">
-        <v>9415</v>
+        <v>9515</v>
       </c>
       <c r="D84" t="n">
-        <v>9415</v>
+        <v>9515</v>
       </c>
       <c r="E84" t="n">
-        <v>9415</v>
+        <v>9515</v>
       </c>
       <c r="F84" t="n">
-        <v>30</v>
+        <v>91.5192</v>
       </c>
       <c r="G84" t="n">
-        <v>9423.333333333334</v>
+        <v>1226.621292761235</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3790,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9395</v>
+        <v>9480</v>
       </c>
       <c r="C85" t="n">
-        <v>9380</v>
+        <v>9480</v>
       </c>
       <c r="D85" t="n">
-        <v>9395</v>
+        <v>9480</v>
       </c>
       <c r="E85" t="n">
-        <v>9380</v>
+        <v>9475</v>
       </c>
       <c r="F85" t="n">
-        <v>124.1393</v>
+        <v>266.0756</v>
       </c>
       <c r="G85" t="n">
-        <v>9420</v>
+        <v>960.5456927612353</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3826,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9400</v>
+        <v>9475</v>
       </c>
       <c r="C86" t="n">
-        <v>9380</v>
+        <v>9425</v>
       </c>
       <c r="D86" t="n">
-        <v>9400</v>
+        <v>9475</v>
       </c>
       <c r="E86" t="n">
-        <v>9380</v>
+        <v>9425</v>
       </c>
       <c r="F86" t="n">
-        <v>38.4188</v>
+        <v>291.8799</v>
       </c>
       <c r="G86" t="n">
-        <v>9391.666666666666</v>
+        <v>668.6657927612353</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3862,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="C87" t="n">
-        <v>9475</v>
+        <v>9495</v>
       </c>
       <c r="D87" t="n">
-        <v>9475</v>
+        <v>9495</v>
       </c>
       <c r="E87" t="n">
-        <v>9475</v>
+        <v>9430</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2312</v>
+        <v>37.0776</v>
       </c>
       <c r="G87" t="n">
-        <v>9411.666666666666</v>
+        <v>705.7433927612352</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3898,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9475</v>
+        <v>9495</v>
       </c>
       <c r="C88" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="D88" t="n">
-        <v>9475</v>
+        <v>9505</v>
       </c>
       <c r="E88" t="n">
-        <v>9475</v>
+        <v>9495</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1054</v>
+        <v>145.8052</v>
       </c>
       <c r="G88" t="n">
-        <v>9443.333333333334</v>
+        <v>851.5485927612352</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3934,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="C89" t="n">
-        <v>9365</v>
+        <v>9425</v>
       </c>
       <c r="D89" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="E89" t="n">
-        <v>9365</v>
+        <v>9425</v>
       </c>
       <c r="F89" t="n">
-        <v>494.982</v>
+        <v>62.8417</v>
       </c>
       <c r="G89" t="n">
-        <v>9438.333333333334</v>
+        <v>788.7068927612352</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3970,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9470</v>
+        <v>9420</v>
       </c>
       <c r="C90" t="n">
-        <v>9470</v>
+        <v>9440</v>
       </c>
       <c r="D90" t="n">
-        <v>9470</v>
+        <v>9440</v>
       </c>
       <c r="E90" t="n">
-        <v>9470</v>
+        <v>9420</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1</v>
+        <v>61.7789</v>
       </c>
       <c r="G90" t="n">
-        <v>9436.666666666666</v>
+        <v>850.4857927612352</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +4006,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9370</v>
+        <v>9440</v>
       </c>
       <c r="C91" t="n">
-        <v>9445</v>
+        <v>9440</v>
       </c>
       <c r="D91" t="n">
-        <v>9445</v>
+        <v>9440</v>
       </c>
       <c r="E91" t="n">
-        <v>9360</v>
+        <v>9440</v>
       </c>
       <c r="F91" t="n">
-        <v>48.9665</v>
+        <v>2.3124</v>
       </c>
       <c r="G91" t="n">
-        <v>9426.666666666666</v>
+        <v>850.4857927612352</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +4042,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9370</v>
+        <v>9425</v>
       </c>
       <c r="C92" t="n">
-        <v>9350</v>
+        <v>9420</v>
       </c>
       <c r="D92" t="n">
-        <v>9370</v>
+        <v>9425</v>
       </c>
       <c r="E92" t="n">
-        <v>9350</v>
+        <v>9420</v>
       </c>
       <c r="F92" t="n">
-        <v>60</v>
+        <v>7.3468</v>
       </c>
       <c r="G92" t="n">
-        <v>9421.666666666666</v>
+        <v>843.1389927612352</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +4078,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9435</v>
+        <v>9425</v>
       </c>
       <c r="C93" t="n">
-        <v>9435</v>
+        <v>9420</v>
       </c>
       <c r="D93" t="n">
-        <v>9435</v>
+        <v>9425</v>
       </c>
       <c r="E93" t="n">
-        <v>9435</v>
+        <v>9420</v>
       </c>
       <c r="F93" t="n">
-        <v>8.887</v>
+        <v>59.514</v>
       </c>
       <c r="G93" t="n">
-        <v>9410</v>
+        <v>843.1389927612352</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +4114,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="C94" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="D94" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="E94" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="F94" t="n">
-        <v>4.717</v>
+        <v>0.8461</v>
       </c>
       <c r="G94" t="n">
-        <v>9406.666666666666</v>
+        <v>842.2928927612352</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +4150,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9410</v>
+        <v>9370</v>
       </c>
       <c r="C95" t="n">
-        <v>9430</v>
+        <v>9370</v>
       </c>
       <c r="D95" t="n">
-        <v>9430</v>
+        <v>9370</v>
       </c>
       <c r="E95" t="n">
-        <v>9410</v>
+        <v>9370</v>
       </c>
       <c r="F95" t="n">
-        <v>69.1491</v>
+        <v>6.6318</v>
       </c>
       <c r="G95" t="n">
-        <v>9433.333333333334</v>
+        <v>835.6610927612352</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +4186,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9430</v>
+        <v>9400</v>
       </c>
       <c r="C96" t="n">
-        <v>9435</v>
+        <v>9400</v>
       </c>
       <c r="D96" t="n">
-        <v>9435</v>
+        <v>9400</v>
       </c>
       <c r="E96" t="n">
-        <v>9370</v>
+        <v>9400</v>
       </c>
       <c r="F96" t="n">
-        <v>73.2889</v>
+        <v>17.5462</v>
       </c>
       <c r="G96" t="n">
-        <v>9433.333333333334</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +4222,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="C97" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="D97" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="E97" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="F97" t="n">
-        <v>53.2197</v>
+        <v>32.4538</v>
       </c>
       <c r="G97" t="n">
-        <v>9430</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +4258,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9430</v>
+        <v>9405</v>
       </c>
       <c r="C98" t="n">
-        <v>9435</v>
+        <v>9400</v>
       </c>
       <c r="D98" t="n">
-        <v>9435</v>
+        <v>9405</v>
       </c>
       <c r="E98" t="n">
-        <v>9430</v>
+        <v>9400</v>
       </c>
       <c r="F98" t="n">
-        <v>197.3513</v>
+        <v>55.0324</v>
       </c>
       <c r="G98" t="n">
-        <v>9431.666666666666</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +4294,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9465</v>
+        <v>9400</v>
       </c>
       <c r="C99" t="n">
-        <v>9465</v>
+        <v>9400</v>
       </c>
       <c r="D99" t="n">
-        <v>9465</v>
+        <v>9400</v>
       </c>
       <c r="E99" t="n">
-        <v>9465</v>
+        <v>9400</v>
       </c>
       <c r="F99" t="n">
-        <v>2.3124</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>9441.666666666666</v>
+        <v>853.2072927612352</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4330,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9465</v>
+        <v>9400</v>
       </c>
       <c r="C100" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="D100" t="n">
-        <v>9465</v>
+        <v>9430</v>
       </c>
       <c r="E100" t="n">
-        <v>9465</v>
+        <v>9400</v>
       </c>
       <c r="F100" t="n">
-        <v>198.5186</v>
+        <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>9455</v>
+        <v>853.3072927612352</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4366,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="C101" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="D101" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="E101" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>9465</v>
+        <v>873.3072927612352</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4402,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9465</v>
+        <v>9460</v>
       </c>
       <c r="C102" t="n">
-        <v>9465</v>
+        <v>9460</v>
       </c>
       <c r="D102" t="n">
-        <v>9465</v>
+        <v>9460</v>
       </c>
       <c r="E102" t="n">
-        <v>9465</v>
+        <v>9460</v>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>9465</v>
+        <v>893.3072927612352</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4438,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9455</v>
+        <v>9460</v>
       </c>
       <c r="C103" t="n">
-        <v>9455</v>
+        <v>9460</v>
       </c>
       <c r="D103" t="n">
-        <v>9455</v>
+        <v>9460</v>
       </c>
       <c r="E103" t="n">
-        <v>9455</v>
+        <v>9460</v>
       </c>
       <c r="F103" t="n">
-        <v>12.4955</v>
+        <v>11.7485</v>
       </c>
       <c r="G103" t="n">
-        <v>9461.666666666666</v>
+        <v>893.3072927612352</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4474,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9390</v>
+        <v>9470</v>
       </c>
       <c r="C104" t="n">
-        <v>9390</v>
+        <v>9470</v>
       </c>
       <c r="D104" t="n">
-        <v>9390</v>
+        <v>9505</v>
       </c>
       <c r="E104" t="n">
-        <v>9390</v>
+        <v>9470</v>
       </c>
       <c r="F104" t="n">
-        <v>1.1</v>
+        <v>18.9484</v>
       </c>
       <c r="G104" t="n">
-        <v>9436.666666666666</v>
+        <v>912.2556927612352</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4510,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9395</v>
+        <v>9475</v>
       </c>
       <c r="C105" t="n">
-        <v>9390</v>
+        <v>9475</v>
       </c>
       <c r="D105" t="n">
-        <v>9395</v>
+        <v>9475</v>
       </c>
       <c r="E105" t="n">
-        <v>9390</v>
+        <v>9475</v>
       </c>
       <c r="F105" t="n">
-        <v>103.0295</v>
+        <v>9.8353</v>
       </c>
       <c r="G105" t="n">
-        <v>9411.666666666666</v>
+        <v>922.0909927612352</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4546,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9390</v>
+        <v>9470</v>
       </c>
       <c r="C106" t="n">
-        <v>9415</v>
+        <v>9470</v>
       </c>
       <c r="D106" t="n">
-        <v>9415</v>
+        <v>9470</v>
       </c>
       <c r="E106" t="n">
-        <v>9390</v>
+        <v>9470</v>
       </c>
       <c r="F106" t="n">
-        <v>4.7569</v>
+        <v>5.1064</v>
       </c>
       <c r="G106" t="n">
-        <v>9398.333333333334</v>
+        <v>916.9845927612351</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4582,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9435</v>
+        <v>9505</v>
       </c>
       <c r="C107" t="n">
-        <v>9435</v>
+        <v>9505</v>
       </c>
       <c r="D107" t="n">
-        <v>9435</v>
+        <v>9505</v>
       </c>
       <c r="E107" t="n">
-        <v>9435</v>
+        <v>9505</v>
       </c>
       <c r="F107" t="n">
-        <v>4.182</v>
+        <v>0.3124</v>
       </c>
       <c r="G107" t="n">
-        <v>9413.333333333334</v>
+        <v>917.2969927612352</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4618,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9390</v>
+        <v>9500</v>
       </c>
       <c r="C108" t="n">
-        <v>9390</v>
+        <v>9500</v>
       </c>
       <c r="D108" t="n">
-        <v>9390</v>
+        <v>9500</v>
       </c>
       <c r="E108" t="n">
-        <v>9390</v>
+        <v>9500</v>
       </c>
       <c r="F108" t="n">
-        <v>81.60129999999999</v>
+        <v>14.3753</v>
       </c>
       <c r="G108" t="n">
-        <v>9413.333333333334</v>
+        <v>902.9216927612351</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4654,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9390</v>
+        <v>9500</v>
       </c>
       <c r="C109" t="n">
-        <v>9390</v>
+        <v>9520</v>
       </c>
       <c r="D109" t="n">
-        <v>9390</v>
+        <v>9520</v>
       </c>
       <c r="E109" t="n">
-        <v>9390</v>
+        <v>9500</v>
       </c>
       <c r="F109" t="n">
-        <v>187.9928</v>
+        <v>80.7428</v>
       </c>
       <c r="G109" t="n">
-        <v>9405</v>
+        <v>983.6644927612351</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,38 +4690,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9395</v>
+        <v>9520</v>
       </c>
       <c r="C110" t="n">
-        <v>9385</v>
+        <v>9510</v>
       </c>
       <c r="D110" t="n">
-        <v>9395</v>
+        <v>9570</v>
       </c>
       <c r="E110" t="n">
-        <v>9385</v>
+        <v>9510</v>
       </c>
       <c r="F110" t="n">
-        <v>104.8939</v>
+        <v>272.989</v>
       </c>
       <c r="G110" t="n">
-        <v>9388.333333333334</v>
+        <v>710.6754927612351</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>9390</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4368,38 +4726,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9385</v>
+        <v>9510</v>
       </c>
       <c r="C111" t="n">
-        <v>9385</v>
+        <v>9535</v>
       </c>
       <c r="D111" t="n">
-        <v>9385</v>
+        <v>9535</v>
       </c>
       <c r="E111" t="n">
-        <v>9385</v>
+        <v>9510</v>
       </c>
       <c r="F111" t="n">
-        <v>17.8375</v>
+        <v>82.97799999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>9386.666666666666</v>
+        <v>793.653492761235</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>9385</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4410,38 +4762,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9430</v>
+        <v>9530</v>
       </c>
       <c r="C112" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="D112" t="n">
-        <v>9430</v>
+        <v>9535</v>
       </c>
       <c r="E112" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="F112" t="n">
-        <v>3.77</v>
+        <v>462.9327</v>
       </c>
       <c r="G112" t="n">
-        <v>9400</v>
+        <v>330.720792761235</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>9385</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4452,38 +4798,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9435</v>
+        <v>9510</v>
       </c>
       <c r="C113" t="n">
-        <v>9440</v>
+        <v>9510</v>
       </c>
       <c r="D113" t="n">
-        <v>9440</v>
+        <v>9510</v>
       </c>
       <c r="E113" t="n">
-        <v>9435</v>
+        <v>9510</v>
       </c>
       <c r="F113" t="n">
-        <v>70.46729999999999</v>
+        <v>70</v>
       </c>
       <c r="G113" t="n">
-        <v>9418.333333333334</v>
+        <v>330.720792761235</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4494,38 +4834,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9455</v>
+        <v>9510</v>
       </c>
       <c r="C114" t="n">
-        <v>9495</v>
+        <v>9440</v>
       </c>
       <c r="D114" t="n">
-        <v>9495</v>
+        <v>9510</v>
       </c>
       <c r="E114" t="n">
-        <v>9455</v>
+        <v>9440</v>
       </c>
       <c r="F114" t="n">
-        <v>239.4349</v>
+        <v>64.0646</v>
       </c>
       <c r="G114" t="n">
-        <v>9455</v>
+        <v>266.656192761235</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>9440</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4536,38 +4870,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="C115" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="D115" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="E115" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="F115" t="n">
-        <v>50.3</v>
+        <v>3.9383</v>
       </c>
       <c r="G115" t="n">
-        <v>9476.666666666666</v>
+        <v>270.5944927612351</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>9495</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4906,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="C116" t="n">
         <v>9490</v>
       </c>
       <c r="D116" t="n">
-        <v>9495</v>
+        <v>9490</v>
       </c>
       <c r="E116" t="n">
         <v>9490</v>
       </c>
       <c r="F116" t="n">
-        <v>30.2</v>
+        <v>11.159</v>
       </c>
       <c r="G116" t="n">
-        <v>9493.333333333334</v>
+        <v>270.5944927612351</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4603,11 +4931,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4618,22 +4942,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C117" t="n">
         <v>9490</v>
       </c>
-      <c r="C117" t="n">
-        <v>9435</v>
-      </c>
       <c r="D117" t="n">
-        <v>9495</v>
+        <v>9500</v>
       </c>
       <c r="E117" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="F117" t="n">
-        <v>105.8105</v>
+        <v>49.2068</v>
       </c>
       <c r="G117" t="n">
-        <v>9473.333333333334</v>
+        <v>270.5944927612351</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4643,11 +4967,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4658,22 +4978,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9495</v>
+        <v>9465</v>
       </c>
       <c r="C118" t="n">
-        <v>9495</v>
+        <v>9460</v>
       </c>
       <c r="D118" t="n">
-        <v>9495</v>
+        <v>9465</v>
       </c>
       <c r="E118" t="n">
-        <v>9495</v>
+        <v>9460</v>
       </c>
       <c r="F118" t="n">
-        <v>12.0535</v>
+        <v>15.4439</v>
       </c>
       <c r="G118" t="n">
-        <v>9473.333333333334</v>
+        <v>255.1505927612351</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4683,11 +5003,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4698,38 +5014,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="C119" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="D119" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="E119" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="F119" t="n">
-        <v>1.0537</v>
+        <v>22.2778</v>
       </c>
       <c r="G119" t="n">
-        <v>9473.333333333334</v>
+        <v>232.8727927612351</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9495</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4740,22 +5050,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9435</v>
+        <v>9455</v>
       </c>
       <c r="C120" t="n">
-        <v>9435</v>
+        <v>9455</v>
       </c>
       <c r="D120" t="n">
-        <v>9435</v>
+        <v>9455</v>
       </c>
       <c r="E120" t="n">
-        <v>9435</v>
+        <v>9455</v>
       </c>
       <c r="F120" t="n">
-        <v>18.6896</v>
+        <v>2.4893</v>
       </c>
       <c r="G120" t="n">
-        <v>9473.333333333334</v>
+        <v>232.8727927612351</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4765,11 +5075,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +5086,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9435</v>
+        <v>9455</v>
       </c>
       <c r="C121" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="D121" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="E121" t="n">
-        <v>9435</v>
+        <v>9455</v>
       </c>
       <c r="F121" t="n">
-        <v>26.28</v>
+        <v>31.3473</v>
       </c>
       <c r="G121" t="n">
-        <v>9453.333333333334</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4805,11 +5111,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +5122,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9485</v>
+        <v>9460</v>
       </c>
       <c r="C122" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="D122" t="n">
-        <v>9490</v>
+        <v>9460</v>
       </c>
       <c r="E122" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="F122" t="n">
-        <v>27.9078</v>
+        <v>198.3543</v>
       </c>
       <c r="G122" t="n">
-        <v>9435</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4845,11 +5147,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +5158,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="C123" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="D123" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="E123" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="F123" t="n">
-        <v>56.3546</v>
+        <v>38.3682</v>
       </c>
       <c r="G123" t="n">
-        <v>9433.333333333334</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4885,11 +5183,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4900,22 +5194,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="C124" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="D124" t="n">
-        <v>9435</v>
+        <v>9460</v>
       </c>
       <c r="E124" t="n">
-        <v>9430</v>
+        <v>9460</v>
       </c>
       <c r="F124" t="n">
-        <v>70.72790000000001</v>
+        <v>8.9984</v>
       </c>
       <c r="G124" t="n">
-        <v>9431.666666666666</v>
+        <v>264.2200927612351</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4925,11 +5219,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4940,22 +5230,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9430</v>
+        <v>9450</v>
       </c>
       <c r="C125" t="n">
-        <v>9430</v>
+        <v>9450</v>
       </c>
       <c r="D125" t="n">
-        <v>9430</v>
+        <v>9450</v>
       </c>
       <c r="E125" t="n">
-        <v>9430</v>
+        <v>9450</v>
       </c>
       <c r="F125" t="n">
-        <v>4.492</v>
+        <v>3.018</v>
       </c>
       <c r="G125" t="n">
-        <v>9430</v>
+        <v>261.2020927612351</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4965,11 +5255,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4980,22 +5266,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9485</v>
+        <v>9450</v>
       </c>
       <c r="C126" t="n">
-        <v>9495</v>
+        <v>9450</v>
       </c>
       <c r="D126" t="n">
-        <v>9495</v>
+        <v>9450</v>
       </c>
       <c r="E126" t="n">
-        <v>9485</v>
+        <v>9450</v>
       </c>
       <c r="F126" t="n">
-        <v>87.4866</v>
+        <v>16.982</v>
       </c>
       <c r="G126" t="n">
-        <v>9451.666666666666</v>
+        <v>261.2020927612351</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5005,11 +5291,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5020,22 +5302,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9495</v>
+        <v>9450</v>
       </c>
       <c r="C127" t="n">
-        <v>9495</v>
+        <v>9450</v>
       </c>
       <c r="D127" t="n">
-        <v>9495</v>
+        <v>9450</v>
       </c>
       <c r="E127" t="n">
-        <v>9495</v>
+        <v>9450</v>
       </c>
       <c r="F127" t="n">
-        <v>77.6979</v>
+        <v>3.47</v>
       </c>
       <c r="G127" t="n">
-        <v>9473.333333333334</v>
+        <v>261.2020927612351</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5045,11 +5327,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5060,22 +5338,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9500</v>
+        <v>9450</v>
       </c>
       <c r="C128" t="n">
-        <v>9500</v>
+        <v>9460</v>
       </c>
       <c r="D128" t="n">
-        <v>9500</v>
+        <v>9460</v>
       </c>
       <c r="E128" t="n">
-        <v>9500</v>
+        <v>9450</v>
       </c>
       <c r="F128" t="n">
-        <v>6.4855</v>
+        <v>18.7288</v>
       </c>
       <c r="G128" t="n">
-        <v>9496.666666666666</v>
+        <v>279.9308927612351</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5085,11 +5363,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5100,22 +5374,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="C129" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="D129" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="E129" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="F129" t="n">
-        <v>3.8094</v>
+        <v>0.2104651162790698</v>
       </c>
       <c r="G129" t="n">
-        <v>9500</v>
+        <v>279.9308927612351</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5125,11 +5399,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5140,22 +5410,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="C130" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="D130" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="E130" t="n">
-        <v>9505</v>
+        <v>9460</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>2.54823488372093</v>
       </c>
       <c r="G130" t="n">
-        <v>9503.333333333334</v>
+        <v>279.9308927612351</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5165,11 +5435,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5180,22 +5446,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9520</v>
+        <v>9445</v>
       </c>
       <c r="C131" t="n">
-        <v>9545</v>
+        <v>9445</v>
       </c>
       <c r="D131" t="n">
-        <v>9545</v>
+        <v>9445</v>
       </c>
       <c r="E131" t="n">
-        <v>9505</v>
+        <v>9445</v>
       </c>
       <c r="F131" t="n">
-        <v>30.9901</v>
+        <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>9518.333333333334</v>
+        <v>276.9308927612351</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5205,11 +5471,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5220,22 +5482,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C132" t="n">
-        <v>9545</v>
+        <v>9530</v>
       </c>
       <c r="D132" t="n">
-        <v>9545</v>
+        <v>9530</v>
       </c>
       <c r="E132" t="n">
-        <v>9505</v>
+        <v>9530</v>
       </c>
       <c r="F132" t="n">
-        <v>104.9612</v>
+        <v>0.1</v>
       </c>
       <c r="G132" t="n">
-        <v>9531.666666666666</v>
+        <v>277.0308927612351</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5245,11 +5507,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5260,22 +5518,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="C133" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="D133" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="E133" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="F133" t="n">
-        <v>87.5945</v>
+        <v>16</v>
       </c>
       <c r="G133" t="n">
-        <v>9543.333333333334</v>
+        <v>261.0308927612351</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5285,11 +5543,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5300,22 +5554,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9575</v>
+        <v>9445</v>
       </c>
       <c r="C134" t="n">
-        <v>9575</v>
+        <v>9445</v>
       </c>
       <c r="D134" t="n">
-        <v>9575</v>
+        <v>9445</v>
       </c>
       <c r="E134" t="n">
-        <v>9575</v>
+        <v>9440</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3524</v>
+        <v>23.5539</v>
       </c>
       <c r="G134" t="n">
-        <v>9553.333333333334</v>
+        <v>261.0308927612351</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5325,11 +5579,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5340,22 +5590,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9575</v>
+        <v>9445</v>
       </c>
       <c r="C135" t="n">
-        <v>9580</v>
+        <v>9445</v>
       </c>
       <c r="D135" t="n">
-        <v>9580</v>
+        <v>9445</v>
       </c>
       <c r="E135" t="n">
-        <v>9575</v>
+        <v>9445</v>
       </c>
       <c r="F135" t="n">
-        <v>15</v>
+        <v>5.0951</v>
       </c>
       <c r="G135" t="n">
-        <v>9565</v>
+        <v>261.0308927612351</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5365,11 +5615,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5380,22 +5626,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9575</v>
+        <v>9440</v>
       </c>
       <c r="C136" t="n">
-        <v>9580</v>
+        <v>9420</v>
       </c>
       <c r="D136" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="E136" t="n">
-        <v>9575</v>
+        <v>9420</v>
       </c>
       <c r="F136" t="n">
-        <v>37.678</v>
+        <v>15.3445</v>
       </c>
       <c r="G136" t="n">
-        <v>9578.333333333334</v>
+        <v>245.6863927612351</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5405,11 +5651,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5420,22 +5662,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9575</v>
+        <v>9425</v>
       </c>
       <c r="C137" t="n">
-        <v>9575</v>
+        <v>9420</v>
       </c>
       <c r="D137" t="n">
-        <v>9575</v>
+        <v>9425</v>
       </c>
       <c r="E137" t="n">
-        <v>9575</v>
+        <v>9420</v>
       </c>
       <c r="F137" t="n">
-        <v>58.122</v>
+        <v>124.1393</v>
       </c>
       <c r="G137" t="n">
-        <v>9578.333333333334</v>
+        <v>245.6863927612351</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5445,11 +5687,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5460,22 +5698,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9575</v>
+        <v>9485</v>
       </c>
       <c r="C138" t="n">
-        <v>9540</v>
+        <v>9485</v>
       </c>
       <c r="D138" t="n">
-        <v>9575</v>
+        <v>9485</v>
       </c>
       <c r="E138" t="n">
-        <v>9540</v>
+        <v>9485</v>
       </c>
       <c r="F138" t="n">
-        <v>5.508</v>
+        <v>0.3524</v>
       </c>
       <c r="G138" t="n">
-        <v>9565</v>
+        <v>246.0387927612351</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5485,11 +5723,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5500,22 +5734,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9535</v>
+        <v>9420</v>
       </c>
       <c r="C139" t="n">
-        <v>9535</v>
+        <v>9420</v>
       </c>
       <c r="D139" t="n">
-        <v>9535</v>
+        <v>9420</v>
       </c>
       <c r="E139" t="n">
-        <v>9535</v>
+        <v>9420</v>
       </c>
       <c r="F139" t="n">
-        <v>11.4889</v>
+        <v>6.1229</v>
       </c>
       <c r="G139" t="n">
-        <v>9550</v>
+        <v>239.9158927612351</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5525,11 +5759,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5540,22 +5770,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9535</v>
+        <v>9420</v>
       </c>
       <c r="C140" t="n">
-        <v>9530</v>
+        <v>9420</v>
       </c>
       <c r="D140" t="n">
-        <v>9535</v>
+        <v>9420</v>
       </c>
       <c r="E140" t="n">
-        <v>9530</v>
+        <v>9420</v>
       </c>
       <c r="F140" t="n">
-        <v>39.8345</v>
+        <v>23.5437</v>
       </c>
       <c r="G140" t="n">
-        <v>9535</v>
+        <v>239.9158927612351</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5565,11 +5795,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5580,22 +5806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9575</v>
+        <v>9490</v>
       </c>
       <c r="C141" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="D141" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="E141" t="n">
-        <v>9575</v>
+        <v>9490</v>
       </c>
       <c r="F141" t="n">
-        <v>52.2212</v>
+        <v>0.3124</v>
       </c>
       <c r="G141" t="n">
-        <v>9548.333333333334</v>
+        <v>240.2282927612351</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5605,11 +5831,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5620,22 +5842,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9580</v>
+        <v>9420</v>
       </c>
       <c r="C142" t="n">
-        <v>9580</v>
+        <v>9420</v>
       </c>
       <c r="D142" t="n">
-        <v>9580</v>
+        <v>9420</v>
       </c>
       <c r="E142" t="n">
-        <v>9580</v>
+        <v>9420</v>
       </c>
       <c r="F142" t="n">
-        <v>15.3019</v>
+        <v>4</v>
       </c>
       <c r="G142" t="n">
-        <v>9563.333333333334</v>
+        <v>236.2282927612351</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5645,11 +5867,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5660,22 +5878,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9580</v>
+        <v>9430</v>
       </c>
       <c r="C143" t="n">
-        <v>9580</v>
+        <v>9430</v>
       </c>
       <c r="D143" t="n">
-        <v>9580</v>
+        <v>9430</v>
       </c>
       <c r="E143" t="n">
-        <v>9580</v>
+        <v>9430</v>
       </c>
       <c r="F143" t="n">
-        <v>7.8731</v>
+        <v>1.48</v>
       </c>
       <c r="G143" t="n">
-        <v>9580</v>
+        <v>237.7082927612351</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5685,11 +5903,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5700,22 +5914,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="C144" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="D144" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="E144" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="F144" t="n">
-        <v>88.1414</v>
+        <v>0.2</v>
       </c>
       <c r="G144" t="n">
-        <v>9580</v>
+        <v>237.9082927612351</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5725,11 +5939,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5740,22 +5950,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="C145" t="n">
-        <v>9590</v>
+        <v>9455</v>
       </c>
       <c r="D145" t="n">
-        <v>9590</v>
+        <v>9455</v>
       </c>
       <c r="E145" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="F145" t="n">
-        <v>116.3484</v>
+        <v>11.5252</v>
       </c>
       <c r="G145" t="n">
-        <v>9583.333333333334</v>
+        <v>226.3830927612351</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5765,11 +5975,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5780,22 +5986,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9585</v>
+        <v>9450</v>
       </c>
       <c r="C146" t="n">
-        <v>9590</v>
+        <v>9450</v>
       </c>
       <c r="D146" t="n">
-        <v>9590</v>
+        <v>9450</v>
       </c>
       <c r="E146" t="n">
-        <v>9585</v>
+        <v>9450</v>
       </c>
       <c r="F146" t="n">
-        <v>38.8563</v>
+        <v>41.1624</v>
       </c>
       <c r="G146" t="n">
-        <v>9586.666666666666</v>
+        <v>185.2206927612351</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5805,11 +6011,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5820,22 +6022,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9585</v>
+        <v>9450</v>
       </c>
       <c r="C147" t="n">
-        <v>9515</v>
+        <v>9440</v>
       </c>
       <c r="D147" t="n">
-        <v>9585</v>
+        <v>9450</v>
       </c>
       <c r="E147" t="n">
-        <v>9515</v>
+        <v>9440</v>
       </c>
       <c r="F147" t="n">
-        <v>114.2728</v>
+        <v>39.4402</v>
       </c>
       <c r="G147" t="n">
-        <v>9565</v>
+        <v>145.7804927612351</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5845,11 +6047,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5860,22 +6058,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9520</v>
+        <v>9415</v>
       </c>
       <c r="C148" t="n">
-        <v>9510</v>
+        <v>9400</v>
       </c>
       <c r="D148" t="n">
-        <v>9520</v>
+        <v>9415</v>
       </c>
       <c r="E148" t="n">
-        <v>9510</v>
+        <v>9400</v>
       </c>
       <c r="F148" t="n">
-        <v>312.2241</v>
+        <v>103.0295</v>
       </c>
       <c r="G148" t="n">
-        <v>9538.333333333334</v>
+        <v>42.75099276123508</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5885,11 +6083,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5900,22 +6094,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9560</v>
+        <v>9445</v>
       </c>
       <c r="C149" t="n">
-        <v>9555</v>
+        <v>9445</v>
       </c>
       <c r="D149" t="n">
-        <v>9560</v>
+        <v>9445</v>
       </c>
       <c r="E149" t="n">
-        <v>9555</v>
+        <v>9445</v>
       </c>
       <c r="F149" t="n">
-        <v>1.47</v>
+        <v>15</v>
       </c>
       <c r="G149" t="n">
-        <v>9526.666666666666</v>
+        <v>57.75099276123508</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5925,11 +6119,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5940,22 +6130,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9540</v>
+        <v>9400</v>
       </c>
       <c r="C150" t="n">
-        <v>9545</v>
+        <v>9400</v>
       </c>
       <c r="D150" t="n">
-        <v>9545</v>
+        <v>9400</v>
       </c>
       <c r="E150" t="n">
-        <v>9540</v>
+        <v>9400</v>
       </c>
       <c r="F150" t="n">
-        <v>7.821</v>
+        <v>28.1042</v>
       </c>
       <c r="G150" t="n">
-        <v>9536.666666666666</v>
+        <v>29.64679276123508</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5965,11 +6155,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5980,22 +6166,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9575</v>
+        <v>9390</v>
       </c>
       <c r="C151" t="n">
-        <v>9530</v>
+        <v>9390</v>
       </c>
       <c r="D151" t="n">
-        <v>9580</v>
+        <v>9390</v>
       </c>
       <c r="E151" t="n">
-        <v>9530</v>
+        <v>9390</v>
       </c>
       <c r="F151" t="n">
-        <v>54.3308</v>
+        <v>11.3064</v>
       </c>
       <c r="G151" t="n">
-        <v>9543.333333333334</v>
+        <v>18.34039276123508</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6005,11 +6191,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6020,22 +6202,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9525</v>
+        <v>9445</v>
       </c>
       <c r="C152" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="D152" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="E152" t="n">
-        <v>9525</v>
+        <v>9445</v>
       </c>
       <c r="F152" t="n">
-        <v>37.9427</v>
+        <v>19.97768726215645</v>
       </c>
       <c r="G152" t="n">
-        <v>9535</v>
+        <v>38.31808002339153</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6045,15 +6227,2567 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
       <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F153" t="n">
+        <v>275.4038</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-237.0857199766085</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9460</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17.5426</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-219.5431199766085</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9415</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9415</v>
+      </c>
+      <c r="F155" t="n">
+        <v>30</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-249.5431199766085</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9380</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9395</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9380</v>
+      </c>
+      <c r="F156" t="n">
+        <v>124.1393</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-373.6824199766085</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9380</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9400</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9380</v>
+      </c>
+      <c r="F157" t="n">
+        <v>38.4188</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-373.6824199766085</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9475</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9475</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9475</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9475</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.2312</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-373.4512199766085</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9475</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9475</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9475</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9475</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1054</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-373.4512199766085</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9415</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9365</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9365</v>
+      </c>
+      <c r="F160" t="n">
+        <v>494.982</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-868.4332199766085</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9470</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9470</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9470</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9470</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-868.3332199766085</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9370</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9445</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9445</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9360</v>
+      </c>
+      <c r="F162" t="n">
+        <v>48.9665</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-917.2997199766085</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9370</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9350</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9370</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9350</v>
+      </c>
+      <c r="F163" t="n">
+        <v>60</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-977.2997199766085</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.887</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-968.4127199766085</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4.717</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-968.4127199766085</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9430</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9410</v>
+      </c>
+      <c r="F166" t="n">
+        <v>69.1491</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1037.561819976609</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9430</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F167" t="n">
+        <v>73.2889</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-964.2729199766086</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9425</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9425</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9425</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9425</v>
+      </c>
+      <c r="F168" t="n">
+        <v>53.2197</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1017.492619976609</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9430</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F169" t="n">
+        <v>197.3513</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-820.1413199766085</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9465</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.3124</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-817.8289199766085</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9465</v>
+      </c>
+      <c r="F171" t="n">
+        <v>198.5186</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-817.8289199766085</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9465</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-817.8289199766085</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9465</v>
+      </c>
+      <c r="F173" t="n">
+        <v>50</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-817.8289199766085</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9455</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9455</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12.4955</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-830.3244199766085</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-831.4244199766085</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9395</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F176" t="n">
+        <v>103.0295</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-831.4244199766085</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.7569</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-826.6675199766086</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4.182</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-822.4855199766085</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F179" t="n">
+        <v>81.60129999999999</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-904.0868199766086</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9390</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9390</v>
+      </c>
+      <c r="F180" t="n">
+        <v>187.9928</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-904.0868199766086</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9385</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9395</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9385</v>
+      </c>
+      <c r="F181" t="n">
+        <v>104.8939</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1008.980719976609</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9385</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9385</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9385</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9385</v>
+      </c>
+      <c r="F182" t="n">
+        <v>17.8375</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1008.980719976609</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9430</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9430</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1005.210719976609</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9440</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9440</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F184" t="n">
+        <v>70.46729999999999</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-934.7434199766086</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9455</v>
+      </c>
+      <c r="F185" t="n">
+        <v>239.4349</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-695.3085199766086</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9495</v>
+      </c>
+      <c r="F186" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-695.3085199766086</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F187" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-725.5085199766087</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F188" t="n">
+        <v>105.8105</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-831.3190199766087</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9495</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12.0535</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-819.2655199766087</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.0537</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-820.3192199766088</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F191" t="n">
+        <v>18.6896</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-839.0088199766088</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F192" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-839.0088199766088</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F193" t="n">
+        <v>27.9078</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-839.0088199766088</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F194" t="n">
+        <v>56.3546</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-895.3634199766088</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F195" t="n">
+        <v>70.72790000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-895.3634199766088</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9430</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9430</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4.492</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-895.3634199766088</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9485</v>
+      </c>
+      <c r="F197" t="n">
+        <v>87.4866</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-807.8768199766089</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9495</v>
+      </c>
+      <c r="F198" t="n">
+        <v>77.6979</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-807.8768199766089</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6.4855</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-801.3913199766089</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9505</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3.8094</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-797.5819199766089</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C201" t="n">
+        <v>9505</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9505</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-797.5819199766089</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E202" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F202" t="n">
+        <v>30.9901</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-766.5918199766089</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D203" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F203" t="n">
+        <v>104.9612</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-766.5918199766089</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D204" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F204" t="n">
+        <v>87.5945</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-854.186319976609</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D205" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-853.833919976609</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E206" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F206" t="n">
+        <v>15</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-838.833919976609</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C207" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D207" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E207" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F207" t="n">
+        <v>37.678</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-838.833919976609</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E208" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F208" t="n">
+        <v>58.122</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-896.9559199766089</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5.508</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-902.463919976609</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11.4889</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-913.9528199766089</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F211" t="n">
+        <v>39.8345</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-953.787319976609</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E212" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F212" t="n">
+        <v>52.2212</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D213" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F213" t="n">
+        <v>15.3019</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D214" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E214" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7.8731</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F215" t="n">
+        <v>88.1414</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-901.566119976609</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F216" t="n">
+        <v>116.3484</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-785.217719976609</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F217" t="n">
+        <v>38.8563</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-785.217719976609</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9515</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9515</v>
+      </c>
+      <c r="F218" t="n">
+        <v>114.2728</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-899.490519976609</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9520</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F219" t="n">
+        <v>312.2241</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1211.714619976609</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1210.244619976609</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7.821</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1218.065619976609</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F222" t="n">
+        <v>54.3308</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1272.396419976609</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37.9427</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1272.396419976609</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>-331.4302</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,26 +550,15 @@
         <v>-353.1748</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,26 +583,21 @@
         <v>-353.1748</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>9235</v>
       </c>
-      <c r="K6" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,26 +622,21 @@
         <v>-220.3374</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>9235</v>
       </c>
-      <c r="K7" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,24 +661,21 @@
         <v>-219.2548</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9340</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,22 +702,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,22 +739,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,22 +776,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,22 +813,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,22 +850,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,26 +885,19 @@
         <v>-295.9572</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,26 +922,19 @@
         <v>-295.9572</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,26 +959,19 @@
         <v>-330.3272</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,26 +996,21 @@
         <v>-318.3702</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>9280</v>
       </c>
-      <c r="K17" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,26 +1035,21 @@
         <v>-286.0002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>9355</v>
       </c>
-      <c r="K18" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,26 +1074,21 @@
         <v>-269.9742</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>9365</v>
       </c>
-      <c r="K19" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,22 +1115,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1260,22 +1152,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1302,22 +1189,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,22 +1226,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,22 +1263,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1300,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1337,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,22 +1374,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,22 +1411,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,22 +1448,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1638,22 +1485,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1522,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,22 +1559,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1764,22 +1596,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1806,22 +1633,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,22 +1670,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1890,22 +1707,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1744,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1974,22 +1781,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,22 +1818,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2056,24 +1853,17 @@
         <v>421.1379271168831</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,22 +1890,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,22 +1923,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +1956,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +1989,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +2022,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +2055,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +2088,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2394,22 +2121,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2154,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,22 +2187,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2220,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2253,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,22 +2286,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,24 +2317,15 @@
         <v>1137.215947683515</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2686,24 +2350,15 @@
         <v>1142.421569755352</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2728,24 +2383,15 @@
         <v>1454.780069755353</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2772,22 +2418,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2814,22 +2451,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2854,24 +2482,15 @@
         <v>1503.907647683515</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2898,22 +2517,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2938,24 +2548,15 @@
         <v>1504.051792761235</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9240</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1.039372294372295</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2982,16 +2583,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3018,16 +2616,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3054,16 +2649,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3090,16 +2682,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3126,16 +2715,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3162,16 +2748,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3198,16 +2781,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3234,16 +2814,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3268,18 +2845,15 @@
         <v>1348.138692761235</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3304,18 +2878,15 @@
         <v>1370.549892761235</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3340,18 +2911,15 @@
         <v>1381.549892761235</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3376,18 +2944,15 @@
         <v>1481.549892761235</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3414,16 +2979,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3448,18 +3010,15 @@
         <v>1393.932792761235</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3484,18 +3043,15 @@
         <v>1319.777292761235</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3520,18 +3076,15 @@
         <v>1283.630092761235</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3556,18 +3109,15 @@
         <v>1249.971192761235</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3594,16 +3144,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3630,16 +3177,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3666,16 +3210,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3702,16 +3243,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3736,18 +3274,15 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3774,16 +3309,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3810,16 +3342,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3846,16 +3375,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3882,16 +3408,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3918,16 +3441,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3954,16 +3474,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3990,16 +3507,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4026,16 +3540,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4062,16 +3573,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4096,18 +3604,15 @@
         <v>843.1389927612352</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4134,16 +3639,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4170,16 +3672,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4206,16 +3705,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4240,18 +3736,15 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4276,18 +3769,15 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4314,16 +3804,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4348,18 +3835,15 @@
         <v>853.3072927612352</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4384,18 +3868,15 @@
         <v>873.3072927612352</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4422,16 +3903,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4458,16 +3936,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4492,18 +3967,15 @@
         <v>912.2556927612352</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4528,18 +4000,15 @@
         <v>922.0909927612352</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4564,18 +4033,15 @@
         <v>916.9845927612351</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4602,16 +4068,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4636,18 +4099,15 @@
         <v>902.9216927612351</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4672,18 +4132,15 @@
         <v>983.6644927612351</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4708,18 +4165,15 @@
         <v>710.6754927612351</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4744,18 +4198,15 @@
         <v>793.653492761235</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4780,18 +4231,15 @@
         <v>330.720792761235</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4818,16 +4266,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4854,16 +4299,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4888,18 +4330,15 @@
         <v>270.5944927612351</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4924,18 +4363,15 @@
         <v>270.5944927612351</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4962,16 +4398,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4996,18 +4429,15 @@
         <v>255.1505927612351</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5034,16 +4464,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5070,16 +4497,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5104,18 +4528,15 @@
         <v>264.2200927612351</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5142,16 +4563,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5178,16 +4596,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5214,16 +4629,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5250,16 +4662,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5286,16 +4695,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5322,16 +4728,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5356,18 +4759,15 @@
         <v>279.9308927612351</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5392,18 +4792,15 @@
         <v>279.9308927612351</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5428,18 +4825,15 @@
         <v>279.9308927612351</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5464,18 +4858,15 @@
         <v>276.9308927612351</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5502,16 +4893,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5538,16 +4926,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5574,16 +4959,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5610,16 +4992,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5646,16 +5025,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5682,16 +5058,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5718,16 +5091,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5754,16 +5124,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5790,16 +5157,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5826,16 +5190,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5862,16 +5223,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5898,16 +5256,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5934,16 +5289,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5970,16 +5322,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6006,16 +5355,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6042,16 +5388,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6078,16 +5421,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6114,16 +5454,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6150,16 +5487,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6186,16 +5520,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6222,16 +5553,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6258,16 +5586,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6294,16 +5619,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6328,18 +5650,15 @@
         <v>-249.5431199766085</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6366,16 +5685,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6402,16 +5718,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6436,18 +5749,15 @@
         <v>-373.4512199766085</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6474,16 +5784,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6510,16 +5817,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6546,16 +5850,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6582,16 +5883,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6618,16 +5916,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6654,16 +5949,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6690,16 +5982,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6726,16 +6015,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6762,16 +6048,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6798,16 +6081,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6834,16 +6114,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6870,16 +6147,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6906,16 +6180,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6942,16 +6213,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6978,16 +6246,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7014,16 +6279,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7050,16 +6312,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7086,16 +6345,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7122,16 +6378,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7158,16 +6411,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7194,16 +6444,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7230,16 +6477,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7266,16 +6510,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7302,16 +6543,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7338,16 +6576,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7374,16 +6609,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7410,16 +6642,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7446,16 +6675,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7482,16 +6708,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7518,16 +6741,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7554,16 +6774,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7590,16 +6807,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7626,16 +6840,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7662,16 +6873,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7698,16 +6906,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7734,16 +6939,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7770,16 +6972,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7806,16 +7005,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7842,16 +7038,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7878,16 +7071,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7914,16 +7104,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7950,16 +7137,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7986,16 +7170,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8022,16 +7203,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8058,16 +7236,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8094,16 +7269,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8130,16 +7302,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8164,18 +7333,15 @@
         <v>-838.833919976609</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8200,18 +7366,15 @@
         <v>-838.833919976609</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8236,18 +7399,15 @@
         <v>-896.9559199766089</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8272,18 +7432,15 @@
         <v>-902.463919976609</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8310,16 +7467,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8346,16 +7500,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8382,16 +7533,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8418,16 +7566,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8454,16 +7599,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8490,16 +7632,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8526,16 +7665,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8562,16 +7698,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8596,18 +7729,15 @@
         <v>-899.490519976609</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8634,16 +7764,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8668,18 +7795,15 @@
         <v>-1210.244619976609</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8704,18 +7828,15 @@
         <v>-1218.065619976609</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8742,16 +7863,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8778,18 +7896,15 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-331.4302</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-331.4302</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9240</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-331.4302</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-353.1748</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,12 +603,14 @@
         <v>-353.1748</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>9235</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>9240</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -622,12 +644,14 @@
         <v>-220.3374</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>9235</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>9240</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -661,12 +685,12 @@
         <v>-219.2548</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9340</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>9240</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -703,7 +727,9 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>9240</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -740,7 +766,9 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>9240</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -777,7 +805,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>9240</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -811,10 +841,14 @@
         <v>-295.9572</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9240</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -848,10 +882,14 @@
         <v>-295.9572</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9290</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9240</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -885,10 +923,14 @@
         <v>-295.9572</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9290</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9240</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -922,10 +964,14 @@
         <v>-295.9572</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9290</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9240</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -959,10 +1005,14 @@
         <v>-330.3272</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9290</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9240</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -996,12 +1046,14 @@
         <v>-318.3702</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>9280</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>9240</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1035,12 +1087,14 @@
         <v>-286.0002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>9355</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>9240</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1074,12 +1128,12 @@
         <v>-269.9742</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9365</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>9240</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1113,10 +1167,14 @@
         <v>-269.9742</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9385</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9240</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1153,7 +1211,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>9240</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1190,7 +1250,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>9240</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1227,7 +1289,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>9240</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,7 +1328,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>9240</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1301,7 +1367,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>9240</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,7 +1406,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>9240</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1375,7 +1445,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>9240</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,7 +1484,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>9240</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1449,7 +1523,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>9240</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1486,7 +1562,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9240</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1523,7 +1601,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9240</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1560,7 +1640,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9240</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1597,7 +1679,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9240</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1634,7 +1718,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9240</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,7 +1757,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9240</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,7 +1796,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9240</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1745,7 +1835,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9240</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1782,7 +1874,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9240</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1819,7 +1913,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9240</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1853,873 +1949,1033 @@
         <v>421.1379271168831</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9240</v>
+      </c>
       <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.6889</v>
+      </c>
+      <c r="G41" t="n">
+        <v>422.8268271168831</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21.1475</v>
+      </c>
+      <c r="G42" t="n">
+        <v>422.8268271168831</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50.0524</v>
+      </c>
+      <c r="G43" t="n">
+        <v>372.7744271168831</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9470</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9470</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88.78879999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>283.9856271168832</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9485</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9480</v>
+      </c>
+      <c r="F45" t="n">
+        <v>75.21550000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>359.2011271168832</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9460</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9460</v>
+      </c>
+      <c r="F46" t="n">
+        <v>53.9241</v>
+      </c>
+      <c r="G46" t="n">
+        <v>305.2770271168832</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9455</v>
+      </c>
+      <c r="F47" t="n">
+        <v>51.2279</v>
+      </c>
+      <c r="G47" t="n">
+        <v>254.0491271168832</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>264.0491271168831</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10.49317943336831</v>
+      </c>
+      <c r="G49" t="n">
+        <v>264.0491271168831</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9480</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.5825</v>
+      </c>
+      <c r="G50" t="n">
+        <v>253.4666271168831</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>9505</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9505</v>
+      </c>
+      <c r="F51" t="n">
+        <v>52.95232056663169</v>
+      </c>
+      <c r="G51" t="n">
+        <v>306.4189476835148</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9570</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F52" t="n">
+        <v>423.2412</v>
+      </c>
+      <c r="G52" t="n">
+        <v>729.6601476835149</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9570</v>
+      </c>
+      <c r="F53" t="n">
+        <v>407.5558</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1137.215947683515</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.5946</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1137.215947683515</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.205622071837585</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1142.421569755352</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9610</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9610</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F56" t="n">
+        <v>312.3585</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1454.780069755353</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F57" t="n">
+        <v>39.5719</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1415.208169755353</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9610</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9610</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9605</v>
+      </c>
+      <c r="F58" t="n">
+        <v>48.69947792816242</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1463.907647683515</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F59" t="n">
+        <v>40</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1503.907647683515</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9650</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9650</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1441450777202073</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1504.051792761235</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9650</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9650</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1504.051792761235</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9625</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9625</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F62" t="n">
+        <v>105</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1399.051792761235</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9605</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F63" t="n">
+        <v>48.1268</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1447.178592761235</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F64" t="n">
+        <v>34.1866</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1447.178592761235</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.6866</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1447.178592761235</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9645</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9645</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9645</v>
+      </c>
+      <c r="F66" t="n">
+        <v>22.8886</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1470.067192761235</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C41" t="n">
-        <v>9540</v>
-      </c>
-      <c r="D41" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.6889</v>
-      </c>
-      <c r="G41" t="n">
-        <v>422.8268271168831</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C42" t="n">
-        <v>9540</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F42" t="n">
-        <v>21.1475</v>
-      </c>
-      <c r="G42" t="n">
-        <v>422.8268271168831</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C43" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9535</v>
-      </c>
-      <c r="F43" t="n">
-        <v>50.0524</v>
-      </c>
-      <c r="G43" t="n">
-        <v>372.7744271168831</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C44" t="n">
-        <v>9470</v>
-      </c>
-      <c r="D44" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9470</v>
-      </c>
-      <c r="F44" t="n">
-        <v>88.78879999999999</v>
-      </c>
-      <c r="G44" t="n">
-        <v>283.9856271168832</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>9485</v>
-      </c>
-      <c r="C45" t="n">
-        <v>9480</v>
-      </c>
-      <c r="D45" t="n">
-        <v>9485</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9480</v>
-      </c>
-      <c r="F45" t="n">
-        <v>75.21550000000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>359.2011271168832</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>9460</v>
-      </c>
-      <c r="C46" t="n">
-        <v>9460</v>
-      </c>
-      <c r="D46" t="n">
-        <v>9460</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9460</v>
-      </c>
-      <c r="F46" t="n">
-        <v>53.9241</v>
-      </c>
-      <c r="G46" t="n">
-        <v>305.2770271168832</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>9460</v>
-      </c>
-      <c r="C47" t="n">
-        <v>9455</v>
-      </c>
-      <c r="D47" t="n">
-        <v>9460</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9455</v>
-      </c>
-      <c r="F47" t="n">
-        <v>51.2279</v>
-      </c>
-      <c r="G47" t="n">
-        <v>254.0491271168832</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>9530</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9530</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
-      </c>
-      <c r="G48" t="n">
-        <v>264.0491271168831</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>9530</v>
-      </c>
-      <c r="C49" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9530</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10.49317943336831</v>
-      </c>
-      <c r="G49" t="n">
-        <v>264.0491271168831</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>9530</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9480</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9480</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10.5825</v>
-      </c>
-      <c r="G50" t="n">
-        <v>253.4666271168831</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>9505</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D51" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9505</v>
-      </c>
-      <c r="F51" t="n">
-        <v>52.95232056663169</v>
-      </c>
-      <c r="G51" t="n">
-        <v>306.4189476835148</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F52" t="n">
-        <v>423.2412</v>
-      </c>
-      <c r="G52" t="n">
-        <v>729.6601476835149</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9570</v>
-      </c>
-      <c r="F53" t="n">
-        <v>407.5558</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1137.215947683515</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C54" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D54" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F54" t="n">
-        <v>7.5946</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1137.215947683515</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5.205622071837585</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1142.421569755352</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C56" t="n">
-        <v>9610</v>
-      </c>
-      <c r="D56" t="n">
-        <v>9610</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F56" t="n">
-        <v>312.3585</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1454.780069755353</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C57" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D57" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F57" t="n">
-        <v>39.5719</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1415.208169755353</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C58" t="n">
-        <v>9610</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9610</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F58" t="n">
-        <v>48.69947792816242</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1463.907647683515</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D59" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E59" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F59" t="n">
-        <v>40</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1503.907647683515</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9650</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9650</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.1441450777202073</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1504.051792761235</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C61" t="n">
-        <v>9650</v>
-      </c>
-      <c r="D61" t="n">
-        <v>9650</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F61" t="n">
-        <v>100</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1504.051792761235</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>9625</v>
-      </c>
-      <c r="C62" t="n">
-        <v>9580</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9625</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9580</v>
-      </c>
-      <c r="F62" t="n">
-        <v>105</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1399.051792761235</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C63" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D63" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F63" t="n">
-        <v>48.1268</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1447.178592761235</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C64" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D64" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F64" t="n">
-        <v>34.1866</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1447.178592761235</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D65" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.6866</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1447.178592761235</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>9645</v>
-      </c>
-      <c r="C66" t="n">
-        <v>9645</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9645</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9645</v>
-      </c>
-      <c r="F66" t="n">
-        <v>22.8886</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1470.067192761235</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>1.038831168831169</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2845,7 +3101,7 @@
         <v>1348.138692761235</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2878,7 +3134,7 @@
         <v>1370.549892761235</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2911,7 +3167,7 @@
         <v>1381.549892761235</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2944,7 +3200,7 @@
         <v>1481.549892761235</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3010,7 +3266,7 @@
         <v>1393.932792761235</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3043,7 +3299,7 @@
         <v>1319.777292761235</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3076,7 +3332,7 @@
         <v>1283.630092761235</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3109,7 +3365,7 @@
         <v>1249.971192761235</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3142,7 +3398,7 @@
         <v>1264.075292761235</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3175,7 +3431,7 @@
         <v>1247.652392761235</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3208,7 +3464,7 @@
         <v>1254.711892761235</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3241,7 +3497,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3274,7 +3530,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3307,7 +3563,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3340,7 +3596,7 @@
         <v>960.5456927612353</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3373,7 +3629,7 @@
         <v>668.6657927612353</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3406,7 +3662,7 @@
         <v>705.7433927612352</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3439,7 +3695,7 @@
         <v>851.5485927612352</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3472,7 +3728,7 @@
         <v>788.7068927612352</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3538,7 +3794,7 @@
         <v>850.4857927612352</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3571,7 +3827,7 @@
         <v>843.1389927612352</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3604,7 +3860,7 @@
         <v>843.1389927612352</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3637,7 +3893,7 @@
         <v>842.2928927612352</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3670,7 +3926,7 @@
         <v>835.6610927612352</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3703,7 +3959,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3736,7 +3992,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3769,7 +4025,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3802,7 +4058,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3835,7 +4091,7 @@
         <v>853.3072927612352</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3868,7 +4124,7 @@
         <v>873.3072927612352</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3967,7 +4223,7 @@
         <v>912.2556927612352</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4000,7 +4256,7 @@
         <v>922.0909927612352</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4033,7 +4289,7 @@
         <v>916.9845927612351</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4099,7 +4355,7 @@
         <v>902.9216927612351</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4132,7 +4388,7 @@
         <v>983.6644927612351</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4165,7 +4421,7 @@
         <v>710.6754927612351</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4198,7 +4454,7 @@
         <v>793.653492761235</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4231,7 +4487,7 @@
         <v>330.720792761235</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4330,7 +4586,7 @@
         <v>270.5944927612351</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4363,7 +4619,7 @@
         <v>270.5944927612351</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4429,7 +4685,7 @@
         <v>255.1505927612351</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4528,7 +4784,7 @@
         <v>264.2200927612351</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4759,7 +5015,7 @@
         <v>279.9308927612351</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4792,7 +5048,7 @@
         <v>279.9308927612351</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4825,7 +5081,7 @@
         <v>279.9308927612351</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4858,7 +5114,7 @@
         <v>276.9308927612351</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5650,7 +5906,7 @@
         <v>-249.5431199766085</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5749,7 +6005,7 @@
         <v>-373.4512199766085</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7333,7 +7589,7 @@
         <v>-838.833919976609</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7366,7 +7622,7 @@
         <v>-838.833919976609</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7399,7 +7655,7 @@
         <v>-896.9559199766089</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7432,7 +7688,7 @@
         <v>-902.463919976609</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7729,7 +7985,7 @@
         <v>-899.490519976609</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7795,7 +8051,7 @@
         <v>-1210.244619976609</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7828,7 +8084,7 @@
         <v>-1218.065619976609</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7905,6 +8161,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -841,11 +841,9 @@
         <v>-295.9572</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>9240</v>
       </c>
@@ -882,11 +880,9 @@
         <v>-295.9572</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>9240</v>
       </c>
@@ -923,11 +919,9 @@
         <v>-295.9572</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>9240</v>
       </c>
@@ -964,11 +958,9 @@
         <v>-295.9572</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>9240</v>
       </c>
@@ -1005,11 +997,9 @@
         <v>-330.3272</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>9240</v>
       </c>
@@ -1046,11 +1036,9 @@
         <v>-318.3702</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>9240</v>
       </c>
@@ -1087,11 +1075,9 @@
         <v>-286.0002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>9240</v>
       </c>
@@ -1167,11 +1153,9 @@
         <v>-269.9742</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>9240</v>
       </c>
@@ -1676,7 +1660,7 @@
         <v>-103.8453</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
@@ -1684,11 +1668,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>1.023679653679654</v>
       </c>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1718,14 +1702,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1754,17 +1732,11 @@
         <v>-127.5147</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1793,17 +1765,11 @@
         <v>-122.7267</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1801,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1834,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1867,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1900,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1933,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1966,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2066,17 +1996,11 @@
         <v>372.7744271168831</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2105,17 +2029,11 @@
         <v>283.9856271168832</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2144,17 +2062,11 @@
         <v>359.2011271168832</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +2098,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2225,14 +2131,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +2164,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2197,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2230,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2263,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2296,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2459,14 +2329,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2362,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2395,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2428,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2461,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2654,14 +2494,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2693,14 +2527,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2560,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2593,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2626,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2849,14 +2659,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2692,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2725,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2963,19 +2755,13 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.038831168831169</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -3167,7 +2953,7 @@
         <v>1381.549892761235</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3266,7 +3052,7 @@
         <v>1393.932792761235</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3299,7 +3085,7 @@
         <v>1319.777292761235</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3332,7 +3118,7 @@
         <v>1283.630092761235</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3365,7 +3151,7 @@
         <v>1249.971192761235</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3398,7 +3184,7 @@
         <v>1264.075292761235</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3431,7 +3217,7 @@
         <v>1247.652392761235</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3464,7 +3250,7 @@
         <v>1254.711892761235</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3497,7 +3283,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3530,7 +3316,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3563,7 +3349,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3596,7 +3382,7 @@
         <v>960.5456927612353</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3629,7 +3415,7 @@
         <v>668.6657927612353</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3662,7 +3448,7 @@
         <v>705.7433927612352</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3695,7 +3481,7 @@
         <v>851.5485927612352</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3728,7 +3514,7 @@
         <v>788.7068927612352</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3794,7 +3580,7 @@
         <v>850.4857927612352</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3827,7 +3613,7 @@
         <v>843.1389927612352</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3860,7 +3646,7 @@
         <v>843.1389927612352</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3893,7 +3679,7 @@
         <v>842.2928927612352</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3926,7 +3712,7 @@
         <v>835.6610927612352</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3959,7 +3745,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3992,7 +3778,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4025,7 +3811,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4058,7 +3844,7 @@
         <v>853.2072927612352</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4091,7 +3877,7 @@
         <v>853.3072927612352</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4124,7 +3910,7 @@
         <v>873.3072927612352</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -8161,6 +7947,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>-331.4302</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-331.4302</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9240</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>9240</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -880,9 +872,11 @@
         <v>-295.9572</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9290</v>
+      </c>
       <c r="J13" t="n">
         <v>9240</v>
       </c>
@@ -919,9 +913,11 @@
         <v>-295.9572</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9290</v>
+      </c>
       <c r="J14" t="n">
         <v>9240</v>
       </c>
@@ -958,9 +954,11 @@
         <v>-295.9572</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9290</v>
+      </c>
       <c r="J15" t="n">
         <v>9240</v>
       </c>
@@ -1036,9 +1034,11 @@
         <v>-318.3702</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9280</v>
+      </c>
       <c r="J17" t="n">
         <v>9240</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>-103.8453</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.023679653679654</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1702,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,11 +1738,17 @@
         <v>-127.5147</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1765,11 +1777,17 @@
         <v>-122.7267</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1801,8 +1819,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1834,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1867,8 +1897,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1900,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1933,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1966,8 +2014,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1996,11 +2050,17 @@
         <v>372.7744271168831</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +2089,17 @@
         <v>283.9856271168832</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +2128,17 @@
         <v>359.2011271168832</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2098,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2131,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2164,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2197,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2230,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2263,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2296,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2329,8 +2443,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2362,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2395,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2428,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2461,8 +2599,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2494,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2527,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2560,8 +2716,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2590,13 +2752,19 @@
         <v>1504.051792761235</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>1.039372294372295</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2623,7 +2791,7 @@
         <v>1399.051792761235</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2656,7 +2824,7 @@
         <v>1447.178592761235</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2755,7 +2923,7 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2788,7 +2956,7 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2821,7 +2989,7 @@
         <v>1463.138692761235</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2854,7 +3022,7 @@
         <v>1448.138692761235</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2887,7 +3055,7 @@
         <v>1348.138692761235</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2920,7 +3088,7 @@
         <v>1370.549892761235</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2953,7 +3121,7 @@
         <v>1381.549892761235</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2986,7 +3154,7 @@
         <v>1481.549892761235</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3019,7 +3187,7 @@
         <v>1472.027892761235</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3052,7 +3220,7 @@
         <v>1393.932792761235</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3085,7 +3253,7 @@
         <v>1319.777292761235</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3118,7 +3286,7 @@
         <v>1283.630092761235</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3184,7 +3352,7 @@
         <v>1264.075292761235</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3283,7 +3451,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest REP.xlsx
+++ b/BackTest/2019-10-27 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-331.4302</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>-331.4302</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>9240</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9240</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,22 +507,23 @@
         <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>-331.4302</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9240</v>
       </c>
       <c r="I4" t="n">
         <v>9240</v>
       </c>
-      <c r="J4" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,26 +545,23 @@
         <v>21.7446</v>
       </c>
       <c r="G5" t="n">
-        <v>-353.1748</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>9240</v>
       </c>
       <c r="I5" t="n">
         <v>9240</v>
       </c>
-      <c r="J5" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,26 +583,23 @@
         <v>67.7852</v>
       </c>
       <c r="G6" t="n">
-        <v>-353.1748</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9235</v>
       </c>
       <c r="I6" t="n">
-        <v>9235</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>9240</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,26 +621,23 @@
         <v>132.8374</v>
       </c>
       <c r="G7" t="n">
-        <v>-220.3374</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9235</v>
       </c>
       <c r="I7" t="n">
-        <v>9235</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>9240</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,24 +659,21 @@
         <v>1.0826</v>
       </c>
       <c r="G8" t="n">
-        <v>-219.2548</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -713,24 +695,21 @@
         <v>3.08</v>
       </c>
       <c r="G9" t="n">
-        <v>-222.3348</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,24 +731,21 @@
         <v>65.56399999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-287.8988</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -791,24 +767,21 @@
         <v>7.5202</v>
       </c>
       <c r="G11" t="n">
-        <v>-295.419</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -830,24 +803,21 @@
         <v>0.5382</v>
       </c>
       <c r="G12" t="n">
-        <v>-295.9572</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -869,26 +839,21 @@
         <v>6.4588</v>
       </c>
       <c r="G13" t="n">
-        <v>-295.9572</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>9290</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>9240</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,26 +875,21 @@
         <v>35.7916</v>
       </c>
       <c r="G14" t="n">
-        <v>-295.9572</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>9290</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>9240</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,26 +911,21 @@
         <v>4.7201</v>
       </c>
       <c r="G15" t="n">
-        <v>-295.9572</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>9290</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>9240</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +947,21 @@
         <v>34.37</v>
       </c>
       <c r="G16" t="n">
-        <v>-330.3272</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,26 +983,21 @@
         <v>11.957</v>
       </c>
       <c r="G17" t="n">
-        <v>-318.3702</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>9240</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,24 +1019,21 @@
         <v>32.37</v>
       </c>
       <c r="G18" t="n">
-        <v>-286.0002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1111,24 +1055,21 @@
         <v>16.026</v>
       </c>
       <c r="G19" t="n">
-        <v>-269.9742</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1150,24 +1091,21 @@
         <v>5.896</v>
       </c>
       <c r="G20" t="n">
-        <v>-269.9742</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1189,24 +1127,21 @@
         <v>122.0525</v>
       </c>
       <c r="G21" t="n">
-        <v>-147.9217</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1228,24 +1163,21 @@
         <v>29.5791</v>
       </c>
       <c r="G22" t="n">
-        <v>-147.9217</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1267,24 +1199,21 @@
         <v>10.4868</v>
       </c>
       <c r="G23" t="n">
-        <v>-147.9217</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,24 +1235,21 @@
         <v>6.96</v>
       </c>
       <c r="G24" t="n">
-        <v>-147.9217</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1345,24 +1271,21 @@
         <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>-132.9217</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1384,24 +1307,21 @@
         <v>4.89</v>
       </c>
       <c r="G26" t="n">
-        <v>-132.9217</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1423,24 +1343,21 @@
         <v>0.001</v>
       </c>
       <c r="G27" t="n">
-        <v>-132.9217</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1462,24 +1379,21 @@
         <v>21.0799</v>
       </c>
       <c r="G28" t="n">
-        <v>-111.8418</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1501,24 +1415,21 @@
         <v>2.16</v>
       </c>
       <c r="G29" t="n">
-        <v>-109.6818</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1540,24 +1451,21 @@
         <v>4.71</v>
       </c>
       <c r="G30" t="n">
-        <v>-104.9718</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1579,24 +1487,21 @@
         <v>14.939</v>
       </c>
       <c r="G31" t="n">
-        <v>-119.9108</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,24 +1523,21 @@
         <v>12.4246</v>
       </c>
       <c r="G32" t="n">
-        <v>-119.9108</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1657,24 +1559,21 @@
         <v>16.0655</v>
       </c>
       <c r="G33" t="n">
-        <v>-103.8453</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1696,24 +1595,21 @@
         <v>62.3306</v>
       </c>
       <c r="G34" t="n">
-        <v>-41.5147</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1735,24 +1631,21 @@
         <v>86</v>
       </c>
       <c r="G35" t="n">
-        <v>-127.5147</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,24 +1667,21 @@
         <v>4.788</v>
       </c>
       <c r="G36" t="n">
-        <v>-122.7267</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1813,24 +1703,21 @@
         <v>531.8630271168831</v>
       </c>
       <c r="G37" t="n">
-        <v>409.1363271168831</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1852,24 +1739,21 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>399.1363271168831</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1891,24 +1775,21 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>401.1363271168831</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1930,24 +1811,21 @@
         <v>20.0016</v>
       </c>
       <c r="G40" t="n">
-        <v>421.1379271168831</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1969,24 +1847,21 @@
         <v>1.6889</v>
       </c>
       <c r="G41" t="n">
-        <v>422.8268271168831</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,24 +1883,21 @@
         <v>21.1475</v>
       </c>
       <c r="G42" t="n">
-        <v>422.8268271168831</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2047,24 +1919,21 @@
         <v>50.0524</v>
       </c>
       <c r="G43" t="n">
-        <v>372.7744271168831</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,24 +1955,21 @@
         <v>88.78879999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>283.9856271168832</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2125,24 +1991,21 @@
         <v>75.21550000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>359.2011271168832</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,24 +2027,21 @@
         <v>53.9241</v>
       </c>
       <c r="G46" t="n">
-        <v>305.2770271168832</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2203,24 +2063,21 @@
         <v>51.2279</v>
       </c>
       <c r="G47" t="n">
-        <v>254.0491271168832</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2242,24 +2099,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>264.0491271168831</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,24 +2135,21 @@
         <v>10.49317943336831</v>
       </c>
       <c r="G49" t="n">
-        <v>264.0491271168831</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,24 +2171,21 @@
         <v>10.5825</v>
       </c>
       <c r="G50" t="n">
-        <v>253.4666271168831</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,24 +2207,21 @@
         <v>52.95232056663169</v>
       </c>
       <c r="G51" t="n">
-        <v>306.4189476835148</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2398,24 +2243,21 @@
         <v>423.2412</v>
       </c>
       <c r="G52" t="n">
-        <v>729.6601476835149</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2437,24 +2279,21 @@
         <v>407.5558</v>
       </c>
       <c r="G53" t="n">
-        <v>1137.215947683515</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,24 +2315,21 @@
         <v>7.5946</v>
       </c>
       <c r="G54" t="n">
-        <v>1137.215947683515</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2515,24 +2351,21 @@
         <v>5.205622071837585</v>
       </c>
       <c r="G55" t="n">
-        <v>1142.421569755352</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,24 +2387,21 @@
         <v>312.3585</v>
       </c>
       <c r="G56" t="n">
-        <v>1454.780069755353</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2593,24 +2423,21 @@
         <v>39.5719</v>
       </c>
       <c r="G57" t="n">
-        <v>1415.208169755353</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,24 +2459,21 @@
         <v>48.69947792816242</v>
       </c>
       <c r="G58" t="n">
-        <v>1463.907647683515</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2671,24 +2495,21 @@
         <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>1503.907647683515</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2710,24 +2531,21 @@
         <v>0.1441450777202073</v>
       </c>
       <c r="G60" t="n">
-        <v>1504.051792761235</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2749,24 +2567,21 @@
         <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>1504.051792761235</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>9240</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L61" t="n">
+      <c r="K61" t="n">
         <v>1.039372294372295</v>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2788,18 +2603,15 @@
         <v>105</v>
       </c>
       <c r="G62" t="n">
-        <v>1399.051792761235</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2821,18 +2633,15 @@
         <v>48.1268</v>
       </c>
       <c r="G63" t="n">
-        <v>1447.178592761235</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2854,18 +2663,15 @@
         <v>34.1866</v>
       </c>
       <c r="G64" t="n">
-        <v>1447.178592761235</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2887,18 +2693,15 @@
         <v>2.6866</v>
       </c>
       <c r="G65" t="n">
-        <v>1447.178592761235</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2920,18 +2723,15 @@
         <v>22.8886</v>
       </c>
       <c r="G66" t="n">
-        <v>1470.067192761235</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2953,18 +2753,15 @@
         <v>10.9326</v>
       </c>
       <c r="G67" t="n">
-        <v>1470.067192761235</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2986,18 +2783,15 @@
         <v>6.9285</v>
       </c>
       <c r="G68" t="n">
-        <v>1463.138692761235</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3019,18 +2813,15 @@
         <v>15</v>
       </c>
       <c r="G69" t="n">
-        <v>1448.138692761235</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3052,18 +2843,15 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>1348.138692761235</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3085,18 +2873,15 @@
         <v>22.4112</v>
       </c>
       <c r="G71" t="n">
-        <v>1370.549892761235</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3118,18 +2903,15 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>1381.549892761235</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3151,18 +2933,15 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>1481.549892761235</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3184,18 +2963,15 @@
         <v>9.522</v>
       </c>
       <c r="G74" t="n">
-        <v>1472.027892761235</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3217,18 +2993,15 @@
         <v>78.0951</v>
       </c>
       <c r="G75" t="n">
-        <v>1393.932792761235</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3250,18 +3023,15 @@
         <v>74.1555</v>
       </c>
       <c r="G76" t="n">
-        <v>1319.777292761235</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3283,18 +3053,15 @@
         <v>36.1472</v>
       </c>
       <c r="G77" t="n">
-        <v>1283.630092761235</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3316,18 +3083,15 @@
         <v>33.6589</v>
       </c>
       <c r="G78" t="n">
-        <v>1249.971192761235</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3349,18 +3113,15 @@
         <v>14.1041</v>
       </c>
       <c r="G79" t="n">
-        <v>1264.075292761235</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3382,18 +3143,15 @@
         <v>16.4229</v>
       </c>
       <c r="G80" t="n">
-        <v>1247.652392761235</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3415,18 +3173,15 @@
         <v>7.0595</v>
       </c>
       <c r="G81" t="n">
-        <v>1254.711892761235</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3448,18 +3203,15 @@
         <v>28.0906</v>
       </c>
       <c r="G82" t="n">
-        <v>1226.621292761235</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3481,18 +3233,15 @@
         <v>19.714</v>
       </c>
       <c r="G83" t="n">
-        <v>1226.621292761235</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3514,18 +3263,15 @@
         <v>91.5192</v>
       </c>
       <c r="G84" t="n">
-        <v>1226.621292761235</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3547,18 +3293,15 @@
         <v>266.0756</v>
       </c>
       <c r="G85" t="n">
-        <v>960.5456927612353</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3580,18 +3323,15 @@
         <v>291.8799</v>
       </c>
       <c r="G86" t="n">
-        <v>668.6657927612353</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3613,18 +3353,15 @@
         <v>37.0776</v>
       </c>
       <c r="G87" t="n">
-        <v>705.7433927612352</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3646,18 +3383,15 @@
         <v>145.8052</v>
       </c>
       <c r="G88" t="n">
-        <v>851.5485927612352</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3679,18 +3413,15 @@
         <v>62.8417</v>
       </c>
       <c r="G89" t="n">
-        <v>788.7068927612352</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3712,18 +3443,15 @@
         <v>61.7789</v>
       </c>
       <c r="G90" t="n">
-        <v>850.4857927612352</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3745,18 +3473,15 @@
         <v>2.3124</v>
       </c>
       <c r="G91" t="n">
-        <v>850.4857927612352</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3778,18 +3503,15 @@
         <v>7.3468</v>
       </c>
       <c r="G92" t="n">
-        <v>843.1389927612352</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3811,18 +3533,15 @@
         <v>59.514</v>
       </c>
       <c r="G93" t="n">
-        <v>843.1389927612352</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3844,18 +3563,15 @@
         <v>0.8461</v>
       </c>
       <c r="G94" t="n">
-        <v>842.2928927612352</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3877,18 +3593,15 @@
         <v>6.6318</v>
       </c>
       <c r="G95" t="n">
-        <v>835.6610927612352</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3910,18 +3623,15 @@
         <v>17.5462</v>
       </c>
       <c r="G96" t="n">
-        <v>853.2072927612352</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3943,18 +3653,15 @@
         <v>32.4538</v>
       </c>
       <c r="G97" t="n">
-        <v>853.2072927612352</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3976,18 +3683,15 @@
         <v>55.0324</v>
       </c>
       <c r="G98" t="n">
-        <v>853.2072927612352</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4009,18 +3713,15 @@
         <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>853.2072927612352</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4042,18 +3743,15 @@
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>853.3072927612352</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4075,18 +3773,15 @@
         <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>873.3072927612352</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4108,18 +3803,15 @@
         <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>893.3072927612352</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4141,18 +3833,15 @@
         <v>11.7485</v>
       </c>
       <c r="G103" t="n">
-        <v>893.3072927612352</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4174,18 +3863,15 @@
         <v>18.9484</v>
       </c>
       <c r="G104" t="n">
-        <v>912.2556927612352</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4207,18 +3893,15 @@
         <v>9.8353</v>
       </c>
       <c r="G105" t="n">
-        <v>922.0909927612352</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4240,18 +3923,15 @@
         <v>5.1064</v>
       </c>
       <c r="G106" t="n">
-        <v>916.9845927612351</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4273,18 +3953,15 @@
         <v>0.3124</v>
       </c>
       <c r="G107" t="n">
-        <v>917.2969927612352</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4306,18 +3983,15 @@
         <v>14.3753</v>
       </c>
       <c r="G108" t="n">
-        <v>902.9216927612351</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4339,18 +4013,15 @@
         <v>80.7428</v>
       </c>
       <c r="G109" t="n">
-        <v>983.6644927612351</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4372,18 +4043,15 @@
         <v>272.989</v>
       </c>
       <c r="G110" t="n">
-        <v>710.6754927612351</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4405,18 +4073,15 @@
         <v>82.97799999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>793.653492761235</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4438,18 +4103,15 @@
         <v>462.9327</v>
       </c>
       <c r="G112" t="n">
-        <v>330.720792761235</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4471,18 +4133,15 @@
         <v>70</v>
       </c>
       <c r="G113" t="n">
-        <v>330.720792761235</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4504,18 +4163,15 @@
         <v>64.0646</v>
       </c>
       <c r="G114" t="n">
-        <v>266.656192761235</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4537,18 +4193,15 @@
         <v>3.9383</v>
       </c>
       <c r="G115" t="n">
-        <v>270.5944927612351</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4570,18 +4223,15 @@
         <v>11.159</v>
       </c>
       <c r="G116" t="n">
-        <v>270.5944927612351</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4603,18 +4253,15 @@
         <v>49.2068</v>
       </c>
       <c r="G117" t="n">
-        <v>270.5944927612351</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4636,18 +4283,15 @@
         <v>15.4439</v>
       </c>
       <c r="G118" t="n">
-        <v>255.1505927612351</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4669,18 +4313,15 @@
         <v>22.2778</v>
       </c>
       <c r="G119" t="n">
-        <v>232.8727927612351</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4702,18 +4343,15 @@
         <v>2.4893</v>
       </c>
       <c r="G120" t="n">
-        <v>232.8727927612351</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4735,18 +4373,15 @@
         <v>31.3473</v>
       </c>
       <c r="G121" t="n">
-        <v>264.2200927612351</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4768,18 +4403,15 @@
         <v>198.3543</v>
       </c>
       <c r="G122" t="n">
-        <v>264.2200927612351</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4801,18 +4433,15 @@
         <v>38.3682</v>
       </c>
       <c r="G123" t="n">
-        <v>264.2200927612351</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4834,18 +4463,15 @@
         <v>8.9984</v>
       </c>
       <c r="G124" t="n">
-        <v>264.2200927612351</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4867,18 +4493,15 @@
         <v>3.018</v>
       </c>
       <c r="G125" t="n">
-        <v>261.2020927612351</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4900,18 +4523,15 @@
         <v>16.982</v>
       </c>
       <c r="G126" t="n">
-        <v>261.2020927612351</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4933,18 +4553,15 @@
         <v>3.47</v>
       </c>
       <c r="G127" t="n">
-        <v>261.2020927612351</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4966,18 +4583,15 @@
         <v>18.7288</v>
       </c>
       <c r="G128" t="n">
-        <v>279.9308927612351</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4999,18 +4613,15 @@
         <v>0.2104651162790698</v>
       </c>
       <c r="G129" t="n">
-        <v>279.9308927612351</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5032,18 +4643,15 @@
         <v>2.54823488372093</v>
       </c>
       <c r="G130" t="n">
-        <v>279.9308927612351</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5065,18 +4673,15 @@
         <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>276.9308927612351</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5098,18 +4703,15 @@
         <v>0.1</v>
       </c>
       <c r="G132" t="n">
-        <v>277.0308927612351</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5131,18 +4733,15 @@
         <v>16</v>
       </c>
       <c r="G133" t="n">
-        <v>261.0308927612351</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5164,18 +4763,15 @@
         <v>23.5539</v>
       </c>
       <c r="G134" t="n">
-        <v>261.0308927612351</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5197,18 +4793,15 @@
         <v>5.0951</v>
       </c>
       <c r="G135" t="n">
-        <v>261.0308927612351</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5230,18 +4823,15 @@
         <v>15.3445</v>
       </c>
       <c r="G136" t="n">
-        <v>245.6863927612351</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5263,18 +4853,15 @@
         <v>124.1393</v>
       </c>
       <c r="G137" t="n">
-        <v>245.6863927612351</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5296,18 +4883,15 @@
         <v>0.3524</v>
       </c>
       <c r="G138" t="n">
-        <v>246.0387927612351</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5329,18 +4913,15 @@
         <v>6.1229</v>
       </c>
       <c r="G139" t="n">
-        <v>239.9158927612351</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5362,18 +4943,15 @@
         <v>23.5437</v>
       </c>
       <c r="G140" t="n">
-        <v>239.9158927612351</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5395,18 +4973,15 @@
         <v>0.3124</v>
       </c>
       <c r="G141" t="n">
-        <v>240.2282927612351</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5428,18 +5003,15 @@
         <v>4</v>
       </c>
       <c r="G142" t="n">
-        <v>236.2282927612351</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5461,18 +5033,15 @@
         <v>1.48</v>
       </c>
       <c r="G143" t="n">
-        <v>237.7082927612351</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5494,18 +5063,15 @@
         <v>0.2</v>
       </c>
       <c r="G144" t="n">
-        <v>237.9082927612351</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5527,18 +5093,15 @@
         <v>11.5252</v>
       </c>
       <c r="G145" t="n">
-        <v>226.3830927612351</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5560,18 +5123,15 @@
         <v>41.1624</v>
       </c>
       <c r="G146" t="n">
-        <v>185.2206927612351</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5593,18 +5153,15 @@
         <v>39.4402</v>
       </c>
       <c r="G147" t="n">
-        <v>145.7804927612351</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5626,18 +5183,15 @@
         <v>103.0295</v>
       </c>
       <c r="G148" t="n">
-        <v>42.75099276123508</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5659,18 +5213,15 @@
         <v>15</v>
       </c>
       <c r="G149" t="n">
-        <v>57.75099276123508</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5692,18 +5243,15 @@
         <v>28.1042</v>
       </c>
       <c r="G150" t="n">
-        <v>29.64679276123508</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5725,18 +5273,15 @@
         <v>11.3064</v>
       </c>
       <c r="G151" t="n">
-        <v>18.34039276123508</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5758,18 +5303,15 @@
         <v>19.97768726215645</v>
       </c>
       <c r="G152" t="n">
-        <v>38.31808002339153</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5791,18 +5333,15 @@
         <v>275.4038</v>
       </c>
       <c r="G153" t="n">
-        <v>-237.0857199766085</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5824,18 +5363,15 @@
         <v>17.5426</v>
       </c>
       <c r="G154" t="n">
-        <v>-219.5431199766085</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5857,18 +5393,15 @@
         <v>30</v>
       </c>
       <c r="G155" t="n">
-        <v>-249.5431199766085</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5890,18 +5423,15 @@
         <v>124.1393</v>
       </c>
       <c r="G156" t="n">
-        <v>-373.6824199766085</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5923,18 +5453,15 @@
         <v>38.4188</v>
       </c>
       <c r="G157" t="n">
-        <v>-373.6824199766085</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5956,18 +5483,15 @@
         <v>0.2312</v>
       </c>
       <c r="G158" t="n">
-        <v>-373.4512199766085</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5989,18 +5513,15 @@
         <v>0.1054</v>
       </c>
       <c r="G159" t="n">
-        <v>-373.4512199766085</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6022,18 +5543,15 @@
         <v>494.982</v>
       </c>
       <c r="G160" t="n">
-        <v>-868.4332199766085</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6055,18 +5573,15 @@
         <v>0.1</v>
       </c>
       <c r="G161" t="n">
-        <v>-868.3332199766085</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6088,18 +5603,15 @@
         <v>48.9665</v>
       </c>
       <c r="G162" t="n">
-        <v>-917.2997199766085</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6121,18 +5633,15 @@
         <v>60</v>
       </c>
       <c r="G163" t="n">
-        <v>-977.2997199766085</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6154,18 +5663,15 @@
         <v>8.887</v>
       </c>
       <c r="G164" t="n">
-        <v>-968.4127199766085</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6187,18 +5693,15 @@
         <v>4.717</v>
       </c>
       <c r="G165" t="n">
-        <v>-968.4127199766085</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6220,18 +5723,15 @@
         <v>69.1491</v>
       </c>
       <c r="G166" t="n">
-        <v>-1037.561819976609</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6253,18 +5753,15 @@
         <v>73.2889</v>
       </c>
       <c r="G167" t="n">
-        <v>-964.2729199766086</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6286,18 +5783,15 @@
         <v>53.2197</v>
       </c>
       <c r="G168" t="n">
-        <v>-1017.492619976609</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6319,18 +5813,15 @@
         <v>197.3513</v>
       </c>
       <c r="G169" t="n">
-        <v>-820.1413199766085</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6352,18 +5843,15 @@
         <v>2.3124</v>
       </c>
       <c r="G170" t="n">
-        <v>-817.8289199766085</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6385,18 +5873,15 @@
         <v>198.5186</v>
       </c>
       <c r="G171" t="n">
-        <v>-817.8289199766085</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6418,18 +5903,15 @@
         <v>50</v>
       </c>
       <c r="G172" t="n">
-        <v>-817.8289199766085</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6451,18 +5933,15 @@
         <v>50</v>
       </c>
       <c r="G173" t="n">
-        <v>-817.8289199766085</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6484,18 +5963,15 @@
         <v>12.4955</v>
       </c>
       <c r="G174" t="n">
-        <v>-830.3244199766085</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6517,18 +5993,15 @@
         <v>1.1</v>
       </c>
       <c r="G175" t="n">
-        <v>-831.4244199766085</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6550,18 +6023,15 @@
         <v>103.0295</v>
       </c>
       <c r="G176" t="n">
-        <v>-831.4244199766085</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6583,18 +6053,15 @@
         <v>4.7569</v>
       </c>
       <c r="G177" t="n">
-        <v>-826.6675199766086</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6616,18 +6083,15 @@
         <v>4.182</v>
       </c>
       <c r="G178" t="n">
-        <v>-822.4855199766085</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6649,18 +6113,15 @@
         <v>81.60129999999999</v>
       </c>
       <c r="G179" t="n">
-        <v>-904.0868199766086</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6682,18 +6143,15 @@
         <v>187.9928</v>
       </c>
       <c r="G180" t="n">
-        <v>-904.0868199766086</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6715,18 +6173,15 @@
         <v>104.8939</v>
       </c>
       <c r="G181" t="n">
-        <v>-1008.980719976609</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6748,18 +6203,15 @@
         <v>17.8375</v>
       </c>
       <c r="G182" t="n">
-        <v>-1008.980719976609</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6781,18 +6233,15 @@
         <v>3.77</v>
       </c>
       <c r="G183" t="n">
-        <v>-1005.210719976609</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6814,18 +6263,15 @@
         <v>70.46729999999999</v>
       </c>
       <c r="G184" t="n">
-        <v>-934.7434199766086</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6847,18 +6293,15 @@
         <v>239.4349</v>
       </c>
       <c r="G185" t="n">
-        <v>-695.3085199766086</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6880,18 +6323,15 @@
         <v>50.3</v>
       </c>
       <c r="G186" t="n">
-        <v>-695.3085199766086</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6913,18 +6353,15 @@
         <v>30.2</v>
       </c>
       <c r="G187" t="n">
-        <v>-725.5085199766087</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6946,18 +6383,15 @@
         <v>105.8105</v>
       </c>
       <c r="G188" t="n">
-        <v>-831.3190199766087</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6979,18 +6413,15 @@
         <v>12.0535</v>
       </c>
       <c r="G189" t="n">
-        <v>-819.2655199766087</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7012,18 +6443,15 @@
         <v>1.0537</v>
       </c>
       <c r="G190" t="n">
-        <v>-820.3192199766088</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7045,18 +6473,15 @@
         <v>18.6896</v>
       </c>
       <c r="G191" t="n">
-        <v>-839.0088199766088</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7078,18 +6503,15 @@
         <v>26.28</v>
       </c>
       <c r="G192" t="n">
-        <v>-839.0088199766088</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7111,18 +6533,15 @@
         <v>27.9078</v>
       </c>
       <c r="G193" t="n">
-        <v>-839.0088199766088</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7144,18 +6563,15 @@
         <v>56.3546</v>
       </c>
       <c r="G194" t="n">
-        <v>-895.3634199766088</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7177,18 +6593,15 @@
         <v>70.72790000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-895.3634199766088</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7210,18 +6623,15 @@
         <v>4.492</v>
       </c>
       <c r="G196" t="n">
-        <v>-895.3634199766088</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7243,18 +6653,15 @@
         <v>87.4866</v>
       </c>
       <c r="G197" t="n">
-        <v>-807.8768199766089</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7276,18 +6683,15 @@
         <v>77.6979</v>
       </c>
       <c r="G198" t="n">
-        <v>-807.8768199766089</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7309,18 +6713,15 @@
         <v>6.4855</v>
       </c>
       <c r="G199" t="n">
-        <v>-801.3913199766089</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7342,18 +6743,15 @@
         <v>3.8094</v>
       </c>
       <c r="G200" t="n">
-        <v>-797.5819199766089</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7375,18 +6773,15 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>-797.5819199766089</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7408,18 +6803,15 @@
         <v>30.9901</v>
       </c>
       <c r="G202" t="n">
-        <v>-766.5918199766089</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7441,18 +6833,15 @@
         <v>104.9612</v>
       </c>
       <c r="G203" t="n">
-        <v>-766.5918199766089</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7474,18 +6863,15 @@
         <v>87.5945</v>
       </c>
       <c r="G204" t="n">
-        <v>-854.186319976609</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7507,18 +6893,15 @@
         <v>0.3524</v>
       </c>
       <c r="G205" t="n">
-        <v>-853.833919976609</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7540,18 +6923,15 @@
         <v>15</v>
       </c>
       <c r="G206" t="n">
-        <v>-838.833919976609</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7573,18 +6953,15 @@
         <v>37.678</v>
       </c>
       <c r="G207" t="n">
-        <v>-838.833919976609</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7606,18 +6983,15 @@
         <v>58.122</v>
       </c>
       <c r="G208" t="n">
-        <v>-896.9559199766089</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7639,18 +7013,15 @@
         <v>5.508</v>
       </c>
       <c r="G209" t="n">
-        <v>-902.463919976609</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7672,18 +7043,15 @@
         <v>11.4889</v>
       </c>
       <c r="G210" t="n">
-        <v>-913.9528199766089</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7705,18 +7073,15 @@
         <v>39.8345</v>
       </c>
       <c r="G211" t="n">
-        <v>-953.787319976609</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7738,18 +7103,15 @@
         <v>52.2212</v>
       </c>
       <c r="G212" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7771,18 +7133,15 @@
         <v>15.3019</v>
       </c>
       <c r="G213" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7804,18 +7163,15 @@
         <v>7.8731</v>
       </c>
       <c r="G214" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7837,18 +7193,15 @@
         <v>88.1414</v>
       </c>
       <c r="G215" t="n">
-        <v>-901.566119976609</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7870,18 +7223,15 @@
         <v>116.3484</v>
       </c>
       <c r="G216" t="n">
-        <v>-785.217719976609</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7903,18 +7253,15 @@
         <v>38.8563</v>
       </c>
       <c r="G217" t="n">
-        <v>-785.217719976609</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7936,18 +7283,15 @@
         <v>114.2728</v>
       </c>
       <c r="G218" t="n">
-        <v>-899.490519976609</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7969,18 +7313,15 @@
         <v>312.2241</v>
       </c>
       <c r="G219" t="n">
-        <v>-1211.714619976609</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8002,18 +7343,15 @@
         <v>1.47</v>
       </c>
       <c r="G220" t="n">
-        <v>-1210.244619976609</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8035,18 +7373,15 @@
         <v>7.821</v>
       </c>
       <c r="G221" t="n">
-        <v>-1218.065619976609</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8068,18 +7403,15 @@
         <v>54.3308</v>
       </c>
       <c r="G222" t="n">
-        <v>-1272.396419976609</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8101,18 +7433,15 @@
         <v>37.9427</v>
       </c>
       <c r="G223" t="n">
-        <v>-1272.396419976609</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
